--- a/deployment/Omaha_Cal_Info_CE01ISSM_00002.xlsx
+++ b/deployment/Omaha_Cal_Info_CE01ISSM_00002.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\# OOI_Asset_Management\CE_mod\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AST1799\Documents\OOI\OOI Douments\CI\asset-management\deployment\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="759" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="759" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1103" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1106" uniqueCount="210">
   <si>
     <t>Ref Des</t>
   </si>
@@ -513,12 +513,6 @@
     <t>CP03ISSM-00002-CPM1</t>
   </si>
   <si>
-    <t>CE01ISSM-RIC21-00-CPMENG000</t>
-  </si>
-  <si>
-    <t>CP03ISSM-00002-CPM2</t>
-  </si>
-  <si>
     <t>CE01ISSM-MFC31-00-CPMENG000</t>
   </si>
   <si>
@@ -637,6 +631,30 @@
   </si>
   <si>
     <t>16-50015</t>
+  </si>
+  <si>
+    <t>OL000186</t>
+  </si>
+  <si>
+    <t>OL000187</t>
+  </si>
+  <si>
+    <t>OL000188</t>
+  </si>
+  <si>
+    <t>OL000189</t>
+  </si>
+  <si>
+    <t>OL000190</t>
+  </si>
+  <si>
+    <t>OL000191</t>
+  </si>
+  <si>
+    <t>CE01ISSM-00002-MOPAK</t>
+  </si>
+  <si>
+    <t>OL000199</t>
   </si>
 </sst>
 </file>
@@ -1194,28 +1212,28 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="2" width="16.109375" style="1"/>
-    <col min="3" max="3" width="20.109375" style="1"/>
-    <col min="4" max="4" width="15.6640625" style="1"/>
-    <col min="5" max="5" width="11.5546875" style="2"/>
-    <col min="6" max="6" width="11.33203125" style="3"/>
-    <col min="7" max="7" width="11.6640625" style="2"/>
-    <col min="8" max="8" width="11.6640625" style="1"/>
-    <col min="9" max="9" width="13.6640625" style="1"/>
-    <col min="10" max="10" width="14.33203125" style="1"/>
-    <col min="11" max="11" width="11.5546875" style="1"/>
+    <col min="2" max="2" width="16.140625" style="1"/>
+    <col min="3" max="3" width="20.140625" style="1"/>
+    <col min="4" max="4" width="15.7109375" style="1"/>
+    <col min="5" max="5" width="11.5703125" style="2"/>
+    <col min="6" max="6" width="11.28515625" style="3"/>
+    <col min="7" max="7" width="11.7109375" style="2"/>
+    <col min="8" max="8" width="11.7109375" style="1"/>
+    <col min="9" max="9" width="13.7109375" style="1"/>
+    <col min="10" max="10" width="14.28515625" style="1"/>
+    <col min="11" max="11" width="11.5703125" style="1"/>
     <col min="12" max="12" width="21" style="1"/>
     <col min="13" max="13" width="12" style="1"/>
-    <col min="14" max="14" width="12.6640625" style="1"/>
-    <col min="15" max="1026" width="8.88671875" style="1"/>
+    <col min="14" max="14" width="12.7109375" style="1"/>
+    <col min="15" max="1026" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="4" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B1" s="22" t="s">
         <v>0</v>
@@ -1251,9 +1269,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>11</v>
@@ -1274,10 +1292,10 @@
         <v>42157</v>
       </c>
       <c r="H2" s="21" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="J2" s="6">
         <v>25</v>
@@ -1297,32 +1315,32 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMM221"/>
+  <dimension ref="A1:AMM220"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F193" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J210" sqref="J210:J212"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31" style="12"/>
-    <col min="2" max="2" width="12.109375" style="14" customWidth="1"/>
-    <col min="3" max="3" width="14.21875" style="12" customWidth="1"/>
-    <col min="4" max="4" width="10.88671875" style="12" customWidth="1"/>
-    <col min="5" max="5" width="13.88671875" style="14" customWidth="1"/>
-    <col min="6" max="6" width="15.77734375" style="12" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" style="14" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" style="12" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" style="12" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" style="14" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" style="12" customWidth="1"/>
     <col min="7" max="7" width="23" style="12" customWidth="1"/>
-    <col min="8" max="8" width="27.77734375" style="12" customWidth="1"/>
-    <col min="9" max="9" width="29.109375" style="12"/>
-    <col min="10" max="1027" width="8.88671875" style="12"/>
+    <col min="8" max="8" width="27.7109375" style="12" customWidth="1"/>
+    <col min="9" max="9" width="29.140625" style="12"/>
+    <col min="10" max="1027" width="8.85546875" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1026" s="13" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1026" s="13" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C1" s="23" t="s">
         <v>14</v>
@@ -1331,7 +1349,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="23" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F1" s="23" t="s">
         <v>15</v>
@@ -1346,7 +1364,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:1026" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -2374,12 +2392,12 @@
       <c r="AMK2"/>
       <c r="AML2"/>
     </row>
-    <row r="3" spans="1:1026" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C3" s="12" t="s">
         <v>12</v>
@@ -2387,8 +2405,11 @@
       <c r="D3" s="12">
         <v>2</v>
       </c>
-      <c r="F3" s="12">
-        <v>0.71180555555555503</v>
+      <c r="E3" t="s">
+        <v>209</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>208</v>
       </c>
       <c r="G3" s="14"/>
       <c r="H3"/>
@@ -3413,7 +3434,7 @@
       <c r="AMK3"/>
       <c r="AML3"/>
     </row>
-    <row r="4" spans="1:1026" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A4"/>
       <c r="B4"/>
       <c r="C4"/>
@@ -4441,12 +4462,12 @@
       <c r="AMK4"/>
       <c r="AML4"/>
     </row>
-    <row r="5" spans="1:1026" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C5" s="12" t="s">
         <v>12</v>
@@ -4455,10 +4476,10 @@
         <v>2</v>
       </c>
       <c r="E5" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F5" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G5" s="14" t="s">
         <v>21</v>
@@ -5485,12 +5506,12 @@
       <c r="AMK5"/>
       <c r="AML5"/>
     </row>
-    <row r="6" spans="1:1026" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>12</v>
@@ -5499,10 +5520,10 @@
         <v>2</v>
       </c>
       <c r="E6" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F6" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G6" s="14" t="s">
         <v>22</v>
@@ -6529,7 +6550,7 @@
       <c r="AMK6"/>
       <c r="AML6"/>
     </row>
-    <row r="7" spans="1:1026" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A7"/>
       <c r="B7"/>
       <c r="C7"/>
@@ -7557,12 +7578,12 @@
       <c r="AMK7"/>
       <c r="AML7"/>
     </row>
-    <row r="8" spans="1:1026" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
         <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C8" s="12" t="s">
         <v>12</v>
@@ -7571,10 +7592,10 @@
         <v>2</v>
       </c>
       <c r="E8" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F8" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="G8" s="14" t="s">
         <v>21</v>
@@ -8601,12 +8622,12 @@
       <c r="AMK8"/>
       <c r="AML8"/>
     </row>
-    <row r="9" spans="1:1026" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
         <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C9" s="12" t="s">
         <v>12</v>
@@ -8615,10 +8636,10 @@
         <v>2</v>
       </c>
       <c r="E9" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F9" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="G9" s="14" t="s">
         <v>22</v>
@@ -9644,7 +9665,7 @@
       <c r="AMK9"/>
       <c r="AML9"/>
     </row>
-    <row r="10" spans="1:1026" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A10"/>
       <c r="B10"/>
       <c r="C10"/>
@@ -10671,12 +10692,12 @@
       <c r="AMK10"/>
       <c r="AML10"/>
     </row>
-    <row r="11" spans="1:1026" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
         <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C11" s="12" t="s">
         <v>12</v>
@@ -10685,7 +10706,7 @@
         <v>2</v>
       </c>
       <c r="E11" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F11" s="12" t="s">
         <v>25</v>
@@ -11714,12 +11735,12 @@
       <c r="AMK11"/>
       <c r="AML11"/>
     </row>
-    <row r="12" spans="1:1026" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
         <v>24</v>
       </c>
       <c r="B12" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C12" s="12" t="s">
         <v>12</v>
@@ -11728,7 +11749,7 @@
         <v>2</v>
       </c>
       <c r="E12" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F12" s="12" t="s">
         <v>25</v>
@@ -12757,12 +12778,12 @@
       <c r="AMK12"/>
       <c r="AML12"/>
     </row>
-    <row r="13" spans="1:1026" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
         <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C13" s="12" t="s">
         <v>12</v>
@@ -12771,7 +12792,7 @@
         <v>2</v>
       </c>
       <c r="E13" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F13" s="12" t="s">
         <v>25</v>
@@ -13800,12 +13821,12 @@
       <c r="AMK13"/>
       <c r="AML13"/>
     </row>
-    <row r="14" spans="1:1026" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
         <v>24</v>
       </c>
       <c r="B14" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C14" s="12" t="s">
         <v>12</v>
@@ -13814,7 +13835,7 @@
         <v>2</v>
       </c>
       <c r="E14" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F14" s="12" t="s">
         <v>25</v>
@@ -14843,12 +14864,12 @@
       <c r="AMK14"/>
       <c r="AML14"/>
     </row>
-    <row r="15" spans="1:1026" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
         <v>24</v>
       </c>
       <c r="B15" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C15" s="12" t="s">
         <v>12</v>
@@ -14857,7 +14878,7 @@
         <v>2</v>
       </c>
       <c r="E15" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F15" s="12" t="s">
         <v>25</v>
@@ -15886,12 +15907,12 @@
       <c r="AMK15"/>
       <c r="AML15"/>
     </row>
-    <row r="16" spans="1:1026" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
         <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C16" s="12" t="s">
         <v>12</v>
@@ -15900,7 +15921,7 @@
         <v>2</v>
       </c>
       <c r="E16" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F16" s="12" t="s">
         <v>25</v>
@@ -16929,12 +16950,12 @@
       <c r="AMK16"/>
       <c r="AML16"/>
     </row>
-    <row r="17" spans="1:1026" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
         <v>24</v>
       </c>
       <c r="B17" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C17" s="12" t="s">
         <v>12</v>
@@ -16943,7 +16964,7 @@
         <v>2</v>
       </c>
       <c r="E17" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F17" s="12" t="s">
         <v>25</v>
@@ -17972,7 +17993,7 @@
       <c r="AMK17"/>
       <c r="AML17"/>
     </row>
-    <row r="18" spans="1:1026" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A18"/>
       <c r="B18"/>
       <c r="C18"/>
@@ -18999,12 +19020,12 @@
       <c r="AMK18"/>
       <c r="AML18"/>
     </row>
-    <row r="19" spans="1:1026" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
         <v>34</v>
       </c>
       <c r="B19" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C19" s="12" t="s">
         <v>12</v>
@@ -19013,7 +19034,7 @@
         <v>2</v>
       </c>
       <c r="E19" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F19" s="12" t="s">
         <v>35</v>
@@ -20042,12 +20063,12 @@
       <c r="AMK19"/>
       <c r="AML19"/>
     </row>
-    <row r="20" spans="1:1026" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
         <v>34</v>
       </c>
       <c r="B20" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C20" s="12" t="s">
         <v>12</v>
@@ -20056,7 +20077,7 @@
         <v>2</v>
       </c>
       <c r="E20" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F20" s="12" t="s">
         <v>35</v>
@@ -21085,12 +21106,12 @@
       <c r="AMK20"/>
       <c r="AML20"/>
     </row>
-    <row r="21" spans="1:1026" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
         <v>34</v>
       </c>
       <c r="B21" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C21" s="12" t="s">
         <v>12</v>
@@ -21099,7 +21120,7 @@
         <v>2</v>
       </c>
       <c r="E21" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F21" s="12" t="s">
         <v>35</v>
@@ -22128,12 +22149,12 @@
       <c r="AMK21"/>
       <c r="AML21"/>
     </row>
-    <row r="22" spans="1:1026" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
         <v>34</v>
       </c>
       <c r="B22" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C22" s="12" t="s">
         <v>12</v>
@@ -22142,7 +22163,7 @@
         <v>2</v>
       </c>
       <c r="E22" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F22" s="12" t="s">
         <v>35</v>
@@ -23171,12 +23192,12 @@
       <c r="AMK22"/>
       <c r="AML22"/>
     </row>
-    <row r="23" spans="1:1026" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
         <v>34</v>
       </c>
       <c r="B23" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C23" s="12" t="s">
         <v>12</v>
@@ -23185,7 +23206,7 @@
         <v>2</v>
       </c>
       <c r="E23" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F23" s="12" t="s">
         <v>35</v>
@@ -24214,12 +24235,12 @@
       <c r="AMK23"/>
       <c r="AML23"/>
     </row>
-    <row r="24" spans="1:1026" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
         <v>34</v>
       </c>
       <c r="B24" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C24" s="12" t="s">
         <v>12</v>
@@ -24228,7 +24249,7 @@
         <v>2</v>
       </c>
       <c r="E24" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F24" s="12" t="s">
         <v>35</v>
@@ -25257,12 +25278,12 @@
       <c r="AMK24"/>
       <c r="AML24"/>
     </row>
-    <row r="25" spans="1:1026" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
         <v>34</v>
       </c>
       <c r="B25" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C25" s="12" t="s">
         <v>12</v>
@@ -25271,7 +25292,7 @@
         <v>2</v>
       </c>
       <c r="E25" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F25" s="12" t="s">
         <v>35</v>
@@ -26300,7 +26321,7 @@
       <c r="AMK25"/>
       <c r="AML25"/>
     </row>
-    <row r="26" spans="1:1026" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A26"/>
       <c r="B26"/>
       <c r="C26"/>
@@ -27327,12 +27348,12 @@
       <c r="AMK26"/>
       <c r="AML26"/>
     </row>
-    <row r="27" spans="1:1026" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
         <v>36</v>
       </c>
       <c r="B27" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C27" s="12" t="s">
         <v>12</v>
@@ -27341,10 +27362,10 @@
         <v>2</v>
       </c>
       <c r="E27" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F27" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G27" s="14" t="s">
         <v>37</v>
@@ -28370,12 +28391,12 @@
       <c r="AMK27"/>
       <c r="AML27"/>
     </row>
-    <row r="28" spans="1:1026" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
         <v>36</v>
       </c>
       <c r="B28" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C28" s="12" t="s">
         <v>12</v>
@@ -28384,10 +28405,10 @@
         <v>2</v>
       </c>
       <c r="E28" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F28" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G28" s="14" t="s">
         <v>39</v>
@@ -29413,12 +29434,12 @@
       <c r="AMK28"/>
       <c r="AML28"/>
     </row>
-    <row r="29" spans="1:1026" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
         <v>36</v>
       </c>
       <c r="B29" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C29" s="12" t="s">
         <v>12</v>
@@ -29427,10 +29448,10 @@
         <v>2</v>
       </c>
       <c r="E29" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F29" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G29" s="14" t="s">
         <v>41</v>
@@ -30455,12 +30476,12 @@
       <c r="AMK29"/>
       <c r="AML29"/>
     </row>
-    <row r="30" spans="1:1026" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
         <v>36</v>
       </c>
       <c r="B30" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C30" s="12" t="s">
         <v>12</v>
@@ -30469,10 +30490,10 @@
         <v>2</v>
       </c>
       <c r="E30" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F30" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G30" s="14" t="s">
         <v>42</v>
@@ -31497,12 +31518,12 @@
       <c r="AMK30"/>
       <c r="AML30"/>
     </row>
-    <row r="31" spans="1:1026" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
         <v>36</v>
       </c>
       <c r="B31" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C31" s="12" t="s">
         <v>12</v>
@@ -31511,10 +31532,10 @@
         <v>2</v>
       </c>
       <c r="E31" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F31" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G31" s="14" t="s">
         <v>44</v>
@@ -32540,12 +32561,12 @@
       <c r="AMK31"/>
       <c r="AML31"/>
     </row>
-    <row r="32" spans="1:1026" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
         <v>36</v>
       </c>
       <c r="B32" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C32" s="12" t="s">
         <v>12</v>
@@ -32554,10 +32575,10 @@
         <v>2</v>
       </c>
       <c r="E32" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F32" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G32" s="14" t="s">
         <v>46</v>
@@ -33583,12 +33604,12 @@
       <c r="AMK32"/>
       <c r="AML32"/>
     </row>
-    <row r="33" spans="1:1026" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A33" s="12" t="s">
         <v>36</v>
       </c>
       <c r="B33" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C33" s="12" t="s">
         <v>12</v>
@@ -33597,10 +33618,10 @@
         <v>2</v>
       </c>
       <c r="E33" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F33" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G33" s="14" t="s">
         <v>48</v>
@@ -34626,12 +34647,12 @@
       <c r="AMK33"/>
       <c r="AML33"/>
     </row>
-    <row r="34" spans="1:1026" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:1026" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="16" t="s">
         <v>36</v>
       </c>
       <c r="B34" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C34" s="16" t="s">
         <v>12</v>
@@ -34640,10 +34661,10 @@
         <v>2</v>
       </c>
       <c r="E34" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F34" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G34" s="17" t="s">
         <v>50</v>
@@ -34652,7 +34673,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="35" spans="1:1026" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A35"/>
       <c r="B35"/>
       <c r="C35"/>
@@ -34663,12 +34684,12 @@
       <c r="H35"/>
       <c r="I35"/>
     </row>
-    <row r="36" spans="1:1026" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A36" s="12" t="s">
         <v>52</v>
       </c>
       <c r="B36" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C36" s="12" t="s">
         <v>12</v>
@@ -34677,10 +34698,10 @@
         <v>2</v>
       </c>
       <c r="E36" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F36" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G36" s="14" t="s">
         <v>37</v>
@@ -34690,12 +34711,12 @@
       </c>
       <c r="I36"/>
     </row>
-    <row r="37" spans="1:1026" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A37" s="12" t="s">
         <v>52</v>
       </c>
       <c r="B37" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C37" s="12" t="s">
         <v>12</v>
@@ -34704,10 +34725,10 @@
         <v>2</v>
       </c>
       <c r="E37" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F37" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G37" s="14" t="s">
         <v>39</v>
@@ -34717,12 +34738,12 @@
       </c>
       <c r="I37"/>
     </row>
-    <row r="38" spans="1:1026" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A38" s="12" t="s">
         <v>52</v>
       </c>
       <c r="B38" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C38" s="12" t="s">
         <v>12</v>
@@ -34731,10 +34752,10 @@
         <v>2</v>
       </c>
       <c r="E38" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F38" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G38" s="14" t="s">
         <v>41</v>
@@ -34744,12 +34765,12 @@
       </c>
       <c r="I38"/>
     </row>
-    <row r="39" spans="1:1026" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A39" s="12" t="s">
         <v>52</v>
       </c>
       <c r="B39" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C39" s="12" t="s">
         <v>12</v>
@@ -34758,10 +34779,10 @@
         <v>2</v>
       </c>
       <c r="E39" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F39" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G39" s="14" t="s">
         <v>42</v>
@@ -34771,12 +34792,12 @@
       </c>
       <c r="I39"/>
     </row>
-    <row r="40" spans="1:1026" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A40" s="12" t="s">
         <v>52</v>
       </c>
       <c r="B40" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C40" s="12" t="s">
         <v>12</v>
@@ -34785,10 +34806,10 @@
         <v>2</v>
       </c>
       <c r="E40" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F40" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G40" s="14" t="s">
         <v>44</v>
@@ -34798,12 +34819,12 @@
       </c>
       <c r="I40"/>
     </row>
-    <row r="41" spans="1:1026" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A41" s="12" t="s">
         <v>52</v>
       </c>
       <c r="B41" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C41" s="12" t="s">
         <v>12</v>
@@ -34812,10 +34833,10 @@
         <v>2</v>
       </c>
       <c r="E41" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F41" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G41" s="14" t="s">
         <v>46</v>
@@ -34825,12 +34846,12 @@
       </c>
       <c r="I41"/>
     </row>
-    <row r="42" spans="1:1026" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A42" s="12" t="s">
         <v>52</v>
       </c>
       <c r="B42" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C42" s="12" t="s">
         <v>12</v>
@@ -34839,10 +34860,10 @@
         <v>2</v>
       </c>
       <c r="E42" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F42" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G42" s="14" t="s">
         <v>48</v>
@@ -34852,12 +34873,12 @@
       </c>
       <c r="I42"/>
     </row>
-    <row r="43" spans="1:1026" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A43" s="12" t="s">
         <v>52</v>
       </c>
       <c r="B43" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C43" s="12" t="s">
         <v>12</v>
@@ -34866,10 +34887,10 @@
         <v>2</v>
       </c>
       <c r="E43" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F43" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G43" s="14" t="s">
         <v>50</v>
@@ -34880,7 +34901,7 @@
       <c r="I43"/>
       <c r="J43"/>
     </row>
-    <row r="44" spans="1:1026" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A44"/>
       <c r="B44"/>
       <c r="C44"/>
@@ -34891,7 +34912,7 @@
       <c r="H44"/>
       <c r="I44"/>
     </row>
-    <row r="45" spans="1:1026" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="J45" s="12" t="s">
         <v>60</v>
       </c>
@@ -34912,7 +34933,7 @@
       </c>
       <c r="P45"/>
     </row>
-    <row r="46" spans="1:1026" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="J46" s="12" t="s">
         <v>60</v>
       </c>
@@ -34933,7 +34954,7 @@
       </c>
       <c r="P46"/>
     </row>
-    <row r="47" spans="1:1026" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="J47" s="12" t="s">
         <v>60</v>
       </c>
@@ -34954,7 +34975,7 @@
       </c>
       <c r="P47"/>
     </row>
-    <row r="48" spans="1:1026" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="J48" s="12" t="s">
         <v>60</v>
       </c>
@@ -34975,7 +34996,7 @@
       </c>
       <c r="P48"/>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="J49" s="12" t="s">
         <v>60</v>
       </c>
@@ -34996,7 +35017,7 @@
       </c>
       <c r="P49"/>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="J50" s="12" t="s">
         <v>60</v>
       </c>
@@ -35017,7 +35038,7 @@
       </c>
       <c r="P50"/>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="J51" s="12" t="s">
         <v>60</v>
       </c>
@@ -35040,7 +35061,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="J52" s="12" t="s">
         <v>60</v>
       </c>
@@ -35063,7 +35084,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="J53" s="12" t="s">
         <v>60</v>
       </c>
@@ -35086,7 +35107,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="J54" s="12" t="s">
         <v>60</v>
       </c>
@@ -35109,7 +35130,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55"/>
       <c r="B55"/>
       <c r="C55"/>
@@ -35120,12 +35141,12 @@
       <c r="H55"/>
       <c r="I55"/>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56" s="12" t="s">
         <v>71</v>
       </c>
       <c r="B56" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C56" s="12" t="s">
         <v>12</v>
@@ -35134,7 +35155,7 @@
         <v>2</v>
       </c>
       <c r="E56" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F56" s="12">
         <v>1153</v>
@@ -35147,12 +35168,12 @@
       </c>
       <c r="I56"/>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" s="12" t="s">
         <v>71</v>
       </c>
       <c r="B57" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C57" s="12" t="s">
         <v>12</v>
@@ -35161,7 +35182,7 @@
         <v>2</v>
       </c>
       <c r="E57" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F57" s="12">
         <v>1153</v>
@@ -35174,12 +35195,12 @@
       </c>
       <c r="I57"/>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58" s="12" t="s">
         <v>71</v>
       </c>
       <c r="B58" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C58" s="12" t="s">
         <v>12</v>
@@ -35188,7 +35209,7 @@
         <v>2</v>
       </c>
       <c r="E58" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F58" s="12">
         <v>1153</v>
@@ -35201,12 +35222,12 @@
       </c>
       <c r="I58"/>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59" s="12" t="s">
         <v>71</v>
       </c>
       <c r="B59" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C59" s="12" t="s">
         <v>12</v>
@@ -35215,7 +35236,7 @@
         <v>2</v>
       </c>
       <c r="E59" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F59" s="12">
         <v>1153</v>
@@ -35228,12 +35249,12 @@
       </c>
       <c r="I59"/>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60" s="12" t="s">
         <v>71</v>
       </c>
       <c r="B60" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C60" s="12" t="s">
         <v>12</v>
@@ -35242,7 +35263,7 @@
         <v>2</v>
       </c>
       <c r="E60" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F60" s="12">
         <v>1153</v>
@@ -35255,12 +35276,12 @@
       </c>
       <c r="I60"/>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A61" s="12" t="s">
         <v>71</v>
       </c>
       <c r="B61" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C61" s="12" t="s">
         <v>12</v>
@@ -35269,7 +35290,7 @@
         <v>2</v>
       </c>
       <c r="E61" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F61" s="12">
         <v>1153</v>
@@ -35282,12 +35303,12 @@
       </c>
       <c r="I61"/>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A62" s="12" t="s">
         <v>71</v>
       </c>
       <c r="B62" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C62" s="12" t="s">
         <v>12</v>
@@ -35296,7 +35317,7 @@
         <v>2</v>
       </c>
       <c r="E62" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F62" s="12">
         <v>1153</v>
@@ -35311,12 +35332,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A63" s="12" t="s">
         <v>71</v>
       </c>
       <c r="B63" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C63" s="12" t="s">
         <v>12</v>
@@ -35325,7 +35346,7 @@
         <v>2</v>
       </c>
       <c r="E63" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F63" s="12">
         <v>1153</v>
@@ -35340,12 +35361,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A64" s="12" t="s">
         <v>71</v>
       </c>
       <c r="B64" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C64" s="12" t="s">
         <v>12</v>
@@ -35354,7 +35375,7 @@
         <v>2</v>
       </c>
       <c r="E64" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F64" s="12">
         <v>1153</v>
@@ -35369,12 +35390,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" s="12" t="s">
         <v>71</v>
       </c>
       <c r="B65" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C65" s="12" t="s">
         <v>12</v>
@@ -35383,7 +35404,7 @@
         <v>2</v>
       </c>
       <c r="E65" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F65" s="12">
         <v>1153</v>
@@ -35398,7 +35419,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66"/>
       <c r="B66"/>
       <c r="C66"/>
@@ -35409,7 +35430,7 @@
       <c r="H66"/>
       <c r="I66"/>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J67" s="14" t="s">
         <v>73</v>
       </c>
@@ -35429,7 +35450,7 @@
         <v>44.658383333333298</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J68" s="14" t="s">
         <v>73</v>
       </c>
@@ -35449,7 +35470,7 @@
         <v>-124.095583333333</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J69" s="12" t="s">
         <v>73</v>
       </c>
@@ -35469,7 +35490,7 @@
         <v>1.276456E-3</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J70" s="12" t="s">
         <v>73</v>
       </c>
@@ -35489,7 +35510,7 @@
         <v>2.6903810000000002E-4</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J71" s="12" t="s">
         <v>73</v>
       </c>
@@ -35509,7 +35530,7 @@
         <v>-5.591639E-7</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J72" s="12" t="s">
         <v>73</v>
       </c>
@@ -35529,7 +35550,7 @@
         <v>1.577658E-7</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J73" s="12" t="s">
         <v>73</v>
       </c>
@@ -35549,7 +35570,7 @@
         <v>-58.854516699999998</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J74" s="12" t="s">
         <v>73</v>
       </c>
@@ -35569,7 +35590,7 @@
         <v>54.255826800000001</v>
       </c>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J75" s="12" t="s">
         <v>73</v>
       </c>
@@ -35589,7 +35610,7 @@
         <v>-0.55724122799999998</v>
       </c>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J76" s="12" t="s">
         <v>73</v>
       </c>
@@ -35609,7 +35630,7 @@
         <v>524431.27800000005</v>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J77" s="12" t="s">
         <v>73</v>
       </c>
@@ -35629,7 +35650,7 @@
         <v>-21.887732100000001</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J78" s="12" t="s">
         <v>73</v>
       </c>
@@ -35649,7 +35670,7 @@
         <v>0.31120579700000001</v>
       </c>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J79" s="12" t="s">
         <v>73</v>
       </c>
@@ -35669,7 +35690,7 @@
         <v>25.026250000000001</v>
       </c>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J80" s="12" t="s">
         <v>73</v>
       </c>
@@ -35689,7 +35710,7 @@
         <v>-3.5E-4</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J81" s="12" t="s">
         <v>73</v>
       </c>
@@ -35709,7 +35730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J82" s="12" t="s">
         <v>73</v>
       </c>
@@ -35729,7 +35750,7 @@
         <v>-0.159678125</v>
       </c>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J83" s="12" t="s">
         <v>73</v>
       </c>
@@ -35749,7 +35770,7 @@
         <v>4.8865805100000001E-4</v>
       </c>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J84" s="12" t="s">
         <v>73</v>
       </c>
@@ -35769,7 +35790,7 @@
         <v>-5.8760541700000003E-12</v>
       </c>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J85" s="12" t="s">
         <v>73</v>
       </c>
@@ -35789,7 +35810,7 @@
         <v>-0.97195659999999995</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J86" s="12" t="s">
         <v>73</v>
       </c>
@@ -35809,7 +35830,7 @@
         <v>0.13858780000000001</v>
       </c>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J87" s="12" t="s">
         <v>73</v>
       </c>
@@ -35829,7 +35850,7 @@
         <v>-2.7013310000000002E-4</v>
       </c>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J88" s="12" t="s">
         <v>73</v>
       </c>
@@ -35849,7 +35870,7 @@
         <v>3.8801909999999999E-5</v>
       </c>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J89" s="12" t="s">
         <v>73</v>
       </c>
@@ -35869,7 +35890,7 @@
         <v>-9.5700000000000003E-8</v>
       </c>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J90" s="12" t="s">
         <v>73</v>
       </c>
@@ -35889,7 +35910,7 @@
         <v>3.2499999999999998E-6</v>
       </c>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A91"/>
       <c r="B91"/>
       <c r="C91"/>
@@ -35900,12 +35921,12 @@
       <c r="H91"/>
       <c r="I91"/>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A92" s="12" t="s">
         <v>73</v>
       </c>
       <c r="B92" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C92" s="12" t="s">
         <v>12</v>
@@ -35914,10 +35935,10 @@
         <v>2</v>
       </c>
       <c r="E92" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F92" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G92" s="14" t="s">
         <v>21</v>
@@ -35927,12 +35948,12 @@
       </c>
       <c r="I92"/>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A93" s="12" t="s">
         <v>73</v>
       </c>
       <c r="B93" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C93" s="12" t="s">
         <v>12</v>
@@ -35941,10 +35962,10 @@
         <v>2</v>
       </c>
       <c r="E93" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F93" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G93" s="14" t="s">
         <v>22</v>
@@ -35954,12 +35975,12 @@
       </c>
       <c r="I93"/>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A94" s="12" t="s">
         <v>73</v>
       </c>
       <c r="B94" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C94" s="12" t="s">
         <v>12</v>
@@ -35968,10 +35989,10 @@
         <v>2</v>
       </c>
       <c r="E94" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F94" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G94" s="14" t="s">
         <v>74</v>
@@ -35982,12 +36003,12 @@
       <c r="I94"/>
       <c r="J94"/>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A95" s="12" t="s">
         <v>73</v>
       </c>
       <c r="B95" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C95" s="12" t="s">
         <v>12</v>
@@ -35996,10 +36017,10 @@
         <v>2</v>
       </c>
       <c r="E95" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F95" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G95" s="14" t="s">
         <v>75</v>
@@ -36010,12 +36031,12 @@
       <c r="I95"/>
       <c r="J95"/>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A96" s="12" t="s">
         <v>73</v>
       </c>
       <c r="B96" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C96" s="12" t="s">
         <v>12</v>
@@ -36024,10 +36045,10 @@
         <v>2</v>
       </c>
       <c r="E96" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F96" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G96" s="14" t="s">
         <v>76</v>
@@ -36037,12 +36058,12 @@
       </c>
       <c r="I96"/>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" s="12" t="s">
         <v>73</v>
       </c>
       <c r="B97" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C97" s="12" t="s">
         <v>12</v>
@@ -36051,10 +36072,10 @@
         <v>2</v>
       </c>
       <c r="E97" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F97" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G97" s="14" t="s">
         <v>77</v>
@@ -36064,12 +36085,12 @@
       </c>
       <c r="I97"/>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" s="12" t="s">
         <v>73</v>
       </c>
       <c r="B98" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C98" s="12" t="s">
         <v>12</v>
@@ -36078,10 +36099,10 @@
         <v>2</v>
       </c>
       <c r="E98" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F98" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G98" s="14" t="s">
         <v>78</v>
@@ -36091,12 +36112,12 @@
       </c>
       <c r="I98"/>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" s="12" t="s">
         <v>73</v>
       </c>
       <c r="B99" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C99" s="12" t="s">
         <v>12</v>
@@ -36105,10 +36126,10 @@
         <v>2</v>
       </c>
       <c r="E99" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F99" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G99" s="14" t="s">
         <v>79</v>
@@ -36118,12 +36139,12 @@
       </c>
       <c r="I99"/>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" s="12" t="s">
         <v>73</v>
       </c>
       <c r="B100" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C100" s="12" t="s">
         <v>12</v>
@@ -36132,10 +36153,10 @@
         <v>2</v>
       </c>
       <c r="E100" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F100" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G100" s="14" t="s">
         <v>80</v>
@@ -36145,12 +36166,12 @@
       </c>
       <c r="I100"/>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" s="12" t="s">
         <v>73</v>
       </c>
       <c r="B101" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C101" s="12" t="s">
         <v>12</v>
@@ -36159,10 +36180,10 @@
         <v>2</v>
       </c>
       <c r="E101" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F101" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G101" s="14" t="s">
         <v>81</v>
@@ -36172,12 +36193,12 @@
       </c>
       <c r="I101"/>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" s="12" t="s">
         <v>73</v>
       </c>
       <c r="B102" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C102" s="12" t="s">
         <v>12</v>
@@ -36186,10 +36207,10 @@
         <v>2</v>
       </c>
       <c r="E102" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F102" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G102" s="14" t="s">
         <v>82</v>
@@ -36199,12 +36220,12 @@
       </c>
       <c r="I102"/>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" s="12" t="s">
         <v>73</v>
       </c>
       <c r="B103" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C103" s="12" t="s">
         <v>12</v>
@@ -36213,10 +36234,10 @@
         <v>2</v>
       </c>
       <c r="E103" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F103" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G103" s="14" t="s">
         <v>83</v>
@@ -36226,12 +36247,12 @@
       </c>
       <c r="I103"/>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" s="12" t="s">
         <v>73</v>
       </c>
       <c r="B104" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C104" s="12" t="s">
         <v>12</v>
@@ -36240,10 +36261,10 @@
         <v>2</v>
       </c>
       <c r="E104" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F104" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G104" s="14" t="s">
         <v>84</v>
@@ -36253,12 +36274,12 @@
       </c>
       <c r="I104"/>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" s="12" t="s">
         <v>73</v>
       </c>
       <c r="B105" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C105" s="12" t="s">
         <v>12</v>
@@ -36267,10 +36288,10 @@
         <v>2</v>
       </c>
       <c r="E105" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F105" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G105" s="14" t="s">
         <v>85</v>
@@ -36280,12 +36301,12 @@
       </c>
       <c r="I105"/>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" s="12" t="s">
         <v>73</v>
       </c>
       <c r="B106" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C106" s="12" t="s">
         <v>12</v>
@@ -36294,10 +36315,10 @@
         <v>2</v>
       </c>
       <c r="E106" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F106" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G106" s="14" t="s">
         <v>86</v>
@@ -36307,12 +36328,12 @@
       </c>
       <c r="I106"/>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" s="12" t="s">
         <v>73</v>
       </c>
       <c r="B107" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C107" s="12" t="s">
         <v>12</v>
@@ -36321,10 +36342,10 @@
         <v>2</v>
       </c>
       <c r="E107" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F107" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G107" s="14" t="s">
         <v>87</v>
@@ -36334,12 +36355,12 @@
       </c>
       <c r="I107"/>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" s="12" t="s">
         <v>73</v>
       </c>
       <c r="B108" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C108" s="12" t="s">
         <v>12</v>
@@ -36348,10 +36369,10 @@
         <v>2</v>
       </c>
       <c r="E108" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F108" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G108" s="14" t="s">
         <v>88</v>
@@ -36361,12 +36382,12 @@
       </c>
       <c r="I108"/>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" s="12" t="s">
         <v>73</v>
       </c>
       <c r="B109" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C109" s="12" t="s">
         <v>12</v>
@@ -36375,10 +36396,10 @@
         <v>2</v>
       </c>
       <c r="E109" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F109" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G109" s="14" t="s">
         <v>89</v>
@@ -36388,12 +36409,12 @@
       </c>
       <c r="I109"/>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" s="12" t="s">
         <v>73</v>
       </c>
       <c r="B110" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C110" s="12" t="s">
         <v>12</v>
@@ -36402,10 +36423,10 @@
         <v>2</v>
       </c>
       <c r="E110" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F110" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G110" s="14" t="s">
         <v>90</v>
@@ -36415,12 +36436,12 @@
       </c>
       <c r="I110"/>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" s="12" t="s">
         <v>73</v>
       </c>
       <c r="B111" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C111" s="12" t="s">
         <v>12</v>
@@ -36429,10 +36450,10 @@
         <v>2</v>
       </c>
       <c r="E111" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F111" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G111" s="14" t="s">
         <v>91</v>
@@ -36442,12 +36463,12 @@
       </c>
       <c r="I111"/>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" s="12" t="s">
         <v>73</v>
       </c>
       <c r="B112" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C112" s="12" t="s">
         <v>12</v>
@@ -36456,10 +36477,10 @@
         <v>2</v>
       </c>
       <c r="E112" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F112" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G112" s="14" t="s">
         <v>92</v>
@@ -36469,12 +36490,12 @@
       </c>
       <c r="I112"/>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113" s="12" t="s">
         <v>73</v>
       </c>
       <c r="B113" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C113" s="12" t="s">
         <v>12</v>
@@ -36483,10 +36504,10 @@
         <v>2</v>
       </c>
       <c r="E113" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F113" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G113" s="14" t="s">
         <v>93</v>
@@ -36496,12 +36517,12 @@
       </c>
       <c r="I113"/>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114" s="12" t="s">
         <v>73</v>
       </c>
       <c r="B114" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C114" s="12" t="s">
         <v>12</v>
@@ -36510,10 +36531,10 @@
         <v>2</v>
       </c>
       <c r="E114" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F114" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G114" s="14" t="s">
         <v>94</v>
@@ -36523,12 +36544,12 @@
       </c>
       <c r="I114"/>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115" s="12" t="s">
         <v>73</v>
       </c>
       <c r="B115" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C115" s="12" t="s">
         <v>12</v>
@@ -36537,10 +36558,10 @@
         <v>2</v>
       </c>
       <c r="E115" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F115" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G115" s="14" t="s">
         <v>95</v>
@@ -36550,7 +36571,7 @@
       </c>
       <c r="I115"/>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116"/>
       <c r="B116"/>
       <c r="C116"/>
@@ -36561,12 +36582,12 @@
       <c r="H116"/>
       <c r="I116"/>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117" s="12" t="s">
         <v>96</v>
       </c>
       <c r="B117" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C117" s="12" t="s">
         <v>12</v>
@@ -36575,10 +36596,10 @@
         <v>2</v>
       </c>
       <c r="E117" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F117" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G117" s="14" t="s">
         <v>21</v>
@@ -36588,12 +36609,12 @@
       </c>
       <c r="I117"/>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118" s="12" t="s">
         <v>96</v>
       </c>
       <c r="B118" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C118" s="12" t="s">
         <v>12</v>
@@ -36602,10 +36623,10 @@
         <v>2</v>
       </c>
       <c r="E118" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F118" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G118" s="14" t="s">
         <v>22</v>
@@ -36615,12 +36636,12 @@
       </c>
       <c r="I118"/>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119" s="12" t="s">
         <v>96</v>
       </c>
       <c r="B119" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C119" s="12" t="s">
         <v>12</v>
@@ -36629,10 +36650,10 @@
         <v>2</v>
       </c>
       <c r="E119" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F119" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G119" s="14" t="s">
         <v>74</v>
@@ -36642,12 +36663,12 @@
       </c>
       <c r="I119"/>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120" s="12" t="s">
         <v>96</v>
       </c>
       <c r="B120" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C120" s="12" t="s">
         <v>12</v>
@@ -36656,10 +36677,10 @@
         <v>2</v>
       </c>
       <c r="E120" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F120" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G120" s="14" t="s">
         <v>75</v>
@@ -36669,12 +36690,12 @@
       </c>
       <c r="I120"/>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121" s="12" t="s">
         <v>96</v>
       </c>
       <c r="B121" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C121" s="12" t="s">
         <v>12</v>
@@ -36683,10 +36704,10 @@
         <v>2</v>
       </c>
       <c r="E121" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F121" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G121" s="14" t="s">
         <v>76</v>
@@ -36696,12 +36717,12 @@
       </c>
       <c r="I121"/>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122" s="12" t="s">
         <v>96</v>
       </c>
       <c r="B122" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C122" s="12" t="s">
         <v>12</v>
@@ -36710,10 +36731,10 @@
         <v>2</v>
       </c>
       <c r="E122" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F122" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G122" s="14" t="s">
         <v>77</v>
@@ -36723,12 +36744,12 @@
       </c>
       <c r="I122"/>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123" s="12" t="s">
         <v>96</v>
       </c>
       <c r="B123" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C123" s="12" t="s">
         <v>12</v>
@@ -36737,10 +36758,10 @@
         <v>2</v>
       </c>
       <c r="E123" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F123" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G123" s="14" t="s">
         <v>78</v>
@@ -36750,12 +36771,12 @@
       </c>
       <c r="I123"/>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124" s="12" t="s">
         <v>96</v>
       </c>
       <c r="B124" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C124" s="12" t="s">
         <v>12</v>
@@ -36764,10 +36785,10 @@
         <v>2</v>
       </c>
       <c r="E124" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F124" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G124" s="14" t="s">
         <v>79</v>
@@ -36777,12 +36798,12 @@
       </c>
       <c r="I124"/>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125" s="12" t="s">
         <v>96</v>
       </c>
       <c r="B125" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C125" s="12" t="s">
         <v>12</v>
@@ -36791,10 +36812,10 @@
         <v>2</v>
       </c>
       <c r="E125" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F125" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G125" s="14" t="s">
         <v>80</v>
@@ -36804,12 +36825,12 @@
       </c>
       <c r="I125"/>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126" s="12" t="s">
         <v>96</v>
       </c>
       <c r="B126" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C126" s="12" t="s">
         <v>12</v>
@@ -36818,10 +36839,10 @@
         <v>2</v>
       </c>
       <c r="E126" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F126" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G126" s="14" t="s">
         <v>81</v>
@@ -36831,12 +36852,12 @@
       </c>
       <c r="I126"/>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127" s="12" t="s">
         <v>96</v>
       </c>
       <c r="B127" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C127" s="12" t="s">
         <v>12</v>
@@ -36845,10 +36866,10 @@
         <v>2</v>
       </c>
       <c r="E127" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F127" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G127" s="14" t="s">
         <v>82</v>
@@ -36858,12 +36879,12 @@
       </c>
       <c r="I127"/>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128" s="12" t="s">
         <v>96</v>
       </c>
       <c r="B128" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C128" s="12" t="s">
         <v>12</v>
@@ -36872,10 +36893,10 @@
         <v>2</v>
       </c>
       <c r="E128" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F128" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G128" s="14" t="s">
         <v>83</v>
@@ -36886,12 +36907,12 @@
       <c r="I128"/>
       <c r="J128"/>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129" s="12" t="s">
         <v>96</v>
       </c>
       <c r="B129" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C129" s="12" t="s">
         <v>12</v>
@@ -36900,10 +36921,10 @@
         <v>2</v>
       </c>
       <c r="E129" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F129" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G129" s="14" t="s">
         <v>84</v>
@@ -36913,12 +36934,12 @@
       </c>
       <c r="I129"/>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130" s="12" t="s">
         <v>96</v>
       </c>
       <c r="B130" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C130" s="12" t="s">
         <v>12</v>
@@ -36927,10 +36948,10 @@
         <v>2</v>
       </c>
       <c r="E130" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F130" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G130" s="14" t="s">
         <v>85</v>
@@ -36941,12 +36962,12 @@
       <c r="I130"/>
       <c r="J130"/>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131" s="12" t="s">
         <v>96</v>
       </c>
       <c r="B131" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C131" s="12" t="s">
         <v>12</v>
@@ -36955,10 +36976,10 @@
         <v>2</v>
       </c>
       <c r="E131" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F131" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G131" s="14" t="s">
         <v>86</v>
@@ -36968,12 +36989,12 @@
       </c>
       <c r="I131"/>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A132" s="12" t="s">
         <v>96</v>
       </c>
       <c r="B132" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C132" s="12" t="s">
         <v>12</v>
@@ -36982,10 +37003,10 @@
         <v>2</v>
       </c>
       <c r="E132" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F132" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G132" s="14" t="s">
         <v>87</v>
@@ -36995,12 +37016,12 @@
       </c>
       <c r="I132"/>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A133" s="12" t="s">
         <v>96</v>
       </c>
       <c r="B133" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C133" s="12" t="s">
         <v>12</v>
@@ -37009,10 +37030,10 @@
         <v>2</v>
       </c>
       <c r="E133" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F133" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G133" s="14" t="s">
         <v>88</v>
@@ -37022,12 +37043,12 @@
       </c>
       <c r="I133"/>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A134" s="12" t="s">
         <v>96</v>
       </c>
       <c r="B134" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C134" s="12" t="s">
         <v>12</v>
@@ -37036,10 +37057,10 @@
         <v>2</v>
       </c>
       <c r="E134" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F134" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G134" s="14" t="s">
         <v>89</v>
@@ -37049,12 +37070,12 @@
       </c>
       <c r="I134"/>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A135" s="12" t="s">
         <v>96</v>
       </c>
       <c r="B135" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C135" s="12" t="s">
         <v>12</v>
@@ -37063,10 +37084,10 @@
         <v>2</v>
       </c>
       <c r="E135" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F135" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G135" s="14" t="s">
         <v>90</v>
@@ -37076,12 +37097,12 @@
       </c>
       <c r="I135"/>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A136" s="12" t="s">
         <v>96</v>
       </c>
       <c r="B136" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C136" s="12" t="s">
         <v>12</v>
@@ -37090,10 +37111,10 @@
         <v>2</v>
       </c>
       <c r="E136" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F136" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G136" s="14" t="s">
         <v>91</v>
@@ -37103,12 +37124,12 @@
       </c>
       <c r="I136"/>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A137" s="12" t="s">
         <v>96</v>
       </c>
       <c r="B137" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C137" s="12" t="s">
         <v>12</v>
@@ -37117,10 +37138,10 @@
         <v>2</v>
       </c>
       <c r="E137" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F137" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G137" s="14" t="s">
         <v>92</v>
@@ -37130,12 +37151,12 @@
       </c>
       <c r="I137"/>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A138" s="12" t="s">
         <v>96</v>
       </c>
       <c r="B138" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C138" s="12" t="s">
         <v>12</v>
@@ -37144,10 +37165,10 @@
         <v>2</v>
       </c>
       <c r="E138" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F138" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G138" s="14" t="s">
         <v>93</v>
@@ -37157,12 +37178,12 @@
       </c>
       <c r="I138"/>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A139" s="12" t="s">
         <v>96</v>
       </c>
       <c r="B139" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C139" s="12" t="s">
         <v>12</v>
@@ -37171,10 +37192,10 @@
         <v>2</v>
       </c>
       <c r="E139" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F139" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G139" s="14" t="s">
         <v>94</v>
@@ -37184,12 +37205,12 @@
       </c>
       <c r="I139"/>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A140" s="12" t="s">
         <v>96</v>
       </c>
       <c r="B140" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C140" s="12" t="s">
         <v>12</v>
@@ -37198,10 +37219,10 @@
         <v>2</v>
       </c>
       <c r="E140" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F140" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G140" s="14" t="s">
         <v>95</v>
@@ -37211,7 +37232,7 @@
       </c>
       <c r="I140"/>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A141"/>
       <c r="B141"/>
       <c r="C141"/>
@@ -37222,12 +37243,12 @@
       <c r="H141"/>
       <c r="I141"/>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A142" s="12" t="s">
         <v>97</v>
       </c>
       <c r="B142" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C142" s="12" t="s">
         <v>12</v>
@@ -37236,7 +37257,7 @@
         <v>2</v>
       </c>
       <c r="E142" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F142" s="12">
         <v>219</v>
@@ -37249,12 +37270,12 @@
       </c>
       <c r="I142"/>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A143" s="12" t="s">
         <v>97</v>
       </c>
       <c r="B143" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C143" s="12" t="s">
         <v>12</v>
@@ -37263,7 +37284,7 @@
         <v>2</v>
       </c>
       <c r="E143" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F143" s="12">
         <v>219</v>
@@ -37276,12 +37297,12 @@
       </c>
       <c r="I143"/>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A144" s="12" t="s">
         <v>97</v>
       </c>
       <c r="B144" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C144" s="12" t="s">
         <v>12</v>
@@ -37290,7 +37311,7 @@
         <v>2</v>
       </c>
       <c r="E144" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F144" s="12">
         <v>219</v>
@@ -37303,7 +37324,7 @@
       </c>
       <c r="I144"/>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145"/>
       <c r="B145"/>
       <c r="C145"/>
@@ -37314,12 +37335,12 @@
       <c r="H145"/>
       <c r="I145"/>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" s="12" t="s">
         <v>100</v>
       </c>
       <c r="B146" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C146" s="12" t="s">
         <v>12</v>
@@ -37328,7 +37349,7 @@
         <v>2</v>
       </c>
       <c r="E146" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F146" s="12">
         <v>311</v>
@@ -37341,12 +37362,12 @@
       </c>
       <c r="I146"/>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" s="12" t="s">
         <v>100</v>
       </c>
       <c r="B147" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C147" s="12" t="s">
         <v>12</v>
@@ -37355,7 +37376,7 @@
         <v>2</v>
       </c>
       <c r="E147" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F147" s="12">
         <v>311</v>
@@ -37368,12 +37389,12 @@
       </c>
       <c r="I147"/>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" s="12" t="s">
         <v>100</v>
       </c>
       <c r="B148" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C148" s="12" t="s">
         <v>12</v>
@@ -37382,7 +37403,7 @@
         <v>2</v>
       </c>
       <c r="E148" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F148" s="12">
         <v>311</v>
@@ -37395,7 +37416,7 @@
       </c>
       <c r="I148"/>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149"/>
       <c r="B149"/>
       <c r="C149"/>
@@ -37406,12 +37427,12 @@
       <c r="H149"/>
       <c r="I149"/>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" s="12" t="s">
         <v>102</v>
       </c>
       <c r="B150" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C150" s="12" t="s">
         <v>12</v>
@@ -37420,7 +37441,7 @@
         <v>2</v>
       </c>
       <c r="E150" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F150" s="12">
         <v>254</v>
@@ -37435,12 +37456,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" s="12" t="s">
         <v>102</v>
       </c>
       <c r="B151" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C151" s="12" t="s">
         <v>12</v>
@@ -37449,7 +37470,7 @@
         <v>2</v>
       </c>
       <c r="E151" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F151" s="12">
         <v>254</v>
@@ -37464,12 +37485,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152" s="12" t="s">
         <v>102</v>
       </c>
       <c r="B152" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C152" s="12" t="s">
         <v>12</v>
@@ -37478,7 +37499,7 @@
         <v>2</v>
       </c>
       <c r="E152" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F152" s="12">
         <v>254</v>
@@ -37491,12 +37512,12 @@
       </c>
       <c r="I152"/>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153" s="12" t="s">
         <v>102</v>
       </c>
       <c r="B153" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C153" s="12" t="s">
         <v>12</v>
@@ -37505,7 +37526,7 @@
         <v>2</v>
       </c>
       <c r="E153" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F153" s="12">
         <v>254</v>
@@ -37518,12 +37539,12 @@
       </c>
       <c r="I153"/>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154" s="12" t="s">
         <v>102</v>
       </c>
       <c r="B154" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C154" s="12" t="s">
         <v>12</v>
@@ -37532,7 +37553,7 @@
         <v>2</v>
       </c>
       <c r="E154" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F154" s="12">
         <v>254</v>
@@ -37545,12 +37566,12 @@
       </c>
       <c r="I154"/>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155" s="12" t="s">
         <v>102</v>
       </c>
       <c r="B155" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C155" s="12" t="s">
         <v>12</v>
@@ -37559,7 +37580,7 @@
         <v>2</v>
       </c>
       <c r="E155" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F155" s="12">
         <v>254</v>
@@ -37572,12 +37593,12 @@
       </c>
       <c r="I155"/>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156" s="12" t="s">
         <v>102</v>
       </c>
       <c r="B156" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C156" s="12" t="s">
         <v>12</v>
@@ -37586,7 +37607,7 @@
         <v>2</v>
       </c>
       <c r="E156" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F156" s="12">
         <v>254</v>
@@ -37599,7 +37620,7 @@
       </c>
       <c r="I156"/>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157"/>
       <c r="B157"/>
       <c r="C157"/>
@@ -37610,12 +37631,12 @@
       <c r="H157"/>
       <c r="I157"/>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158" s="12" t="s">
         <v>114</v>
       </c>
       <c r="B158" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C158" s="12" t="s">
         <v>12</v>
@@ -37624,7 +37645,7 @@
         <v>2</v>
       </c>
       <c r="E158" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F158" s="12" t="s">
         <v>115</v>
@@ -37637,12 +37658,12 @@
       </c>
       <c r="I158"/>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159" s="12" t="s">
         <v>114</v>
       </c>
       <c r="B159" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C159" s="12" t="s">
         <v>12</v>
@@ -37651,7 +37672,7 @@
         <v>2</v>
       </c>
       <c r="E159" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F159" s="12" t="s">
         <v>115</v>
@@ -37664,12 +37685,12 @@
       </c>
       <c r="I159"/>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160" s="12" t="s">
         <v>114</v>
       </c>
       <c r="B160" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C160" s="12" t="s">
         <v>12</v>
@@ -37678,7 +37699,7 @@
         <v>2</v>
       </c>
       <c r="E160" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F160" s="12" t="s">
         <v>115</v>
@@ -37691,7 +37712,7 @@
       </c>
       <c r="I160"/>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161"/>
       <c r="B161"/>
       <c r="C161"/>
@@ -37702,12 +37723,12 @@
       <c r="H161"/>
       <c r="I161"/>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162" s="12" t="s">
         <v>122</v>
       </c>
       <c r="B162" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C162" s="12" t="s">
         <v>12</v>
@@ -37716,7 +37737,7 @@
         <v>2</v>
       </c>
       <c r="E162" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F162" s="12">
         <v>21517</v>
@@ -37729,12 +37750,12 @@
       </c>
       <c r="I162"/>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163" s="12" t="s">
         <v>122</v>
       </c>
       <c r="B163" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C163" s="12" t="s">
         <v>12</v>
@@ -37743,7 +37764,7 @@
         <v>2</v>
       </c>
       <c r="E163" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F163" s="12">
         <v>21517</v>
@@ -37756,12 +37777,12 @@
       </c>
       <c r="I163"/>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164" s="12" t="s">
         <v>122</v>
       </c>
       <c r="B164" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C164" s="12" t="s">
         <v>12</v>
@@ -37770,7 +37791,7 @@
         <v>2</v>
       </c>
       <c r="E164" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F164" s="12">
         <v>21517</v>
@@ -37783,12 +37804,12 @@
       </c>
       <c r="I164"/>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165" s="12" t="s">
         <v>122</v>
       </c>
       <c r="B165" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C165" s="12" t="s">
         <v>12</v>
@@ -37797,7 +37818,7 @@
         <v>2</v>
       </c>
       <c r="E165" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F165" s="12">
         <v>21517</v>
@@ -37810,12 +37831,12 @@
       </c>
       <c r="I165"/>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166" s="12" t="s">
         <v>122</v>
       </c>
       <c r="B166" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C166" s="12" t="s">
         <v>12</v>
@@ -37824,7 +37845,7 @@
         <v>2</v>
       </c>
       <c r="E166" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F166" s="12">
         <v>21517</v>
@@ -37837,12 +37858,12 @@
       </c>
       <c r="I166"/>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167" s="12" t="s">
         <v>122</v>
       </c>
       <c r="B167" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C167" s="12" t="s">
         <v>12</v>
@@ -37851,7 +37872,7 @@
         <v>2</v>
       </c>
       <c r="E167" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F167" s="12">
         <v>21517</v>
@@ -37864,12 +37885,12 @@
       </c>
       <c r="I167"/>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168" s="12" t="s">
         <v>122</v>
       </c>
       <c r="B168" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C168" s="12" t="s">
         <v>12</v>
@@ -37878,7 +37899,7 @@
         <v>2</v>
       </c>
       <c r="E168" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F168" s="12">
         <v>21517</v>
@@ -37891,7 +37912,7 @@
       </c>
       <c r="I168"/>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169"/>
       <c r="B169"/>
       <c r="C169"/>
@@ -37902,12 +37923,12 @@
       <c r="H169"/>
       <c r="I169"/>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170" s="12" t="s">
         <v>128</v>
       </c>
       <c r="B170" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C170" s="12" t="s">
         <v>12</v>
@@ -37916,7 +37937,7 @@
         <v>2</v>
       </c>
       <c r="E170" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F170" s="12">
         <v>11090</v>
@@ -37929,12 +37950,12 @@
       </c>
       <c r="I170"/>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171" s="12" t="s">
         <v>128</v>
       </c>
       <c r="B171" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C171" s="12" t="s">
         <v>12</v>
@@ -37943,7 +37964,7 @@
         <v>2</v>
       </c>
       <c r="E171" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F171" s="12">
         <v>11090</v>
@@ -37956,7 +37977,7 @@
       </c>
       <c r="I171"/>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172"/>
       <c r="B172"/>
       <c r="C172"/>
@@ -37967,12 +37988,12 @@
       <c r="H172"/>
       <c r="I172"/>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173" s="12" t="s">
         <v>129</v>
       </c>
       <c r="B173" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C173" s="12" t="s">
         <v>12</v>
@@ -37981,10 +38002,10 @@
         <v>2</v>
       </c>
       <c r="E173" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F173" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G173" s="14" t="s">
         <v>130</v>
@@ -37994,12 +38015,12 @@
       </c>
       <c r="I173"/>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174" s="12" t="s">
         <v>129</v>
       </c>
       <c r="B174" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C174" s="12" t="s">
         <v>12</v>
@@ -38008,10 +38029,10 @@
         <v>2</v>
       </c>
       <c r="E174" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F174" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G174" s="14" t="s">
         <v>131</v>
@@ -38021,12 +38042,12 @@
       </c>
       <c r="I174"/>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175" s="12" t="s">
         <v>129</v>
       </c>
       <c r="B175" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C175" s="12" t="s">
         <v>12</v>
@@ -38035,10 +38056,10 @@
         <v>2</v>
       </c>
       <c r="E175" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F175" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G175" s="14" t="s">
         <v>132</v>
@@ -38048,12 +38069,12 @@
       </c>
       <c r="I175"/>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176" s="12" t="s">
         <v>129</v>
       </c>
       <c r="B176" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C176" s="12" t="s">
         <v>12</v>
@@ -38062,10 +38083,10 @@
         <v>2</v>
       </c>
       <c r="E176" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F176" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G176" s="14" t="s">
         <v>133</v>
@@ -38075,12 +38096,12 @@
       </c>
       <c r="I176"/>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A177" s="12" t="s">
         <v>129</v>
       </c>
       <c r="B177" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C177" s="12" t="s">
         <v>12</v>
@@ -38089,10 +38110,10 @@
         <v>2</v>
       </c>
       <c r="E177" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F177" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G177" s="14" t="s">
         <v>134</v>
@@ -38102,12 +38123,12 @@
       </c>
       <c r="I177"/>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A178" s="12" t="s">
         <v>129</v>
       </c>
       <c r="B178" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C178" s="12" t="s">
         <v>12</v>
@@ -38116,10 +38137,10 @@
         <v>2</v>
       </c>
       <c r="E178" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F178" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G178" s="14" t="s">
         <v>135</v>
@@ -38131,12 +38152,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A179" s="12" t="s">
         <v>129</v>
       </c>
       <c r="B179" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C179" s="12" t="s">
         <v>12</v>
@@ -38145,10 +38166,10 @@
         <v>2</v>
       </c>
       <c r="E179" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F179" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G179" s="14" t="s">
         <v>136</v>
@@ -38158,12 +38179,12 @@
       </c>
       <c r="I179"/>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A180" s="12" t="s">
         <v>129</v>
       </c>
       <c r="B180" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C180" s="12" t="s">
         <v>12</v>
@@ -38172,10 +38193,10 @@
         <v>2</v>
       </c>
       <c r="E180" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F180" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G180" s="14" t="s">
         <v>137</v>
@@ -38187,12 +38208,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A181" s="12" t="s">
         <v>129</v>
       </c>
       <c r="B181" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C181" s="12" t="s">
         <v>12</v>
@@ -38201,10 +38222,10 @@
         <v>2</v>
       </c>
       <c r="E181" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F181" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G181" s="14" t="s">
         <v>138</v>
@@ -38214,12 +38235,12 @@
       </c>
       <c r="I181"/>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A182" s="12" t="s">
         <v>129</v>
       </c>
       <c r="B182" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C182" s="12" t="s">
         <v>12</v>
@@ -38228,10 +38249,10 @@
         <v>2</v>
       </c>
       <c r="E182" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F182" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G182" s="14" t="s">
         <v>139</v>
@@ -38241,12 +38262,12 @@
       </c>
       <c r="I182"/>
     </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A183" s="12" t="s">
         <v>129</v>
       </c>
       <c r="B183" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C183" s="12" t="s">
         <v>12</v>
@@ -38255,10 +38276,10 @@
         <v>2</v>
       </c>
       <c r="E183" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F183" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G183" s="14" t="s">
         <v>140</v>
@@ -38268,12 +38289,12 @@
       </c>
       <c r="I183"/>
     </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A184" s="12" t="s">
         <v>129</v>
       </c>
       <c r="B184" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C184" s="12" t="s">
         <v>12</v>
@@ -38282,10 +38303,10 @@
         <v>2</v>
       </c>
       <c r="E184" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F184" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G184" s="14" t="s">
         <v>141</v>
@@ -38296,12 +38317,12 @@
       <c r="I184"/>
       <c r="J184"/>
     </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A185" s="12" t="s">
         <v>129</v>
       </c>
       <c r="B185" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C185" s="12" t="s">
         <v>12</v>
@@ -38310,10 +38331,10 @@
         <v>2</v>
       </c>
       <c r="E185" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F185" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G185" s="14" t="s">
         <v>142</v>
@@ -38324,12 +38345,12 @@
       <c r="I185"/>
       <c r="J185"/>
     </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A186" s="12" t="s">
         <v>129</v>
       </c>
       <c r="B186" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C186" s="12" t="s">
         <v>12</v>
@@ -38338,10 +38359,10 @@
         <v>2</v>
       </c>
       <c r="E186" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F186" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G186" s="14" t="s">
         <v>143</v>
@@ -38352,12 +38373,12 @@
       <c r="I186"/>
       <c r="J186"/>
     </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A187" s="12" t="s">
         <v>129</v>
       </c>
       <c r="B187" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C187" s="12" t="s">
         <v>12</v>
@@ -38366,10 +38387,10 @@
         <v>2</v>
       </c>
       <c r="E187" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F187" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G187" s="14" t="s">
         <v>144</v>
@@ -38380,12 +38401,12 @@
       <c r="I187"/>
       <c r="J187"/>
     </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A188" s="12" t="s">
         <v>129</v>
       </c>
       <c r="B188" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C188" s="12" t="s">
         <v>12</v>
@@ -38394,10 +38415,10 @@
         <v>2</v>
       </c>
       <c r="E188" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F188" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G188" s="14" t="s">
         <v>145</v>
@@ -38407,12 +38428,12 @@
       </c>
       <c r="I188"/>
     </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A189" s="12" t="s">
         <v>129</v>
       </c>
       <c r="B189" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C189" s="12" t="s">
         <v>12</v>
@@ -38421,10 +38442,10 @@
         <v>2</v>
       </c>
       <c r="E189" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F189" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G189" s="14" t="s">
         <v>146</v>
@@ -38434,12 +38455,12 @@
       </c>
       <c r="I189"/>
     </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A190" s="12" t="s">
         <v>129</v>
       </c>
       <c r="B190" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C190" s="12" t="s">
         <v>12</v>
@@ -38448,10 +38469,10 @@
         <v>2</v>
       </c>
       <c r="E190" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F190" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G190" s="14" t="s">
         <v>147</v>
@@ -38461,7 +38482,7 @@
       </c>
       <c r="I190"/>
     </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A191"/>
       <c r="B191"/>
       <c r="C191"/>
@@ -38472,12 +38493,12 @@
       <c r="H191"/>
       <c r="I191"/>
     </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A192" s="12" t="s">
         <v>148</v>
       </c>
       <c r="B192" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C192" s="12" t="s">
         <v>12</v>
@@ -38486,7 +38507,7 @@
         <v>2</v>
       </c>
       <c r="E192" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F192" s="12" t="s">
         <v>149</v>
@@ -38499,12 +38520,12 @@
       </c>
       <c r="I192"/>
     </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A193" s="12" t="s">
         <v>148</v>
       </c>
       <c r="B193" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C193" s="12" t="s">
         <v>12</v>
@@ -38513,7 +38534,7 @@
         <v>2</v>
       </c>
       <c r="E193" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F193" s="12" t="s">
         <v>149</v>
@@ -38526,12 +38547,12 @@
       </c>
       <c r="I193"/>
     </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A194" s="12" t="s">
         <v>148</v>
       </c>
       <c r="B194" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C194" s="12" t="s">
         <v>12</v>
@@ -38540,7 +38561,7 @@
         <v>2</v>
       </c>
       <c r="E194" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F194" s="12" t="s">
         <v>149</v>
@@ -38553,12 +38574,12 @@
       </c>
       <c r="I194"/>
     </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A195" s="12" t="s">
         <v>148</v>
       </c>
       <c r="B195" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C195" s="12" t="s">
         <v>12</v>
@@ -38567,7 +38588,7 @@
         <v>2</v>
       </c>
       <c r="E195" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F195" s="12" t="s">
         <v>149</v>
@@ -38580,12 +38601,12 @@
       </c>
       <c r="I195"/>
     </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A196" s="12" t="s">
         <v>148</v>
       </c>
       <c r="B196" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C196" s="12" t="s">
         <v>12</v>
@@ -38594,7 +38615,7 @@
         <v>2</v>
       </c>
       <c r="E196" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F196" s="12" t="s">
         <v>149</v>
@@ -38607,12 +38628,12 @@
       </c>
       <c r="I196"/>
     </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A197" s="12" t="s">
         <v>148</v>
       </c>
       <c r="B197" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C197" s="12" t="s">
         <v>12</v>
@@ -38621,7 +38642,7 @@
         <v>2</v>
       </c>
       <c r="E197" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F197" s="12" t="s">
         <v>149</v>
@@ -38634,12 +38655,12 @@
       </c>
       <c r="I197"/>
     </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A198" s="12" t="s">
         <v>148</v>
       </c>
       <c r="B198" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C198" s="12" t="s">
         <v>12</v>
@@ -38648,7 +38669,7 @@
         <v>2</v>
       </c>
       <c r="E198" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F198" s="12" t="s">
         <v>149</v>
@@ -38661,12 +38682,12 @@
       </c>
       <c r="I198"/>
     </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A199" s="12" t="s">
         <v>148</v>
       </c>
       <c r="B199" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C199" s="12" t="s">
         <v>12</v>
@@ -38675,7 +38696,7 @@
         <v>2</v>
       </c>
       <c r="E199" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F199" s="12" t="s">
         <v>149</v>
@@ -38688,7 +38709,7 @@
       </c>
       <c r="I199"/>
     </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A200"/>
       <c r="B200"/>
       <c r="C200"/>
@@ -38699,12 +38720,12 @@
       <c r="H200"/>
       <c r="I200"/>
     </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A201" s="12" t="s">
         <v>156</v>
       </c>
       <c r="B201" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C201" s="12" t="s">
         <v>12</v>
@@ -38713,7 +38734,7 @@
         <v>2</v>
       </c>
       <c r="E201" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F201" s="12" t="s">
         <v>157</v>
@@ -38726,12 +38747,12 @@
       </c>
       <c r="I201"/>
     </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A202" s="12" t="s">
         <v>156</v>
       </c>
       <c r="B202" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C202" s="12" t="s">
         <v>12</v>
@@ -38740,7 +38761,7 @@
         <v>2</v>
       </c>
       <c r="E202" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F202" s="12" t="s">
         <v>157</v>
@@ -38753,12 +38774,12 @@
       </c>
       <c r="I202"/>
     </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A203" s="12" t="s">
         <v>156</v>
       </c>
       <c r="B203" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C203" s="12" t="s">
         <v>12</v>
@@ -38767,7 +38788,7 @@
         <v>2</v>
       </c>
       <c r="E203" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F203" s="12" t="s">
         <v>157</v>
@@ -38781,12 +38802,12 @@
       <c r="I203"/>
       <c r="J203"/>
     </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A204" s="12" t="s">
         <v>156</v>
       </c>
       <c r="B204" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C204" s="12" t="s">
         <v>12</v>
@@ -38795,7 +38816,7 @@
         <v>2</v>
       </c>
       <c r="E204" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F204" s="12" t="s">
         <v>157</v>
@@ -38809,12 +38830,12 @@
       <c r="I204"/>
       <c r="J204"/>
     </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A205" s="12" t="s">
         <v>156</v>
       </c>
       <c r="B205" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C205" s="12" t="s">
         <v>12</v>
@@ -38823,7 +38844,7 @@
         <v>2</v>
       </c>
       <c r="E205" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F205" s="12" t="s">
         <v>157</v>
@@ -38837,12 +38858,12 @@
       <c r="I205"/>
       <c r="J205"/>
     </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A206" s="12" t="s">
         <v>156</v>
       </c>
       <c r="B206" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C206" s="12" t="s">
         <v>12</v>
@@ -38851,7 +38872,7 @@
         <v>2</v>
       </c>
       <c r="E206" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F206" s="12" t="s">
         <v>157</v>
@@ -38865,12 +38886,12 @@
       <c r="I206"/>
       <c r="J206"/>
     </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A207" s="12" t="s">
         <v>156</v>
       </c>
       <c r="B207" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C207" s="12" t="s">
         <v>12</v>
@@ -38879,7 +38900,7 @@
         <v>2</v>
       </c>
       <c r="E207" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F207" s="12" t="s">
         <v>157</v>
@@ -38893,12 +38914,12 @@
       <c r="I207"/>
       <c r="J207"/>
     </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A208" s="12" t="s">
         <v>156</v>
       </c>
       <c r="B208" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C208" s="12" t="s">
         <v>12</v>
@@ -38907,7 +38928,7 @@
         <v>2</v>
       </c>
       <c r="E208" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F208" s="12" t="s">
         <v>157</v>
@@ -38920,7 +38941,7 @@
       </c>
       <c r="I208"/>
     </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A209"/>
       <c r="B209"/>
       <c r="C209"/>
@@ -38930,7 +38951,7 @@
       <c r="G209" s="14"/>
       <c r="I209"/>
     </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A210"/>
       <c r="B210"/>
       <c r="C210"/>
@@ -38942,7 +38963,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A211"/>
       <c r="B211"/>
       <c r="C211"/>
@@ -38952,7 +38973,7 @@
       <c r="G211" s="14"/>
       <c r="J211"/>
     </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A212"/>
       <c r="B212"/>
       <c r="C212"/>
@@ -38964,7 +38985,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A213"/>
       <c r="B213"/>
       <c r="C213"/>
@@ -38974,18 +38995,21 @@
       <c r="G213" s="14"/>
       <c r="I213"/>
     </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A214" s="12" t="s">
         <v>160</v>
       </c>
       <c r="B214" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C214" s="12" t="s">
         <v>12</v>
       </c>
       <c r="D214" s="12">
         <v>2</v>
+      </c>
+      <c r="E214" t="s">
+        <v>202</v>
       </c>
       <c r="F214" s="18" t="s">
         <v>161</v>
@@ -38995,18 +39019,21 @@
         <v>19</v>
       </c>
     </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A215" s="12" t="s">
         <v>162</v>
       </c>
       <c r="B215" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C215" s="12" t="s">
         <v>12</v>
       </c>
       <c r="D215" s="12">
         <v>2</v>
+      </c>
+      <c r="E215" t="s">
+        <v>203</v>
       </c>
       <c r="F215" s="18" t="s">
         <v>163</v>
@@ -39016,49 +39043,55 @@
         <v>19</v>
       </c>
     </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A216" s="12" t="s">
+    <row r="216" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A216"/>
+      <c r="B216"/>
+      <c r="C216"/>
+      <c r="D216"/>
+      <c r="E216"/>
+      <c r="F216" s="18"/>
+      <c r="G216" s="14"/>
+      <c r="I216"/>
+    </row>
+    <row r="217" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A217" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="B216" t="s">
-        <v>178</v>
-      </c>
-      <c r="C216" s="12" t="s">
+      <c r="B217" t="s">
+        <v>176</v>
+      </c>
+      <c r="C217" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D216" s="12">
+      <c r="D217" s="12">
         <v>2</v>
       </c>
-      <c r="F216" s="18" t="s">
+      <c r="E217" t="s">
+        <v>204</v>
+      </c>
+      <c r="F217" s="18" t="s">
         <v>165</v>
       </c>
-      <c r="G216" s="14"/>
-      <c r="I216" s="12" t="s">
+      <c r="G217" s="14"/>
+      <c r="I217" s="12" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A217"/>
-      <c r="B217"/>
-      <c r="C217"/>
-      <c r="D217"/>
-      <c r="E217"/>
-      <c r="F217" s="18"/>
-      <c r="G217" s="14"/>
-      <c r="I217"/>
-    </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A218" s="12" t="s">
         <v>166</v>
       </c>
       <c r="B218" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C218" s="12" t="s">
         <v>12</v>
       </c>
       <c r="D218" s="12">
         <v>2</v>
+      </c>
+      <c r="E218" t="s">
+        <v>205</v>
       </c>
       <c r="F218" s="18" t="s">
         <v>167</v>
@@ -39068,12 +39101,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A219" s="12" t="s">
         <v>168</v>
       </c>
       <c r="B219" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C219" s="12" t="s">
         <v>12</v>
@@ -39081,20 +39114,22 @@
       <c r="D219" s="12">
         <v>2</v>
       </c>
+      <c r="E219" t="s">
+        <v>206</v>
+      </c>
       <c r="F219" s="18" t="s">
         <v>169</v>
       </c>
-      <c r="G219" s="14"/>
       <c r="I219" s="12" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A220" s="12" t="s">
         <v>170</v>
       </c>
       <c r="B220" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C220" s="12" t="s">
         <v>12</v>
@@ -39102,30 +39137,13 @@
       <c r="D220" s="12">
         <v>2</v>
       </c>
+      <c r="E220" t="s">
+        <v>207</v>
+      </c>
       <c r="F220" s="18" t="s">
         <v>171</v>
       </c>
       <c r="I220" s="12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A221" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="B221" t="s">
-        <v>178</v>
-      </c>
-      <c r="C221" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D221" s="12">
-        <v>2</v>
-      </c>
-      <c r="F221" s="18" t="s">
-        <v>173</v>
-      </c>
-      <c r="I221" s="12" t="s">
         <v>19</v>
       </c>
     </row>
@@ -39143,12 +39161,12 @@
       <selection activeCellId="1" sqref="L2:M2 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1025" width="8.6640625"/>
+    <col min="1" max="1025" width="8.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A1" s="19">
         <v>-4.8681000000000002E-2</v>
       </c>
@@ -39264,7 +39282,7 @@
         <v>1.8308000000000001E-2</v>
       </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A2" s="19">
         <v>-4.3818000000000003E-2</v>
       </c>
@@ -39380,7 +39398,7 @@
         <v>1.4529E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A3" s="19">
         <v>-3.4930999999999997E-2</v>
       </c>
@@ -39496,7 +39514,7 @@
         <v>1.0225E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A4" s="19">
         <v>-2.8472999999999998E-2</v>
       </c>
@@ -39612,7 +39630,7 @@
         <v>5.3530000000000001E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A5" s="19">
         <v>-2.3571999999999999E-2</v>
       </c>
@@ -39728,7 +39746,7 @@
         <v>2.359E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A6" s="19">
         <v>-1.9560000000000001E-2</v>
       </c>
@@ -39844,7 +39862,7 @@
         <v>4.8299999999999998E-4</v>
       </c>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A7" s="19">
         <v>-1.6504999999999999E-2</v>
       </c>
@@ -39960,7 +39978,7 @@
         <v>-3.1999999999999999E-5</v>
       </c>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A8" s="19">
         <v>-1.5032999999999999E-2</v>
       </c>
@@ -40076,7 +40094,7 @@
         <v>-6.6000000000000005E-5</v>
       </c>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A9" s="19">
         <v>-1.5565000000000001E-2</v>
       </c>
@@ -40192,7 +40210,7 @@
         <v>-1.93E-4</v>
       </c>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A10" s="19">
         <v>-1.5072E-2</v>
       </c>
@@ -40308,7 +40326,7 @@
         <v>-3.3199999999999999E-4</v>
       </c>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A11" s="19">
         <v>-1.3521E-2</v>
       </c>
@@ -40424,7 +40442,7 @@
         <v>4.3000000000000002E-5</v>
       </c>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A12" s="19">
         <v>-1.2801999999999999E-2</v>
       </c>
@@ -40540,7 +40558,7 @@
         <v>1.4E-5</v>
       </c>
     </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A13" s="19">
         <v>-1.2318000000000001E-2</v>
       </c>
@@ -40656,7 +40674,7 @@
         <v>5.9299999999999999E-4</v>
       </c>
     </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A14" s="19">
         <v>-1.1985000000000001E-2</v>
       </c>
@@ -40772,7 +40790,7 @@
         <v>1.098E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A15" s="19">
         <v>-1.2311000000000001E-2</v>
       </c>
@@ -40888,7 +40906,7 @@
         <v>1.3860000000000001E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A16" s="19">
         <v>-1.2248E-2</v>
       </c>
@@ -41004,7 +41022,7 @@
         <v>1.6379999999999999E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A17" s="19">
         <v>-1.2452E-2</v>
       </c>
@@ -41120,7 +41138,7 @@
         <v>2.5300000000000001E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A18" s="19">
         <v>-1.2609E-2</v>
       </c>
@@ -41236,7 +41254,7 @@
         <v>2.722E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A19" s="19">
         <v>-1.2754E-2</v>
       </c>
@@ -41352,7 +41370,7 @@
         <v>3.1779999999999998E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A20" s="19">
         <v>-1.2996000000000001E-2</v>
       </c>
@@ -41468,7 +41486,7 @@
         <v>3.5460000000000001E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A21" s="19">
         <v>-1.3259999999999999E-2</v>
       </c>
@@ -41584,7 +41602,7 @@
         <v>3.7520000000000001E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A22" s="19">
         <v>-1.3252E-2</v>
       </c>
@@ -41700,7 +41718,7 @@
         <v>4.1539999999999997E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A23" s="19">
         <v>-1.2996000000000001E-2</v>
       </c>
@@ -41816,7 +41834,7 @@
         <v>4.4120000000000001E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A24" s="19">
         <v>-1.3065E-2</v>
       </c>
@@ -41932,7 +41950,7 @@
         <v>4.5399999999999998E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A25" s="19">
         <v>-1.2914999999999999E-2</v>
       </c>
@@ -42048,7 +42066,7 @@
         <v>4.6839999999999998E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A26" s="19">
         <v>-1.2756E-2</v>
       </c>
@@ -42164,7 +42182,7 @@
         <v>4.9439999999999996E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A27" s="19">
         <v>-1.2621E-2</v>
       </c>
@@ -42280,7 +42298,7 @@
         <v>5.0939999999999996E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A28" s="19">
         <v>-1.2571000000000001E-2</v>
       </c>
@@ -42396,7 +42414,7 @@
         <v>5.3070000000000001E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A29" s="19">
         <v>-1.2444999999999999E-2</v>
       </c>
@@ -42512,7 +42530,7 @@
         <v>5.398E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A30" s="19">
         <v>-1.2527E-2</v>
       </c>
@@ -42628,7 +42646,7 @@
         <v>5.4229999999999999E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A31" s="19">
         <v>-1.2609E-2</v>
       </c>
@@ -42744,7 +42762,7 @@
         <v>5.4590000000000003E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A32" s="19">
         <v>-1.2475999999999999E-2</v>
       </c>
@@ -42860,7 +42878,7 @@
         <v>5.509E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A33" s="19">
         <v>-1.2545000000000001E-2</v>
       </c>
@@ -42976,7 +42994,7 @@
         <v>5.555E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A34" s="19">
         <v>-1.2597000000000001E-2</v>
       </c>
@@ -43092,7 +43110,7 @@
         <v>5.522E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A35" s="19">
         <v>-1.2463999999999999E-2</v>
       </c>
@@ -43208,7 +43226,7 @@
         <v>5.5180000000000003E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A36" s="19">
         <v>-1.235E-2</v>
       </c>
@@ -43324,7 +43342,7 @@
         <v>5.4469999999999996E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A37" s="19">
         <v>-1.2390999999999999E-2</v>
       </c>
@@ -43440,7 +43458,7 @@
         <v>5.3680000000000004E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A38" s="19">
         <v>-1.2290000000000001E-2</v>
       </c>
@@ -43556,7 +43574,7 @@
         <v>5.2030000000000002E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A39" s="19">
         <v>-1.2145E-2</v>
       </c>
@@ -43672,7 +43690,7 @@
         <v>5.0260000000000001E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A40" s="19">
         <v>-1.2045999999999999E-2</v>
       </c>
@@ -43788,7 +43806,7 @@
         <v>4.7590000000000002E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A41" s="19">
         <v>-1.2135E-2</v>
       </c>
@@ -43904,7 +43922,7 @@
         <v>4.6090000000000002E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A42" s="19">
         <v>-9.0749999999999997E-3</v>
       </c>
@@ -44020,7 +44038,7 @@
         <v>2.7499999999999998E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A43" s="19">
         <v>-9.2790000000000008E-3</v>
       </c>
@@ -44136,7 +44154,7 @@
         <v>2.9619999999999998E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A44" s="19">
         <v>-9.3989999999999994E-3</v>
       </c>
@@ -44252,7 +44270,7 @@
         <v>3.1819999999999999E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A45" s="19">
         <v>-9.6290000000000004E-3</v>
       </c>
@@ -44368,7 +44386,7 @@
         <v>3.3400000000000001E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A46" s="19">
         <v>-9.6570000000000007E-3</v>
       </c>
@@ -44484,7 +44502,7 @@
         <v>3.4299999999999999E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A47" s="19">
         <v>-9.8580000000000004E-3</v>
       </c>
@@ -44600,7 +44618,7 @@
         <v>3.5669999999999999E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A48" s="19">
         <v>-9.9699999999999997E-3</v>
       </c>
@@ -44716,7 +44734,7 @@
         <v>3.6240000000000001E-3</v>
       </c>
     </row>
-    <row r="49" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A49" s="19">
         <v>-9.9399999999999992E-3</v>
       </c>
@@ -44832,7 +44850,7 @@
         <v>3.6830000000000001E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A50" s="19">
         <v>-9.9220000000000003E-3</v>
       </c>
@@ -44948,7 +44966,7 @@
         <v>3.7859999999999999E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A51" s="19">
         <v>-9.9900000000000006E-3</v>
       </c>
@@ -45064,7 +45082,7 @@
         <v>3.908E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A52" s="19">
         <v>-1.0068000000000001E-2</v>
       </c>
@@ -45180,7 +45198,7 @@
         <v>3.8809999999999999E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A53" s="19">
         <v>-9.9939999999999994E-3</v>
       </c>
@@ -45296,7 +45314,7 @@
         <v>3.9719999999999998E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A54" s="19">
         <v>-1.0073E-2</v>
       </c>
@@ -45412,7 +45430,7 @@
         <v>3.9940000000000002E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A55" s="19">
         <v>-1.0144E-2</v>
       </c>
@@ -45528,7 +45546,7 @@
         <v>4.0540000000000003E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A56" s="19">
         <v>-1.0099E-2</v>
       </c>
@@ -45644,7 +45662,7 @@
         <v>4.0540000000000003E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A57" s="19">
         <v>-1.0014E-2</v>
       </c>
@@ -45760,7 +45778,7 @@
         <v>4.1570000000000001E-3</v>
       </c>
     </row>
-    <row r="58" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A58" s="19">
         <v>-1.0068000000000001E-2</v>
       </c>
@@ -45876,7 +45894,7 @@
         <v>4.1219999999999998E-3</v>
       </c>
     </row>
-    <row r="59" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A59" s="19">
         <v>-1.0227E-2</v>
       </c>
@@ -45992,7 +46010,7 @@
         <v>4.1660000000000004E-3</v>
       </c>
     </row>
-    <row r="60" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A60" s="19">
         <v>-1.0083E-2</v>
       </c>
@@ -46108,7 +46126,7 @@
         <v>4.1790000000000004E-3</v>
       </c>
     </row>
-    <row r="61" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A61" s="19">
         <v>-1.0024999999999999E-2</v>
       </c>
@@ -46224,7 +46242,7 @@
         <v>4.1180000000000001E-3</v>
       </c>
     </row>
-    <row r="62" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A62" s="19">
         <v>-9.9950000000000004E-3</v>
       </c>
@@ -46340,7 +46358,7 @@
         <v>4.1729999999999996E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A63" s="19">
         <v>-1.0057999999999999E-2</v>
       </c>
@@ -46456,7 +46474,7 @@
         <v>4.0540000000000003E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A64" s="19">
         <v>-9.8700000000000003E-3</v>
       </c>
@@ -46572,7 +46590,7 @@
         <v>3.908E-3</v>
       </c>
     </row>
-    <row r="65" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A65" s="19">
         <v>-9.6310000000000007E-3</v>
       </c>
@@ -46688,7 +46706,7 @@
         <v>3.7919999999999998E-3</v>
       </c>
     </row>
-    <row r="66" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A66" s="19">
         <v>-9.4680000000000007E-3</v>
       </c>
@@ -46804,7 +46822,7 @@
         <v>3.5609999999999999E-3</v>
       </c>
     </row>
-    <row r="67" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A67" s="19">
         <v>-9.2530000000000008E-3</v>
       </c>
@@ -46920,7 +46938,7 @@
         <v>3.3319999999999999E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A68" s="19">
         <v>-9.1929999999999998E-3</v>
       </c>
@@ -47036,7 +47054,7 @@
         <v>3.1480000000000002E-3</v>
       </c>
     </row>
-    <row r="69" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A69" s="19">
         <v>-9.1769999999999994E-3</v>
       </c>
@@ -47152,7 +47170,7 @@
         <v>2.9090000000000001E-3</v>
       </c>
     </row>
-    <row r="70" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A70" s="19">
         <v>-8.9149999999999993E-3</v>
       </c>
@@ -47268,7 +47286,7 @@
         <v>2.7049999999999999E-3</v>
       </c>
     </row>
-    <row r="71" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A71" s="19">
         <v>-8.5920000000000007E-3</v>
       </c>
@@ -47384,7 +47402,7 @@
         <v>2.5920000000000001E-3</v>
       </c>
     </row>
-    <row r="72" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A72" s="19">
         <v>-8.5489999999999993E-3</v>
       </c>
@@ -47500,7 +47518,7 @@
         <v>2.2780000000000001E-3</v>
       </c>
     </row>
-    <row r="73" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A73" s="19">
         <v>-8.1949999999999992E-3</v>
       </c>
@@ -47616,7 +47634,7 @@
         <v>2.3089999999999999E-3</v>
       </c>
     </row>
-    <row r="74" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A74" s="19">
         <v>-8.0520000000000001E-3</v>
       </c>
@@ -47732,7 +47750,7 @@
         <v>2.3050000000000002E-3</v>
       </c>
     </row>
-    <row r="75" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A75" s="19">
         <v>-8.2279999999999992E-3</v>
       </c>
@@ -47848,7 +47866,7 @@
         <v>1.9840000000000001E-3</v>
       </c>
     </row>
-    <row r="76" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A76" s="19">
         <v>-8.0999999999999996E-3</v>
       </c>
@@ -47964,7 +47982,7 @@
         <v>1.941E-3</v>
       </c>
     </row>
-    <row r="77" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A77" s="19">
         <v>-7.8379999999999995E-3</v>
       </c>
@@ -48094,12 +48112,12 @@
       <selection activeCellId="1" sqref="L2:M2 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1025" width="8.6640625"/>
+    <col min="1" max="1025" width="8.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A1" s="20">
         <v>-2.7814999999999999E-2</v>
       </c>
@@ -48215,7 +48233,7 @@
         <v>1.1034E-2</v>
       </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A2" s="20">
         <v>-2.8749E-2</v>
       </c>
@@ -48331,7 +48349,7 @@
         <v>9.8440000000000003E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A3" s="20">
         <v>-2.3845999999999999E-2</v>
       </c>
@@ -48447,7 +48465,7 @@
         <v>8.5909999999999997E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A4" s="20">
         <v>-2.2463E-2</v>
       </c>
@@ -48563,7 +48581,7 @@
         <v>9.5189999999999997E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A5" s="20">
         <v>-2.1078E-2</v>
       </c>
@@ -48679,7 +48697,7 @@
         <v>6.5589999999999997E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A6" s="20">
         <v>-1.7205999999999999E-2</v>
       </c>
@@ -48795,7 +48813,7 @@
         <v>7.1260000000000004E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A7" s="20">
         <v>-1.4818E-2</v>
       </c>
@@ -48911,7 +48929,7 @@
         <v>4.6880000000000003E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A8" s="20">
         <v>-1.3204E-2</v>
       </c>
@@ -49027,7 +49045,7 @@
         <v>5.3559999999999997E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A9" s="20">
         <v>-1.1083000000000001E-2</v>
       </c>
@@ -49143,7 +49161,7 @@
         <v>4.6899999999999997E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A10" s="20">
         <v>-1.0874999999999999E-2</v>
       </c>
@@ -49259,7 +49277,7 @@
         <v>3.5439999999999998E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A11" s="20">
         <v>-9.5779999999999997E-3</v>
       </c>
@@ -49375,7 +49393,7 @@
         <v>3.29E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A12" s="20">
         <v>-1.0030000000000001E-2</v>
       </c>
@@ -49491,7 +49509,7 @@
         <v>2.6090000000000002E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A13" s="20">
         <v>-8.2059999999999998E-3</v>
       </c>
@@ -49607,7 +49625,7 @@
         <v>2.9619999999999998E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A14" s="20">
         <v>-8.1359999999999991E-3</v>
       </c>
@@ -49723,7 +49741,7 @@
         <v>2.643E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A15" s="20">
         <v>-8.5470000000000008E-3</v>
       </c>
@@ -49839,7 +49857,7 @@
         <v>2.153E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A16" s="20">
         <v>-7.2269999999999999E-3</v>
       </c>
@@ -49955,7 +49973,7 @@
         <v>2.6020000000000001E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A17" s="20">
         <v>-6.9309999999999997E-3</v>
       </c>
@@ -50071,7 +50089,7 @@
         <v>2.5200000000000001E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A18" s="20">
         <v>-7.541E-3</v>
       </c>
@@ -50187,7 +50205,7 @@
         <v>2.15E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A19" s="20">
         <v>-7.1149999999999998E-3</v>
       </c>
@@ -50303,7 +50321,7 @@
         <v>2.3029999999999999E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A20" s="20">
         <v>-6.698E-3</v>
       </c>
@@ -50419,7 +50437,7 @@
         <v>2.2959999999999999E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A21" s="20">
         <v>-7.1260000000000004E-3</v>
       </c>
@@ -50535,7 +50553,7 @@
         <v>2.3029999999999999E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A22" s="20">
         <v>-6.633E-3</v>
       </c>
@@ -50651,7 +50669,7 @@
         <v>2.5349999999999999E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A23" s="20">
         <v>-6.5900000000000004E-3</v>
       </c>
@@ -50767,7 +50785,7 @@
         <v>2.395E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A24" s="20">
         <v>-6.4739999999999997E-3</v>
       </c>
@@ -50883,7 +50901,7 @@
         <v>2.5469999999999998E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A25" s="20">
         <v>-6.509E-3</v>
       </c>
@@ -50999,7 +51017,7 @@
         <v>2.578E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A26" s="20">
         <v>-7.319E-3</v>
       </c>
@@ -51115,7 +51133,7 @@
         <v>2.4880000000000002E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A27" s="20">
         <v>-6.8609999999999999E-3</v>
       </c>
@@ -51231,7 +51249,7 @@
         <v>2.7910000000000001E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A28" s="20">
         <v>-7.254E-3</v>
       </c>
@@ -51347,7 +51365,7 @@
         <v>2.6050000000000001E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A29" s="20">
         <v>-7.0320000000000001E-3</v>
       </c>
@@ -51463,7 +51481,7 @@
         <v>2.6450000000000002E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A30" s="20">
         <v>-7.3540000000000003E-3</v>
       </c>
@@ -51579,7 +51597,7 @@
         <v>2.7529999999999998E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A31" s="20">
         <v>-6.7759999999999999E-3</v>
       </c>
@@ -51695,7 +51713,7 @@
         <v>2.5739999999999999E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A32" s="20">
         <v>-7.1089999999999999E-3</v>
       </c>
@@ -51811,7 +51829,7 @@
         <v>2.6870000000000002E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A33" s="20">
         <v>-6.9560000000000004E-3</v>
       </c>
@@ -51927,7 +51945,7 @@
         <v>2.8059999999999999E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A34" s="20">
         <v>-6.9490000000000003E-3</v>
       </c>
@@ -52043,7 +52061,7 @@
         <v>2.5200000000000001E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A35" s="20">
         <v>-7.1500000000000001E-3</v>
       </c>
@@ -52159,7 +52177,7 @@
         <v>2.6059999999999998E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A36" s="20">
         <v>-6.5009999999999998E-3</v>
       </c>
@@ -52275,7 +52293,7 @@
         <v>2.6069999999999999E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A37" s="20">
         <v>-7.4400000000000004E-3</v>
       </c>
@@ -52391,7 +52409,7 @@
         <v>2.3960000000000001E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A38" s="20">
         <v>-7.2160000000000002E-3</v>
       </c>
@@ -52507,7 +52525,7 @@
         <v>2.4940000000000001E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A39" s="20">
         <v>-6.9829999999999996E-3</v>
       </c>
@@ -52623,7 +52641,7 @@
         <v>2.2070000000000002E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A40" s="20">
         <v>-7.234E-3</v>
       </c>
@@ -52739,7 +52757,7 @@
         <v>2.0240000000000002E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A41" s="20">
         <v>-6.6610000000000003E-3</v>
       </c>
@@ -52855,7 +52873,7 @@
         <v>2.029E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A42" s="20">
         <v>-3.6770000000000001E-3</v>
       </c>
@@ -52971,7 +52989,7 @@
         <v>5.6599999999999999E-4</v>
       </c>
     </row>
-    <row r="43" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A43" s="20">
         <v>-4.1570000000000001E-3</v>
       </c>
@@ -53087,7 +53105,7 @@
         <v>7.1500000000000003E-4</v>
       </c>
     </row>
-    <row r="44" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A44" s="20">
         <v>-4.1700000000000001E-3</v>
       </c>
@@ -53203,7 +53221,7 @@
         <v>9.3400000000000004E-4</v>
       </c>
     </row>
-    <row r="45" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A45" s="20">
         <v>-4.6810000000000003E-3</v>
       </c>
@@ -53319,7 +53337,7 @@
         <v>9.8799999999999995E-4</v>
       </c>
     </row>
-    <row r="46" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A46" s="20">
         <v>-4.8690000000000001E-3</v>
       </c>
@@ -53435,7 +53453,7 @@
         <v>1.17E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A47" s="20">
         <v>-4.8789999999999997E-3</v>
       </c>
@@ -53551,7 +53569,7 @@
         <v>1.312E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A48" s="20">
         <v>-5.2100000000000002E-3</v>
       </c>
@@ -53667,7 +53685,7 @@
         <v>1.3910000000000001E-3</v>
       </c>
     </row>
-    <row r="49" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A49" s="20">
         <v>-5.3600000000000002E-3</v>
       </c>
@@ -53783,7 +53801,7 @@
         <v>1.4710000000000001E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A50" s="20">
         <v>-5.4980000000000003E-3</v>
       </c>
@@ -53899,7 +53917,7 @@
         <v>1.5169999999999999E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A51" s="20">
         <v>-5.3540000000000003E-3</v>
       </c>
@@ -54015,7 +54033,7 @@
         <v>1.6379999999999999E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A52" s="20">
         <v>-5.2490000000000002E-3</v>
       </c>
@@ -54131,7 +54149,7 @@
         <v>1.7160000000000001E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A53" s="20">
         <v>-5.3990000000000002E-3</v>
       </c>
@@ -54247,7 +54265,7 @@
         <v>1.7949999999999999E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A54" s="20">
         <v>-5.5960000000000003E-3</v>
       </c>
@@ -54363,7 +54381,7 @@
         <v>1.856E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A55" s="20">
         <v>-5.5170000000000002E-3</v>
       </c>
@@ -54479,7 +54497,7 @@
         <v>1.9740000000000001E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A56" s="20">
         <v>-5.4710000000000002E-3</v>
       </c>
@@ -54595,7 +54613,7 @@
         <v>2.0170000000000001E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A57" s="20">
         <v>-5.7780000000000001E-3</v>
       </c>
@@ -54711,7 +54729,7 @@
         <v>2.0219999999999999E-3</v>
       </c>
     </row>
-    <row r="58" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A58" s="20">
         <v>-6.2500000000000003E-3</v>
       </c>
@@ -54827,7 +54845,7 @@
         <v>2.075E-3</v>
       </c>
     </row>
-    <row r="59" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A59" s="20">
         <v>-6.097E-3</v>
       </c>
@@ -54943,7 +54961,7 @@
         <v>2.209E-3</v>
       </c>
     </row>
-    <row r="60" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A60" s="20">
         <v>-5.5900000000000004E-3</v>
       </c>
@@ -55059,7 +55077,7 @@
         <v>2.2399999999999998E-3</v>
       </c>
     </row>
-    <row r="61" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A61" s="20">
         <v>-5.6519999999999999E-3</v>
       </c>
@@ -55175,7 +55193,7 @@
         <v>2.3479999999999998E-3</v>
       </c>
     </row>
-    <row r="62" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A62" s="20">
         <v>-5.9350000000000002E-3</v>
       </c>
@@ -55291,7 +55309,7 @@
         <v>2.264E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A63" s="20">
         <v>-5.9800000000000001E-3</v>
       </c>
@@ -55407,7 +55425,7 @@
         <v>2.2499999999999998E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A64" s="20">
         <v>-5.5019999999999999E-3</v>
       </c>
@@ -55523,7 +55541,7 @@
         <v>2.3010000000000001E-3</v>
       </c>
     </row>
-    <row r="65" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A65" s="20">
         <v>-5.8060000000000004E-3</v>
       </c>
@@ -55639,7 +55657,7 @@
         <v>2.1640000000000001E-3</v>
       </c>
     </row>
-    <row r="66" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A66" s="20">
         <v>-5.5970000000000004E-3</v>
       </c>
@@ -55755,7 +55773,7 @@
         <v>2.0860000000000002E-3</v>
       </c>
     </row>
-    <row r="67" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A67" s="20">
         <v>-5.1640000000000002E-3</v>
       </c>
@@ -55871,7 +55889,7 @@
         <v>1.928E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A68" s="20">
         <v>-5.0949999999999997E-3</v>
       </c>
@@ -55987,7 +56005,7 @@
         <v>1.6919999999999999E-3</v>
       </c>
     </row>
-    <row r="69" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A69" s="20">
         <v>-5.5589999999999997E-3</v>
       </c>
@@ -56103,7 +56121,7 @@
         <v>1.6019999999999999E-3</v>
       </c>
     </row>
-    <row r="70" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A70" s="20">
         <v>-4.7239999999999999E-3</v>
       </c>
@@ -56219,7 +56237,7 @@
         <v>1.366E-3</v>
       </c>
     </row>
-    <row r="71" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A71" s="20">
         <v>-4.8669999999999998E-3</v>
       </c>
@@ -56335,7 +56353,7 @@
         <v>1.044E-3</v>
       </c>
     </row>
-    <row r="72" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A72" s="20">
         <v>-4.4799999999999996E-3</v>
       </c>
@@ -56451,7 +56469,7 @@
         <v>1.0579999999999999E-3</v>
       </c>
     </row>
-    <row r="73" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A73" s="20">
         <v>-3.954E-3</v>
       </c>
@@ -56567,7 +56585,7 @@
         <v>6.9200000000000002E-4</v>
       </c>
     </row>
-    <row r="74" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A74" s="20">
         <v>-3.9249999999999997E-3</v>
       </c>
@@ -56683,7 +56701,7 @@
         <v>6.3199999999999997E-4</v>
       </c>
     </row>
-    <row r="75" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A75" s="20">
         <v>-3.3180000000000002E-3</v>
       </c>
@@ -56799,7 +56817,7 @@
         <v>5.6899999999999995E-4</v>
       </c>
     </row>
-    <row r="76" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A76" s="20">
         <v>-3.411E-3</v>
       </c>
@@ -56915,7 +56933,7 @@
         <v>2.63E-4</v>
       </c>
     </row>
-    <row r="77" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A77" s="20">
         <v>-2.9190000000000002E-3</v>
       </c>
@@ -57045,12 +57063,12 @@
       <selection activeCellId="1" sqref="L2:M2 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1025" width="8.6640625"/>
+    <col min="1" max="1025" width="8.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A1" s="20">
         <v>-0.137742</v>
       </c>
@@ -57163,7 +57181,7 @@
         <v>6.6461000000000006E-2</v>
       </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A2" s="20">
         <v>-0.123683</v>
       </c>
@@ -57276,7 +57294,7 @@
         <v>5.8449000000000001E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3" s="20">
         <v>-0.10781399999999999</v>
       </c>
@@ -57389,7 +57407,7 @@
         <v>4.9410000000000003E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A4" s="20">
         <v>-9.4052999999999998E-2</v>
       </c>
@@ -57502,7 +57520,7 @@
         <v>4.1635999999999999E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A5" s="20">
         <v>-8.1762000000000001E-2</v>
       </c>
@@ -57615,7 +57633,7 @@
         <v>3.5949000000000002E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A6" s="20">
         <v>-7.3484999999999995E-2</v>
       </c>
@@ -57728,7 +57746,7 @@
         <v>3.1420999999999998E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A7" s="20">
         <v>-6.5034999999999996E-2</v>
       </c>
@@ -57841,7 +57859,7 @@
         <v>2.7899E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A8" s="20">
         <v>-5.9811999999999997E-2</v>
       </c>
@@ -57954,7 +57972,7 @@
         <v>2.5471000000000001E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A9" s="20">
         <v>-5.4587999999999998E-2</v>
       </c>
@@ -58067,7 +58085,7 @@
         <v>2.3725E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A10" s="20">
         <v>-5.0522999999999998E-2</v>
       </c>
@@ -58180,7 +58198,7 @@
         <v>2.2010999999999999E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A11" s="20">
         <v>-4.6417E-2</v>
       </c>
@@ -58293,7 +58311,7 @@
         <v>2.0455000000000001E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A12" s="20">
         <v>-4.2894000000000002E-2</v>
       </c>
@@ -58406,7 +58424,7 @@
         <v>1.9470000000000001E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A13" s="20">
         <v>-3.9669000000000003E-2</v>
       </c>
@@ -58519,7 +58537,7 @@
         <v>1.8332000000000001E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A14" s="20">
         <v>-3.7416999999999999E-2</v>
       </c>
@@ -58632,7 +58650,7 @@
         <v>1.7141E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A15" s="20">
         <v>-3.4583999999999997E-2</v>
       </c>
@@ -58745,7 +58763,7 @@
         <v>1.6249E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A16" s="20">
         <v>-3.2606000000000003E-2</v>
       </c>
@@ -58858,7 +58876,7 @@
         <v>1.5339E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A17" s="20">
         <v>-3.0513999999999999E-2</v>
       </c>
@@ -58971,7 +58989,7 @@
         <v>1.4739E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A18" s="20">
         <v>-2.8753999999999998E-2</v>
       </c>
@@ -59084,7 +59102,7 @@
         <v>1.3972E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A19" s="20">
         <v>-2.7019999999999999E-2</v>
       </c>
@@ -59197,7 +59215,7 @@
         <v>1.3403999999999999E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A20" s="20">
         <v>-2.5475999999999999E-2</v>
       </c>
@@ -59310,7 +59328,7 @@
         <v>1.2867999999999999E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A21" s="20">
         <v>-2.3871E-2</v>
       </c>
@@ -59423,7 +59441,7 @@
         <v>1.2293999999999999E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A22" s="20">
         <v>-2.2845000000000001E-2</v>
       </c>
@@ -59536,7 +59554,7 @@
         <v>1.1951E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A23" s="20">
         <v>-2.1545000000000002E-2</v>
       </c>
@@ -59649,7 +59667,7 @@
         <v>1.1438E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A24" s="20">
         <v>-2.0223999999999999E-2</v>
       </c>
@@ -59762,7 +59780,7 @@
         <v>1.1024000000000001E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A25" s="20">
         <v>-1.9413E-2</v>
       </c>
@@ -59875,7 +59893,7 @@
         <v>1.0603E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A26" s="20">
         <v>-1.8415000000000001E-2</v>
       </c>
@@ -59988,7 +60006,7 @@
         <v>1.0244E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A27" s="20">
         <v>-1.7524000000000001E-2</v>
       </c>
@@ -60101,7 +60119,7 @@
         <v>9.887E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A28" s="20">
         <v>-1.6789999999999999E-2</v>
       </c>
@@ -60214,7 +60232,7 @@
         <v>9.6430000000000005E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A29" s="20">
         <v>-1.6043000000000002E-2</v>
       </c>
@@ -60327,7 +60345,7 @@
         <v>9.3469999999999994E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A30" s="20">
         <v>-1.5464E-2</v>
       </c>
@@ -60440,7 +60458,7 @@
         <v>9.0679999999999997E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A31" s="20">
         <v>-1.4756E-2</v>
       </c>
@@ -60553,7 +60571,7 @@
         <v>8.7930000000000005E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A32" s="20">
         <v>-1.4224000000000001E-2</v>
       </c>
@@ -60666,7 +60684,7 @@
         <v>8.5599999999999999E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A33" s="20">
         <v>-1.3837E-2</v>
       </c>
@@ -60779,7 +60797,7 @@
         <v>8.3809999999999996E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A34" s="20">
         <v>-1.3697000000000001E-2</v>
       </c>
@@ -60892,7 +60910,7 @@
         <v>8.2850000000000007E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A35" s="20">
         <v>-1.3313999999999999E-2</v>
       </c>
@@ -61005,7 +61023,7 @@
         <v>8.1309999999999993E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A36" s="20">
         <v>-1.2796E-2</v>
       </c>
@@ -61118,7 +61136,7 @@
         <v>7.9869999999999993E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A37" s="20">
         <v>-1.2234999999999999E-2</v>
       </c>
@@ -61231,7 +61249,7 @@
         <v>7.8079999999999998E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A38" s="20">
         <v>-1.1845E-2</v>
       </c>
@@ -61344,7 +61362,7 @@
         <v>7.6360000000000004E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A39" s="20">
         <v>-1.1485E-2</v>
       </c>
@@ -61457,7 +61475,7 @@
         <v>7.4780000000000003E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A40" s="20">
         <v>-1.106E-2</v>
       </c>
@@ -61570,7 +61588,7 @@
         <v>7.3419999999999996E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A41" s="20">
         <v>-1.0828000000000001E-2</v>
       </c>
@@ -61683,7 +61701,7 @@
         <v>7.221E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A42" s="20">
         <v>-1.0421E-2</v>
       </c>
@@ -61796,7 +61814,7 @@
         <v>7.1050000000000002E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A43" s="20">
         <v>-1.1143E-2</v>
       </c>
@@ -61909,7 +61927,7 @@
         <v>7.1409999999999998E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A44" s="20">
         <v>-1.0886E-2</v>
       </c>
@@ -62022,7 +62040,7 @@
         <v>7.0029999999999997E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A45" s="20">
         <v>-1.0647999999999999E-2</v>
       </c>
@@ -62135,7 +62153,7 @@
         <v>6.953E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A46" s="20">
         <v>-1.0467000000000001E-2</v>
       </c>
@@ -62248,7 +62266,7 @@
         <v>6.8339999999999998E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A47" s="20">
         <v>-1.013E-2</v>
       </c>
@@ -62361,7 +62379,7 @@
         <v>6.7689999999999998E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A48" s="20">
         <v>-9.8860000000000007E-3</v>
       </c>
@@ -62474,7 +62492,7 @@
         <v>6.7010000000000004E-3</v>
       </c>
     </row>
-    <row r="49" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A49" s="20">
         <v>-9.6659999999999992E-3</v>
       </c>
@@ -62587,7 +62605,7 @@
         <v>6.6039999999999996E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A50" s="20">
         <v>-9.3959999999999998E-3</v>
       </c>
@@ -62700,7 +62718,7 @@
         <v>6.5519999999999997E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A51" s="20">
         <v>-9.2219999999999993E-3</v>
       </c>
@@ -62813,7 +62831,7 @@
         <v>6.4710000000000002E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A52" s="20">
         <v>-9.0480000000000005E-3</v>
       </c>
@@ -62926,7 +62944,7 @@
         <v>6.411E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A53" s="20">
         <v>-8.8380000000000004E-3</v>
       </c>
@@ -63039,7 +63057,7 @@
         <v>6.3270000000000002E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A54" s="20">
         <v>-8.5699999999999995E-3</v>
       </c>
@@ -63152,7 +63170,7 @@
         <v>6.2500000000000003E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A55" s="20">
         <v>-8.4600000000000005E-3</v>
       </c>
@@ -63265,7 +63283,7 @@
         <v>6.1830000000000001E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A56" s="20">
         <v>-8.3490000000000005E-3</v>
       </c>
@@ -63378,7 +63396,7 @@
         <v>6.0879999999999997E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A57" s="20">
         <v>-8.1949999999999992E-3</v>
       </c>
@@ -63491,7 +63509,7 @@
         <v>5.9890000000000004E-3</v>
       </c>
     </row>
-    <row r="58" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A58" s="20">
         <v>-8.0630000000000007E-3</v>
       </c>
@@ -63604,7 +63622,7 @@
         <v>5.9820000000000003E-3</v>
       </c>
     </row>
-    <row r="59" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A59" s="20">
         <v>-7.9459999999999999E-3</v>
       </c>
@@ -63717,7 +63735,7 @@
         <v>5.888E-3</v>
       </c>
     </row>
-    <row r="60" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A60" s="20">
         <v>-7.9430000000000004E-3</v>
       </c>
@@ -63830,7 +63848,7 @@
         <v>5.8279999999999998E-3</v>
       </c>
     </row>
-    <row r="61" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A61" s="20">
         <v>-7.8200000000000006E-3</v>
       </c>
@@ -63943,7 +63961,7 @@
         <v>5.7800000000000004E-3</v>
       </c>
     </row>
-    <row r="62" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A62" s="20">
         <v>-7.744E-3</v>
       </c>
@@ -64056,7 +64074,7 @@
         <v>5.7070000000000003E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A63" s="20">
         <v>-7.8239999999999994E-3</v>
       </c>
@@ -64169,7 +64187,7 @@
         <v>5.6169999999999996E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A64" s="20">
         <v>-7.5839999999999996E-3</v>
       </c>
@@ -64282,7 +64300,7 @@
         <v>5.5500000000000002E-3</v>
       </c>
     </row>
-    <row r="65" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A65" s="20">
         <v>-7.4770000000000001E-3</v>
       </c>
@@ -64395,7 +64413,7 @@
         <v>5.4739999999999997E-3</v>
       </c>
     </row>
-    <row r="66" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A66" s="20">
         <v>-7.4190000000000002E-3</v>
       </c>
@@ -64508,7 +64526,7 @@
         <v>5.3189999999999999E-3</v>
       </c>
     </row>
-    <row r="67" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A67" s="20">
         <v>-7.2389999999999998E-3</v>
       </c>
@@ -64621,7 +64639,7 @@
         <v>5.2630000000000003E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A68" s="20">
         <v>-7.162E-3</v>
       </c>
@@ -64734,7 +64752,7 @@
         <v>5.1669999999999997E-3</v>
       </c>
     </row>
-    <row r="69" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A69" s="20">
         <v>-7.1510000000000002E-3</v>
       </c>
@@ -64847,7 +64865,7 @@
         <v>5.097E-3</v>
       </c>
     </row>
-    <row r="70" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A70" s="20">
         <v>-6.9509999999999997E-3</v>
       </c>
@@ -64960,7 +64978,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="71" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A71" s="20">
         <v>-6.6819999999999996E-3</v>
       </c>
@@ -65073,7 +65091,7 @@
         <v>4.9399999999999999E-3</v>
       </c>
     </row>
-    <row r="72" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A72" s="20">
         <v>-6.6140000000000001E-3</v>
       </c>
@@ -65186,7 +65204,7 @@
         <v>4.9150000000000001E-3</v>
       </c>
     </row>
-    <row r="73" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A73" s="20">
         <v>-6.6369999999999997E-3</v>
       </c>
@@ -65299,7 +65317,7 @@
         <v>4.9119999999999997E-3</v>
       </c>
     </row>
-    <row r="74" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A74" s="20">
         <v>-6.5770000000000004E-3</v>
       </c>
@@ -65412,7 +65430,7 @@
         <v>5.0039999999999998E-3</v>
       </c>
     </row>
-    <row r="75" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A75" s="20">
         <v>-6.7380000000000001E-3</v>
       </c>
@@ -65525,7 +65543,7 @@
         <v>4.9969999999999997E-3</v>
       </c>
     </row>
-    <row r="76" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A76" s="20">
         <v>-6.9880000000000003E-3</v>
       </c>
@@ -65638,7 +65656,7 @@
         <v>5.1000000000000004E-3</v>
       </c>
     </row>
-    <row r="77" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A77" s="20">
         <v>-7.3220000000000004E-3</v>
       </c>
@@ -65751,7 +65769,7 @@
         <v>5.0379999999999999E-3</v>
       </c>
     </row>
-    <row r="78" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A78" s="20">
         <v>-7.3029999999999996E-3</v>
       </c>
@@ -65864,7 +65882,7 @@
         <v>5.0619999999999997E-3</v>
       </c>
     </row>
-    <row r="79" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A79" s="20">
         <v>-7.3010000000000002E-3</v>
       </c>
@@ -65977,7 +65995,7 @@
         <v>5.0480000000000004E-3</v>
       </c>
     </row>
-    <row r="80" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A80" s="20">
         <v>-6.5409999999999999E-3</v>
       </c>
@@ -66104,12 +66122,12 @@
       <selection activeCellId="1" sqref="L2:M2 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1025" width="8.6640625"/>
+    <col min="1" max="1025" width="8.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A1" s="20">
         <v>-6.2105E-2</v>
       </c>
@@ -66222,7 +66240,7 @@
         <v>1.7430999999999999E-2</v>
       </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A2" s="20">
         <v>-6.2109999999999999E-2</v>
       </c>
@@ -66335,7 +66353,7 @@
         <v>1.8002000000000001E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3" s="20">
         <v>-5.9396999999999998E-2</v>
       </c>
@@ -66448,7 +66466,7 @@
         <v>1.7097000000000001E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A4" s="20">
         <v>-5.5306000000000001E-2</v>
       </c>
@@ -66561,7 +66579,7 @@
         <v>1.6445999999999999E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A5" s="20">
         <v>-5.6001000000000002E-2</v>
       </c>
@@ -66674,7 +66692,7 @@
         <v>1.6289000000000001E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A6" s="20">
         <v>-5.4563E-2</v>
       </c>
@@ -66787,7 +66805,7 @@
         <v>1.5913E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A7" s="20">
         <v>-5.2789999999999997E-2</v>
       </c>
@@ -66900,7 +66918,7 @@
         <v>1.5017000000000001E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A8" s="20">
         <v>-5.1534999999999997E-2</v>
       </c>
@@ -67013,7 +67031,7 @@
         <v>1.4651000000000001E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A9" s="20">
         <v>-4.8661000000000003E-2</v>
       </c>
@@ -67126,7 +67144,7 @@
         <v>1.3776999999999999E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A10" s="20">
         <v>-4.6107000000000002E-2</v>
       </c>
@@ -67239,7 +67257,7 @@
         <v>1.3070999999999999E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A11" s="20">
         <v>-4.4930999999999999E-2</v>
       </c>
@@ -67352,7 +67370,7 @@
         <v>1.2226000000000001E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A12" s="20">
         <v>-4.1687000000000002E-2</v>
       </c>
@@ -67465,7 +67483,7 @@
         <v>1.1269E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A13" s="20">
         <v>-4.1057000000000003E-2</v>
       </c>
@@ -67578,7 +67596,7 @@
         <v>1.0658000000000001E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A14" s="20">
         <v>-3.9824999999999999E-2</v>
       </c>
@@ -67691,7 +67709,7 @@
         <v>9.8219999999999991E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A15" s="20">
         <v>-3.8571000000000001E-2</v>
       </c>
@@ -67804,7 +67822,7 @@
         <v>9.0150000000000004E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A16" s="20">
         <v>-3.8205000000000003E-2</v>
       </c>
@@ -67917,7 +67935,7 @@
         <v>8.5030000000000001E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A17" s="20">
         <v>-3.669E-2</v>
       </c>
@@ -68030,7 +68048,7 @@
         <v>7.7819999999999999E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A18" s="20">
         <v>-3.6133999999999999E-2</v>
       </c>
@@ -68143,7 +68161,7 @@
         <v>7.1970000000000003E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A19" s="20">
         <v>-3.5808E-2</v>
       </c>
@@ -68256,7 +68274,7 @@
         <v>6.8529999999999997E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A20" s="20">
         <v>-3.4254E-2</v>
       </c>
@@ -68369,7 +68387,7 @@
         <v>6.1590000000000004E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A21" s="20">
         <v>-3.4375000000000003E-2</v>
       </c>
@@ -68482,7 +68500,7 @@
         <v>5.8389999999999996E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A22" s="20">
         <v>-3.2938000000000002E-2</v>
       </c>
@@ -68595,7 +68613,7 @@
         <v>5.6940000000000003E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A23" s="20">
         <v>-3.2185999999999999E-2</v>
       </c>
@@ -68708,7 +68726,7 @@
         <v>5.0239999999999998E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A24" s="20">
         <v>-3.1965E-2</v>
       </c>
@@ -68821,7 +68839,7 @@
         <v>4.9969999999999997E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A25" s="20">
         <v>-3.0623000000000001E-2</v>
       </c>
@@ -68934,7 +68952,7 @@
         <v>4.6119999999999998E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A26" s="20">
         <v>-3.0419000000000002E-2</v>
       </c>
@@ -69047,7 +69065,7 @@
         <v>4.3010000000000001E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A27" s="20">
         <v>-3.0085000000000001E-2</v>
       </c>
@@ -69160,7 +69178,7 @@
         <v>4.091E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A28" s="20">
         <v>-2.8989999999999998E-2</v>
       </c>
@@ -69273,7 +69291,7 @@
         <v>3.7859999999999999E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A29" s="20">
         <v>-2.9000000000000001E-2</v>
       </c>
@@ -69386,7 +69404,7 @@
         <v>3.539E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A30" s="20">
         <v>-2.8365000000000001E-2</v>
       </c>
@@ -69499,7 +69517,7 @@
         <v>3.4480000000000001E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A31" s="20">
         <v>-2.7723000000000001E-2</v>
       </c>
@@ -69612,7 +69630,7 @@
         <v>3.0130000000000001E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A32" s="20">
         <v>-2.7921999999999999E-2</v>
       </c>
@@ -69725,7 +69743,7 @@
         <v>2.8999999999999998E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A33" s="20">
         <v>-2.6561999999999999E-2</v>
       </c>
@@ -69838,7 +69856,7 @@
         <v>2.7529999999999998E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A34" s="20">
         <v>-2.6464999999999999E-2</v>
       </c>
@@ -69951,7 +69969,7 @@
         <v>2.317E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A35" s="20">
         <v>-2.5968999999999999E-2</v>
       </c>
@@ -70064,7 +70082,7 @@
         <v>2.336E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A36" s="20">
         <v>-2.5225000000000001E-2</v>
       </c>
@@ -70177,7 +70195,7 @@
         <v>2.111E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A37" s="20">
         <v>-2.5010999999999999E-2</v>
       </c>
@@ -70290,7 +70308,7 @@
         <v>1.9840000000000001E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A38" s="20">
         <v>-2.4392E-2</v>
       </c>
@@ -70403,7 +70421,7 @@
         <v>1.9580000000000001E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A39" s="20">
         <v>-2.3747999999999998E-2</v>
       </c>
@@ -70516,7 +70534,7 @@
         <v>1.73E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A40" s="20">
         <v>-2.3202E-2</v>
       </c>
@@ -70629,7 +70647,7 @@
         <v>1.622E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A41" s="20">
         <v>-2.2259999999999999E-2</v>
       </c>
@@ -70742,7 +70760,7 @@
         <v>1.5969999999999999E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A42" s="20">
         <v>-2.1624999999999998E-2</v>
       </c>
@@ -70855,7 +70873,7 @@
         <v>1.5479999999999999E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A43" s="20">
         <v>-1.8606999999999999E-2</v>
       </c>
@@ -70968,7 +70986,7 @@
         <v>1.505E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A44" s="20">
         <v>-1.8742000000000002E-2</v>
       </c>
@@ -71081,7 +71099,7 @@
         <v>1.196E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A45" s="20">
         <v>-1.8568999999999999E-2</v>
       </c>
@@ -71194,7 +71212,7 @@
         <v>1.0839999999999999E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A46" s="20">
         <v>-1.8393E-2</v>
       </c>
@@ -71307,7 +71325,7 @@
         <v>8.3799999999999999E-4</v>
       </c>
     </row>
-    <row r="47" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A47" s="20">
         <v>-1.8085E-2</v>
       </c>
@@ -71420,7 +71438,7 @@
         <v>7.7399999999999995E-4</v>
       </c>
     </row>
-    <row r="48" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A48" s="20">
         <v>-1.7812000000000001E-2</v>
       </c>
@@ -71533,7 +71551,7 @@
         <v>6.5499999999999998E-4</v>
       </c>
     </row>
-    <row r="49" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A49" s="20">
         <v>-1.7655000000000001E-2</v>
       </c>
@@ -71646,7 +71664,7 @@
         <v>5.9900000000000003E-4</v>
       </c>
     </row>
-    <row r="50" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A50" s="20">
         <v>-1.7250000000000001E-2</v>
       </c>
@@ -71759,7 +71777,7 @@
         <v>4.8899999999999996E-4</v>
       </c>
     </row>
-    <row r="51" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A51" s="20">
         <v>-1.6927999999999999E-2</v>
       </c>
@@ -71872,7 +71890,7 @@
         <v>5.2400000000000005E-4</v>
       </c>
     </row>
-    <row r="52" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A52" s="20">
         <v>-1.6673E-2</v>
       </c>
@@ -71985,7 +72003,7 @@
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="53" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A53" s="20">
         <v>-1.6570000000000001E-2</v>
       </c>
@@ -72098,7 +72116,7 @@
         <v>3.4600000000000001E-4</v>
       </c>
     </row>
-    <row r="54" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A54" s="20">
         <v>-1.6185000000000001E-2</v>
       </c>
@@ -72211,7 +72229,7 @@
         <v>2.5700000000000001E-4</v>
       </c>
     </row>
-    <row r="55" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A55" s="20">
         <v>-1.6348999999999999E-2</v>
       </c>
@@ -72324,7 +72342,7 @@
         <v>2.1599999999999999E-4</v>
       </c>
     </row>
-    <row r="56" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A56" s="20">
         <v>-1.6230999999999999E-2</v>
       </c>
@@ -72437,7 +72455,7 @@
         <v>3.0800000000000001E-4</v>
       </c>
     </row>
-    <row r="57" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A57" s="20">
         <v>-1.6052E-2</v>
       </c>
@@ -72550,7 +72568,7 @@
         <v>2.7599999999999999E-4</v>
       </c>
     </row>
-    <row r="58" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A58" s="20">
         <v>-1.5886000000000001E-2</v>
       </c>
@@ -72663,7 +72681,7 @@
         <v>2.6200000000000003E-4</v>
       </c>
     </row>
-    <row r="59" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A59" s="20">
         <v>-1.5980000000000001E-2</v>
       </c>
@@ -72776,7 +72794,7 @@
         <v>1.47E-4</v>
       </c>
     </row>
-    <row r="60" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A60" s="20">
         <v>-1.5838999999999999E-2</v>
       </c>
@@ -72889,7 +72907,7 @@
         <v>1.4300000000000001E-4</v>
       </c>
     </row>
-    <row r="61" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A61" s="20">
         <v>-1.6036000000000002E-2</v>
       </c>
@@ -73002,7 +73020,7 @@
         <v>4.0000000000000003E-5</v>
       </c>
     </row>
-    <row r="62" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A62" s="20">
         <v>-1.5748000000000002E-2</v>
       </c>
@@ -73115,7 +73133,7 @@
         <v>-1.03E-4</v>
       </c>
     </row>
-    <row r="63" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A63" s="20">
         <v>-1.5389999999999999E-2</v>
       </c>
@@ -73228,7 +73246,7 @@
         <v>-6.4999999999999994E-5</v>
       </c>
     </row>
-    <row r="64" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A64" s="20">
         <v>-1.5724999999999999E-2</v>
       </c>
@@ -73341,7 +73359,7 @@
         <v>-2.2100000000000001E-4</v>
       </c>
     </row>
-    <row r="65" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A65" s="20">
         <v>-1.521E-2</v>
       </c>
@@ -73454,7 +73472,7 @@
         <v>-3.1399999999999999E-4</v>
       </c>
     </row>
-    <row r="66" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A66" s="20">
         <v>-1.5178000000000001E-2</v>
       </c>
@@ -73567,7 +73585,7 @@
         <v>-3.86E-4</v>
       </c>
     </row>
-    <row r="67" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A67" s="20">
         <v>-1.4957E-2</v>
       </c>
@@ -73680,7 +73698,7 @@
         <v>-5.1199999999999998E-4</v>
       </c>
     </row>
-    <row r="68" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A68" s="20">
         <v>-1.4435999999999999E-2</v>
       </c>
@@ -73793,7 +73811,7 @@
         <v>-5.8100000000000003E-4</v>
       </c>
     </row>
-    <row r="69" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A69" s="20">
         <v>-1.4089000000000001E-2</v>
       </c>
@@ -73906,7 +73924,7 @@
         <v>-6.4800000000000003E-4</v>
       </c>
     </row>
-    <row r="70" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A70" s="20">
         <v>-1.3396E-2</v>
       </c>
@@ -74019,7 +74037,7 @@
         <v>-6.9899999999999997E-4</v>
       </c>
     </row>
-    <row r="71" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A71" s="20">
         <v>-1.2173E-2</v>
       </c>
@@ -74132,7 +74150,7 @@
         <v>-8.7900000000000001E-4</v>
       </c>
     </row>
-    <row r="72" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A72" s="20">
         <v>-1.1815000000000001E-2</v>
       </c>
@@ -74245,7 +74263,7 @@
         <v>-7.1500000000000003E-4</v>
       </c>
     </row>
-    <row r="73" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A73" s="20">
         <v>-1.1017000000000001E-2</v>
       </c>
@@ -74358,7 +74376,7 @@
         <v>-7.7499999999999997E-4</v>
       </c>
     </row>
-    <row r="74" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A74" s="20">
         <v>-1.0482999999999999E-2</v>
       </c>
@@ -74471,7 +74489,7 @@
         <v>-7.5500000000000003E-4</v>
       </c>
     </row>
-    <row r="75" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A75" s="20">
         <v>-1.0366E-2</v>
       </c>
@@ -74584,7 +74602,7 @@
         <v>-5.7899999999999998E-4</v>
       </c>
     </row>
-    <row r="76" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A76" s="20">
         <v>-9.8659999999999998E-3</v>
       </c>
@@ -74697,7 +74715,7 @@
         <v>-6.3100000000000005E-4</v>
       </c>
     </row>
-    <row r="77" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A77" s="20">
         <v>-1.0338999999999999E-2</v>
       </c>
@@ -74810,7 +74828,7 @@
         <v>-5.53E-4</v>
       </c>
     </row>
-    <row r="78" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A78" s="20">
         <v>-1.0491E-2</v>
       </c>
@@ -74923,7 +74941,7 @@
         <v>-3.6900000000000002E-4</v>
       </c>
     </row>
-    <row r="79" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A79" s="20">
         <v>-1.0500000000000001E-2</v>
       </c>
@@ -75036,7 +75054,7 @@
         <v>-5.71E-4</v>
       </c>
     </row>
-    <row r="80" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A80" s="20">
         <v>-1.1900000000000001E-2</v>
       </c>
@@ -75163,13 +75181,13 @@
       <selection activeCellId="1" sqref="L2:M2 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.44140625" customWidth="1"/>
-    <col min="2" max="1025" width="8.6640625"/>
+    <col min="1" max="1" width="12.42578125" customWidth="1"/>
+    <col min="2" max="1025" width="8.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A1" s="19">
         <v>-4.8681000000000002E-2</v>
       </c>
@@ -75285,7 +75303,7 @@
         <v>1.8308000000000001E-2</v>
       </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A2" s="19">
         <v>-4.3818000000000003E-2</v>
       </c>
@@ -75401,7 +75419,7 @@
         <v>1.4529E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A3" s="19">
         <v>-3.4930999999999997E-2</v>
       </c>
@@ -75517,7 +75535,7 @@
         <v>1.0225E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A4" s="19">
         <v>-2.8472999999999998E-2</v>
       </c>
@@ -75633,7 +75651,7 @@
         <v>5.3530000000000001E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A5" s="19">
         <v>-2.3571999999999999E-2</v>
       </c>
@@ -75749,7 +75767,7 @@
         <v>2.359E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A6" s="19">
         <v>-1.9560000000000001E-2</v>
       </c>
@@ -75865,7 +75883,7 @@
         <v>4.8299999999999998E-4</v>
       </c>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A7" s="19">
         <v>-1.6504999999999999E-2</v>
       </c>
@@ -75981,7 +75999,7 @@
         <v>-3.1999999999999999E-5</v>
       </c>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A8" s="19">
         <v>-1.5032999999999999E-2</v>
       </c>
@@ -76097,7 +76115,7 @@
         <v>-6.6000000000000005E-5</v>
       </c>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A9" s="19">
         <v>-1.5565000000000001E-2</v>
       </c>
@@ -76213,7 +76231,7 @@
         <v>-1.93E-4</v>
       </c>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A10" s="19">
         <v>-1.5072E-2</v>
       </c>
@@ -76329,7 +76347,7 @@
         <v>-3.3199999999999999E-4</v>
       </c>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A11" s="19">
         <v>-1.3521E-2</v>
       </c>
@@ -76445,7 +76463,7 @@
         <v>4.3000000000000002E-5</v>
       </c>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A12" s="19">
         <v>-1.2801999999999999E-2</v>
       </c>
@@ -76561,7 +76579,7 @@
         <v>1.4E-5</v>
       </c>
     </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A13" s="19">
         <v>-1.2318000000000001E-2</v>
       </c>
@@ -76677,7 +76695,7 @@
         <v>5.9299999999999999E-4</v>
       </c>
     </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A14" s="19">
         <v>-1.1985000000000001E-2</v>
       </c>
@@ -76793,7 +76811,7 @@
         <v>1.098E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A15" s="19">
         <v>-1.2311000000000001E-2</v>
       </c>
@@ -76909,7 +76927,7 @@
         <v>1.3860000000000001E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A16" s="19">
         <v>-1.2248E-2</v>
       </c>
@@ -77025,7 +77043,7 @@
         <v>1.6379999999999999E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A17" s="19">
         <v>-1.2452E-2</v>
       </c>
@@ -77141,7 +77159,7 @@
         <v>2.5300000000000001E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A18" s="19">
         <v>-1.2609E-2</v>
       </c>
@@ -77257,7 +77275,7 @@
         <v>2.722E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A19" s="19">
         <v>-1.2754E-2</v>
       </c>
@@ -77373,7 +77391,7 @@
         <v>3.1779999999999998E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A20" s="19">
         <v>-1.2996000000000001E-2</v>
       </c>
@@ -77489,7 +77507,7 @@
         <v>3.5460000000000001E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A21" s="19">
         <v>-1.3259999999999999E-2</v>
       </c>
@@ -77605,7 +77623,7 @@
         <v>3.7520000000000001E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A22" s="19">
         <v>-1.3252E-2</v>
       </c>
@@ -77721,7 +77739,7 @@
         <v>4.1539999999999997E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A23" s="19">
         <v>-1.2996000000000001E-2</v>
       </c>
@@ -77837,7 +77855,7 @@
         <v>4.4120000000000001E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A24" s="19">
         <v>-1.3065E-2</v>
       </c>
@@ -77953,7 +77971,7 @@
         <v>4.5399999999999998E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A25" s="19">
         <v>-1.2914999999999999E-2</v>
       </c>
@@ -78069,7 +78087,7 @@
         <v>4.6839999999999998E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A26" s="19">
         <v>-1.2756E-2</v>
       </c>
@@ -78185,7 +78203,7 @@
         <v>4.9439999999999996E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A27" s="19">
         <v>-1.2621E-2</v>
       </c>
@@ -78301,7 +78319,7 @@
         <v>5.0939999999999996E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A28" s="19">
         <v>-1.2571000000000001E-2</v>
       </c>
@@ -78417,7 +78435,7 @@
         <v>5.3070000000000001E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A29" s="19">
         <v>-1.2444999999999999E-2</v>
       </c>
@@ -78533,7 +78551,7 @@
         <v>5.398E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A30" s="19">
         <v>-1.2527E-2</v>
       </c>
@@ -78649,7 +78667,7 @@
         <v>5.4229999999999999E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A31" s="19">
         <v>-1.2609E-2</v>
       </c>
@@ -78765,7 +78783,7 @@
         <v>5.4590000000000003E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A32" s="19">
         <v>-1.2475999999999999E-2</v>
       </c>
@@ -78881,7 +78899,7 @@
         <v>5.509E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A33" s="19">
         <v>-1.2545000000000001E-2</v>
       </c>
@@ -78997,7 +79015,7 @@
         <v>5.555E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A34" s="19">
         <v>-1.2597000000000001E-2</v>
       </c>
@@ -79113,7 +79131,7 @@
         <v>5.522E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A35" s="19">
         <v>-1.2463999999999999E-2</v>
       </c>
@@ -79229,7 +79247,7 @@
         <v>5.5180000000000003E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A36" s="19">
         <v>-1.235E-2</v>
       </c>
@@ -79345,7 +79363,7 @@
         <v>5.4469999999999996E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A37" s="19">
         <v>-1.2390999999999999E-2</v>
       </c>
@@ -79461,7 +79479,7 @@
         <v>5.3680000000000004E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A38" s="19">
         <v>-1.2290000000000001E-2</v>
       </c>
@@ -79577,7 +79595,7 @@
         <v>5.2030000000000002E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A39" s="19">
         <v>-1.2145E-2</v>
       </c>
@@ -79693,7 +79711,7 @@
         <v>5.0260000000000001E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A40" s="19">
         <v>-1.2045999999999999E-2</v>
       </c>
@@ -79809,7 +79827,7 @@
         <v>4.7590000000000002E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A41" s="19">
         <v>-1.2135E-2</v>
       </c>
@@ -79925,7 +79943,7 @@
         <v>4.6090000000000002E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A42" s="19">
         <v>-9.0749999999999997E-3</v>
       </c>
@@ -80041,7 +80059,7 @@
         <v>2.7499999999999998E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A43" s="19">
         <v>-9.2790000000000008E-3</v>
       </c>
@@ -80157,7 +80175,7 @@
         <v>2.9619999999999998E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A44" s="19">
         <v>-9.3989999999999994E-3</v>
       </c>
@@ -80273,7 +80291,7 @@
         <v>3.1819999999999999E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A45" s="19">
         <v>-9.6290000000000004E-3</v>
       </c>
@@ -80389,7 +80407,7 @@
         <v>3.3400000000000001E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A46" s="19">
         <v>-9.6570000000000007E-3</v>
       </c>
@@ -80505,7 +80523,7 @@
         <v>3.4299999999999999E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A47" s="19">
         <v>-9.8580000000000004E-3</v>
       </c>
@@ -80621,7 +80639,7 @@
         <v>3.5669999999999999E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A48" s="19">
         <v>-9.9699999999999997E-3</v>
       </c>
@@ -80737,7 +80755,7 @@
         <v>3.6240000000000001E-3</v>
       </c>
     </row>
-    <row r="49" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A49" s="19">
         <v>-9.9399999999999992E-3</v>
       </c>
@@ -80853,7 +80871,7 @@
         <v>3.6830000000000001E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A50" s="19">
         <v>-9.9220000000000003E-3</v>
       </c>
@@ -80969,7 +80987,7 @@
         <v>3.7859999999999999E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A51" s="19">
         <v>-9.9900000000000006E-3</v>
       </c>
@@ -81085,7 +81103,7 @@
         <v>3.908E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A52" s="19">
         <v>-1.0068000000000001E-2</v>
       </c>
@@ -81201,7 +81219,7 @@
         <v>3.8809999999999999E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A53" s="19">
         <v>-9.9939999999999994E-3</v>
       </c>
@@ -81317,7 +81335,7 @@
         <v>3.9719999999999998E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A54" s="19">
         <v>-1.0073E-2</v>
       </c>
@@ -81433,7 +81451,7 @@
         <v>3.9940000000000002E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A55" s="19">
         <v>-1.0144E-2</v>
       </c>
@@ -81549,7 +81567,7 @@
         <v>4.0540000000000003E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A56" s="19">
         <v>-1.0099E-2</v>
       </c>
@@ -81665,7 +81683,7 @@
         <v>4.0540000000000003E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A57" s="19">
         <v>-1.0014E-2</v>
       </c>
@@ -81781,7 +81799,7 @@
         <v>4.1570000000000001E-3</v>
       </c>
     </row>
-    <row r="58" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A58" s="19">
         <v>-1.0068000000000001E-2</v>
       </c>
@@ -81897,7 +81915,7 @@
         <v>4.1219999999999998E-3</v>
       </c>
     </row>
-    <row r="59" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A59" s="19">
         <v>-1.0227E-2</v>
       </c>
@@ -82013,7 +82031,7 @@
         <v>4.1660000000000004E-3</v>
       </c>
     </row>
-    <row r="60" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A60" s="19">
         <v>-1.0083E-2</v>
       </c>
@@ -82129,7 +82147,7 @@
         <v>4.1790000000000004E-3</v>
       </c>
     </row>
-    <row r="61" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A61" s="19">
         <v>-1.0024999999999999E-2</v>
       </c>
@@ -82245,7 +82263,7 @@
         <v>4.1180000000000001E-3</v>
       </c>
     </row>
-    <row r="62" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A62" s="19">
         <v>-9.9950000000000004E-3</v>
       </c>
@@ -82361,7 +82379,7 @@
         <v>4.1729999999999996E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A63" s="19">
         <v>-1.0057999999999999E-2</v>
       </c>
@@ -82477,7 +82495,7 @@
         <v>4.0540000000000003E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A64" s="19">
         <v>-9.8700000000000003E-3</v>
       </c>
@@ -82593,7 +82611,7 @@
         <v>3.908E-3</v>
       </c>
     </row>
-    <row r="65" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A65" s="19">
         <v>-9.6310000000000007E-3</v>
       </c>
@@ -82709,7 +82727,7 @@
         <v>3.7919999999999998E-3</v>
       </c>
     </row>
-    <row r="66" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A66" s="19">
         <v>-9.4680000000000007E-3</v>
       </c>
@@ -82825,7 +82843,7 @@
         <v>3.5609999999999999E-3</v>
       </c>
     </row>
-    <row r="67" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A67" s="19">
         <v>-9.2530000000000008E-3</v>
       </c>
@@ -82941,7 +82959,7 @@
         <v>3.3319999999999999E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A68" s="19">
         <v>-9.1929999999999998E-3</v>
       </c>
@@ -83057,7 +83075,7 @@
         <v>3.1480000000000002E-3</v>
       </c>
     </row>
-    <row r="69" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A69" s="19">
         <v>-9.1769999999999994E-3</v>
       </c>
@@ -83173,7 +83191,7 @@
         <v>2.9090000000000001E-3</v>
       </c>
     </row>
-    <row r="70" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A70" s="19">
         <v>-8.9149999999999993E-3</v>
       </c>
@@ -83289,7 +83307,7 @@
         <v>2.7049999999999999E-3</v>
       </c>
     </row>
-    <row r="71" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A71" s="19">
         <v>-8.5920000000000007E-3</v>
       </c>
@@ -83405,7 +83423,7 @@
         <v>2.5920000000000001E-3</v>
       </c>
     </row>
-    <row r="72" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A72" s="19">
         <v>-8.5489999999999993E-3</v>
       </c>
@@ -83521,7 +83539,7 @@
         <v>2.2780000000000001E-3</v>
       </c>
     </row>
-    <row r="73" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A73" s="19">
         <v>-8.1949999999999992E-3</v>
       </c>
@@ -83637,7 +83655,7 @@
         <v>2.3089999999999999E-3</v>
       </c>
     </row>
-    <row r="74" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A74" s="19">
         <v>-8.0520000000000001E-3</v>
       </c>
@@ -83753,7 +83771,7 @@
         <v>2.3050000000000002E-3</v>
       </c>
     </row>
-    <row r="75" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A75" s="19">
         <v>-8.2279999999999992E-3</v>
       </c>
@@ -83869,7 +83887,7 @@
         <v>1.9840000000000001E-3</v>
       </c>
     </row>
-    <row r="76" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A76" s="19">
         <v>-8.0999999999999996E-3</v>
       </c>
@@ -83985,7 +84003,7 @@
         <v>1.941E-3</v>
       </c>
     </row>
-    <row r="77" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A77" s="19">
         <v>-7.8379999999999995E-3</v>
       </c>

--- a/deployment/Omaha_Cal_Info_CE01ISSM_00002.xlsx
+++ b/deployment/Omaha_Cal_Info_CE01ISSM_00002.xlsx
@@ -20,12 +20,12 @@
     <sheet name="ACS182_CC_tcarray" sheetId="6" r:id="rId6"/>
     <sheet name="Sheet7" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1106" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="210">
   <si>
     <t>Ref Des</t>
   </si>
@@ -1318,7 +1318,7 @@
   <dimension ref="A1:AMM220"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34672,6 +34672,7 @@
       <c r="H34" s="16" t="s">
         <v>51</v>
       </c>
+      <c r="K34"/>
     </row>
     <row r="35" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A35"/>
@@ -34683,6 +34684,7 @@
       <c r="G35" s="14"/>
       <c r="H35"/>
       <c r="I35"/>
+      <c r="K35"/>
     </row>
     <row r="36" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A36" s="12" t="s">
@@ -34710,6 +34712,7 @@
         <v>53</v>
       </c>
       <c r="I36"/>
+      <c r="K36"/>
     </row>
     <row r="37" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A37" s="12" t="s">
@@ -34737,6 +34740,7 @@
         <v>54</v>
       </c>
       <c r="I37"/>
+      <c r="K37"/>
     </row>
     <row r="38" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A38" s="12" t="s">
@@ -34764,6 +34768,7 @@
         <v>22.7</v>
       </c>
       <c r="I38"/>
+      <c r="K38"/>
     </row>
     <row r="39" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A39" s="12" t="s">
@@ -34791,6 +34796,7 @@
         <v>55</v>
       </c>
       <c r="I39"/>
+      <c r="K39"/>
     </row>
     <row r="40" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A40" s="12" t="s">
@@ -34818,6 +34824,7 @@
         <v>56</v>
       </c>
       <c r="I40"/>
+      <c r="K40"/>
     </row>
     <row r="41" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A41" s="12" t="s">
@@ -34845,6 +34852,7 @@
         <v>57</v>
       </c>
       <c r="I41"/>
+      <c r="K41"/>
     </row>
     <row r="42" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A42" s="12" t="s">
@@ -34872,6 +34880,7 @@
         <v>58</v>
       </c>
       <c r="I42"/>
+      <c r="K42"/>
     </row>
     <row r="43" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A43" s="12" t="s">
@@ -34900,6 +34909,7 @@
       </c>
       <c r="I43"/>
       <c r="J43"/>
+      <c r="K43"/>
     </row>
     <row r="44" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A44"/>
@@ -34911,14 +34921,13 @@
       <c r="G44" s="14"/>
       <c r="H44"/>
       <c r="I44"/>
+      <c r="K44"/>
     </row>
     <row r="45" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="J45" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="K45" s="12" t="s">
-        <v>12</v>
-      </c>
+      <c r="K45"/>
       <c r="L45" s="12">
         <v>2</v>
       </c>
@@ -34937,9 +34946,7 @@
       <c r="J46" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="K46" s="12" t="s">
-        <v>12</v>
-      </c>
+      <c r="K46"/>
       <c r="L46" s="12">
         <v>2</v>
       </c>
@@ -34958,9 +34965,7 @@
       <c r="J47" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="K47" s="12" t="s">
-        <v>12</v>
-      </c>
+      <c r="K47"/>
       <c r="L47" s="12">
         <v>2</v>
       </c>
@@ -34979,9 +34984,7 @@
       <c r="J48" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="K48" s="12" t="s">
-        <v>12</v>
-      </c>
+      <c r="K48"/>
       <c r="L48" s="12">
         <v>2</v>
       </c>
@@ -35000,9 +35003,7 @@
       <c r="J49" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="K49" s="12" t="s">
-        <v>12</v>
-      </c>
+      <c r="K49"/>
       <c r="L49" s="12">
         <v>2</v>
       </c>
@@ -35021,9 +35022,7 @@
       <c r="J50" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="K50" s="12" t="s">
-        <v>12</v>
-      </c>
+      <c r="K50"/>
       <c r="L50" s="12">
         <v>2</v>
       </c>
@@ -35042,9 +35041,7 @@
       <c r="J51" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="K51" s="12" t="s">
-        <v>12</v>
-      </c>
+      <c r="K51"/>
       <c r="L51" s="12">
         <v>2</v>
       </c>
@@ -35065,9 +35062,7 @@
       <c r="J52" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="K52" s="12" t="s">
-        <v>12</v>
-      </c>
+      <c r="K52"/>
       <c r="L52" s="12">
         <v>2</v>
       </c>
@@ -35088,9 +35083,7 @@
       <c r="J53" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="K53" s="12" t="s">
-        <v>12</v>
-      </c>
+      <c r="K53"/>
       <c r="L53" s="12">
         <v>2</v>
       </c>
@@ -35111,9 +35104,7 @@
       <c r="J54" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="K54" s="12" t="s">
-        <v>12</v>
-      </c>
+      <c r="K54"/>
       <c r="L54" s="12">
         <v>2</v>
       </c>
@@ -35140,6 +35131,7 @@
       <c r="G55" s="14"/>
       <c r="H55"/>
       <c r="I55"/>
+      <c r="K55"/>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56" s="12" t="s">
@@ -35167,6 +35159,7 @@
         <v>49</v>
       </c>
       <c r="I56"/>
+      <c r="K56"/>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" s="12" t="s">
@@ -35194,6 +35187,7 @@
         <v>1.8369999999999999E-6</v>
       </c>
       <c r="I57"/>
+      <c r="K57"/>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58" s="12" t="s">
@@ -35221,6 +35215,7 @@
         <v>50</v>
       </c>
       <c r="I58"/>
+      <c r="K58"/>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59" s="12" t="s">
@@ -35248,6 +35243,7 @@
         <v>7.3000000000000001E-3</v>
       </c>
       <c r="I59"/>
+      <c r="K59"/>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60" s="12" t="s">
@@ -35275,6 +35271,7 @@
         <v>43</v>
       </c>
       <c r="I60"/>
+      <c r="K60"/>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A61" s="12" t="s">
@@ -35302,6 +35299,7 @@
         <v>8.9599999999999999E-2</v>
       </c>
       <c r="I61"/>
+      <c r="K61"/>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A62" s="12" t="s">
@@ -35331,6 +35329,7 @@
       <c r="I62" s="12" t="s">
         <v>33</v>
       </c>
+      <c r="K62"/>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A63" s="12" t="s">
@@ -35360,6 +35359,7 @@
       <c r="I63" s="12" t="s">
         <v>33</v>
       </c>
+      <c r="K63"/>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A64" s="12" t="s">
@@ -35389,6 +35389,7 @@
       <c r="I64" s="12" t="s">
         <v>33</v>
       </c>
+      <c r="K64"/>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" s="12" t="s">
@@ -35418,6 +35419,7 @@
       <c r="I65" s="12" t="s">
         <v>33</v>
       </c>
+      <c r="K65"/>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66"/>
@@ -35429,14 +35431,13 @@
       <c r="G66" s="14"/>
       <c r="H66"/>
       <c r="I66"/>
+      <c r="K66"/>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J67" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="K67" s="12" t="s">
-        <v>12</v>
-      </c>
+      <c r="K67"/>
       <c r="L67" s="12">
         <v>2</v>
       </c>
@@ -35454,9 +35455,7 @@
       <c r="J68" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="K68" s="12" t="s">
-        <v>12</v>
-      </c>
+      <c r="K68"/>
       <c r="L68" s="12">
         <v>2</v>
       </c>
@@ -35474,9 +35473,7 @@
       <c r="J69" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="K69" s="12" t="s">
-        <v>12</v>
-      </c>
+      <c r="K69"/>
       <c r="L69" s="12">
         <v>2</v>
       </c>
@@ -35494,9 +35491,7 @@
       <c r="J70" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="K70" s="12" t="s">
-        <v>12</v>
-      </c>
+      <c r="K70"/>
       <c r="L70" s="12">
         <v>2</v>
       </c>
@@ -35514,9 +35509,7 @@
       <c r="J71" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="K71" s="12" t="s">
-        <v>12</v>
-      </c>
+      <c r="K71"/>
       <c r="L71" s="12">
         <v>2</v>
       </c>
@@ -35534,9 +35527,7 @@
       <c r="J72" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="K72" s="12" t="s">
-        <v>12</v>
-      </c>
+      <c r="K72"/>
       <c r="L72" s="12">
         <v>2</v>
       </c>
@@ -35554,9 +35545,7 @@
       <c r="J73" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="K73" s="12" t="s">
-        <v>12</v>
-      </c>
+      <c r="K73"/>
       <c r="L73" s="12">
         <v>2</v>
       </c>
@@ -35574,9 +35563,7 @@
       <c r="J74" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="K74" s="12" t="s">
-        <v>12</v>
-      </c>
+      <c r="K74"/>
       <c r="L74" s="12">
         <v>2</v>
       </c>
@@ -35594,9 +35581,7 @@
       <c r="J75" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="K75" s="12" t="s">
-        <v>12</v>
-      </c>
+      <c r="K75"/>
       <c r="L75" s="12">
         <v>2</v>
       </c>
@@ -35614,9 +35599,7 @@
       <c r="J76" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="K76" s="12" t="s">
-        <v>12</v>
-      </c>
+      <c r="K76"/>
       <c r="L76" s="12">
         <v>2</v>
       </c>
@@ -35634,9 +35617,7 @@
       <c r="J77" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="K77" s="12" t="s">
-        <v>12</v>
-      </c>
+      <c r="K77"/>
       <c r="L77" s="12">
         <v>2</v>
       </c>
@@ -35654,9 +35635,7 @@
       <c r="J78" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="K78" s="12" t="s">
-        <v>12</v>
-      </c>
+      <c r="K78"/>
       <c r="L78" s="12">
         <v>2</v>
       </c>
@@ -35674,9 +35653,7 @@
       <c r="J79" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="K79" s="12" t="s">
-        <v>12</v>
-      </c>
+      <c r="K79"/>
       <c r="L79" s="12">
         <v>2</v>
       </c>
@@ -35694,9 +35671,7 @@
       <c r="J80" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="K80" s="12" t="s">
-        <v>12</v>
-      </c>
+      <c r="K80"/>
       <c r="L80" s="12">
         <v>2</v>
       </c>
@@ -35714,9 +35689,7 @@
       <c r="J81" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="K81" s="12" t="s">
-        <v>12</v>
-      </c>
+      <c r="K81"/>
       <c r="L81" s="12">
         <v>2</v>
       </c>
@@ -35734,9 +35707,7 @@
       <c r="J82" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="K82" s="12" t="s">
-        <v>12</v>
-      </c>
+      <c r="K82"/>
       <c r="L82" s="12">
         <v>2</v>
       </c>
@@ -35754,9 +35725,7 @@
       <c r="J83" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="K83" s="12" t="s">
-        <v>12</v>
-      </c>
+      <c r="K83"/>
       <c r="L83" s="12">
         <v>2</v>
       </c>
@@ -35774,9 +35743,7 @@
       <c r="J84" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="K84" s="12" t="s">
-        <v>12</v>
-      </c>
+      <c r="K84"/>
       <c r="L84" s="12">
         <v>2</v>
       </c>
@@ -35794,9 +35761,7 @@
       <c r="J85" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="K85" s="12" t="s">
-        <v>12</v>
-      </c>
+      <c r="K85"/>
       <c r="L85" s="12">
         <v>2</v>
       </c>
@@ -35814,9 +35779,7 @@
       <c r="J86" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="K86" s="12" t="s">
-        <v>12</v>
-      </c>
+      <c r="K86"/>
       <c r="L86" s="12">
         <v>2</v>
       </c>
@@ -35834,9 +35797,7 @@
       <c r="J87" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="K87" s="12" t="s">
-        <v>12</v>
-      </c>
+      <c r="K87"/>
       <c r="L87" s="12">
         <v>2</v>
       </c>
@@ -35854,9 +35815,7 @@
       <c r="J88" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="K88" s="12" t="s">
-        <v>12</v>
-      </c>
+      <c r="K88"/>
       <c r="L88" s="12">
         <v>2</v>
       </c>
@@ -35874,9 +35833,7 @@
       <c r="J89" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="K89" s="12" t="s">
-        <v>12</v>
-      </c>
+      <c r="K89"/>
       <c r="L89" s="12">
         <v>2</v>
       </c>
@@ -35894,9 +35851,7 @@
       <c r="J90" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="K90" s="12" t="s">
-        <v>12</v>
-      </c>
+      <c r="K90"/>
       <c r="L90" s="12">
         <v>2</v>
       </c>
@@ -35920,6 +35875,7 @@
       <c r="G91" s="14"/>
       <c r="H91"/>
       <c r="I91"/>
+      <c r="K91"/>
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A92" s="12" t="s">
@@ -35947,6 +35903,7 @@
         <v>44.658383333333298</v>
       </c>
       <c r="I92"/>
+      <c r="K92"/>
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A93" s="12" t="s">
@@ -35974,6 +35931,7 @@
         <v>-124.095583333333</v>
       </c>
       <c r="I93"/>
+      <c r="K93"/>
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A94" s="12" t="s">
@@ -36002,6 +35960,7 @@
       </c>
       <c r="I94"/>
       <c r="J94"/>
+      <c r="K94"/>
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A95" s="12" t="s">
@@ -36030,6 +35989,7 @@
       </c>
       <c r="I95"/>
       <c r="J95"/>
+      <c r="K95"/>
     </row>
     <row r="96" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A96" s="12" t="s">
@@ -36057,8 +36017,9 @@
         <v>-1.164927E-6</v>
       </c>
       <c r="I96"/>
+      <c r="K96"/>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="12" t="s">
         <v>73</v>
       </c>
@@ -36084,8 +36045,9 @@
         <v>1.828527E-7</v>
       </c>
       <c r="I97"/>
+      <c r="K97"/>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="12" t="s">
         <v>73</v>
       </c>
@@ -36111,8 +36073,9 @@
         <v>-60.958993499999998</v>
       </c>
       <c r="I98"/>
+      <c r="K98"/>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="12" t="s">
         <v>73</v>
       </c>
@@ -36138,8 +36101,9 @@
         <v>54.631500299999999</v>
       </c>
       <c r="I99"/>
+      <c r="K99"/>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="12" t="s">
         <v>73</v>
       </c>
@@ -36165,8 +36129,9 @@
         <v>-0.80724953099999996</v>
       </c>
       <c r="I100"/>
+      <c r="K100"/>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="12" t="s">
         <v>73</v>
       </c>
@@ -36192,8 +36157,9 @@
         <v>524737.08900000004</v>
       </c>
       <c r="I101"/>
+      <c r="K101"/>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="12" t="s">
         <v>73</v>
       </c>
@@ -36219,8 +36185,9 @@
         <v>17.629218300000002</v>
       </c>
       <c r="I102"/>
+      <c r="K102"/>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="12" t="s">
         <v>73</v>
       </c>
@@ -36246,8 +36213,9 @@
         <v>-0.43791688400000001</v>
       </c>
       <c r="I103"/>
+      <c r="K103"/>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="12" t="s">
         <v>73</v>
       </c>
@@ -36273,8 +36241,9 @@
         <v>25.067125000000001</v>
       </c>
       <c r="I104"/>
+      <c r="K104"/>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="12" t="s">
         <v>73</v>
       </c>
@@ -36300,8 +36269,9 @@
         <v>2.5000000000000001E-5</v>
       </c>
       <c r="I105"/>
+      <c r="K105"/>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="12" t="s">
         <v>73</v>
       </c>
@@ -36327,8 +36297,9 @@
         <v>0</v>
       </c>
       <c r="I106"/>
+      <c r="K106"/>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="12" t="s">
         <v>73</v>
       </c>
@@ -36354,8 +36325,9 @@
         <v>8.5999905299999999E-2</v>
       </c>
       <c r="I107"/>
+      <c r="K107"/>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="12" t="s">
         <v>73</v>
       </c>
@@ -36381,8 +36353,9 @@
         <v>4.8842670400000004E-4</v>
       </c>
       <c r="I108"/>
+      <c r="K108"/>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="12" t="s">
         <v>73</v>
       </c>
@@ -36408,8 +36381,9 @@
         <v>-6.8426125900000003E-12</v>
       </c>
       <c r="I109"/>
+      <c r="K109"/>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="12" t="s">
         <v>73</v>
       </c>
@@ -36435,8 +36409,9 @@
         <v>-0.99330379999999996</v>
       </c>
       <c r="I110"/>
+      <c r="K110"/>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="12" t="s">
         <v>73</v>
       </c>
@@ -36462,8 +36437,9 @@
         <v>0.13849600000000001</v>
       </c>
       <c r="I111"/>
+      <c r="K111"/>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="12" t="s">
         <v>73</v>
       </c>
@@ -36489,8 +36465,9 @@
         <v>-2.270537E-4</v>
       </c>
       <c r="I112"/>
+      <c r="K112"/>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="12" t="s">
         <v>73</v>
       </c>
@@ -36516,8 +36493,9 @@
         <v>3.540078E-5</v>
       </c>
       <c r="I113"/>
+      <c r="K113"/>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="12" t="s">
         <v>73</v>
       </c>
@@ -36543,8 +36521,9 @@
         <v>-9.5700000000000003E-8</v>
       </c>
       <c r="I114"/>
+      <c r="K114"/>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="12" t="s">
         <v>73</v>
       </c>
@@ -36570,8 +36549,9 @@
         <v>3.2499999999999998E-6</v>
       </c>
       <c r="I115"/>
+      <c r="K115"/>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116"/>
       <c r="B116"/>
       <c r="C116"/>
@@ -36581,8 +36561,9 @@
       <c r="G116" s="14"/>
       <c r="H116"/>
       <c r="I116"/>
+      <c r="K116"/>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="12" t="s">
         <v>96</v>
       </c>
@@ -36608,8 +36589,9 @@
         <v>44.658383333333298</v>
       </c>
       <c r="I117"/>
+      <c r="K117"/>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="12" t="s">
         <v>96</v>
       </c>
@@ -36635,8 +36617,9 @@
         <v>-124.095583333333</v>
       </c>
       <c r="I118"/>
+      <c r="K118"/>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="12" t="s">
         <v>96</v>
       </c>
@@ -36662,8 +36645,9 @@
         <v>1.2589159999999999E-3</v>
       </c>
       <c r="I119"/>
+      <c r="K119"/>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="12" t="s">
         <v>96</v>
       </c>
@@ -36689,8 +36673,9 @@
         <v>2.7384590000000003E-4</v>
       </c>
       <c r="I120"/>
+      <c r="K120"/>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="12" t="s">
         <v>96</v>
       </c>
@@ -36716,8 +36701,9 @@
         <v>-1.1230929999999999E-6</v>
       </c>
       <c r="I121"/>
+      <c r="K121"/>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="12" t="s">
         <v>96</v>
       </c>
@@ -36743,8 +36729,9 @@
         <v>1.8295270000000001E-7</v>
       </c>
       <c r="I122"/>
+      <c r="K122"/>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="12" t="s">
         <v>96</v>
       </c>
@@ -36770,8 +36757,9 @@
         <v>-58.694972800000002</v>
       </c>
       <c r="I123"/>
+      <c r="K123"/>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="12" t="s">
         <v>96</v>
       </c>
@@ -36797,8 +36785,9 @@
         <v>54.6728393</v>
       </c>
       <c r="I124"/>
+      <c r="K124"/>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="12" t="s">
         <v>96</v>
       </c>
@@ -36824,8 +36813,9 @@
         <v>-0.63763615600000001</v>
       </c>
       <c r="I125"/>
+      <c r="K125"/>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="12" t="s">
         <v>96</v>
       </c>
@@ -36851,8 +36841,9 @@
         <v>524643.36600000004</v>
       </c>
       <c r="I126"/>
+      <c r="K126"/>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="12" t="s">
         <v>96</v>
       </c>
@@ -36878,8 +36869,9 @@
         <v>24.075237300000001</v>
       </c>
       <c r="I127"/>
+      <c r="K127"/>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="12" t="s">
         <v>96</v>
       </c>
@@ -36906,8 +36898,9 @@
       </c>
       <c r="I128"/>
       <c r="J128"/>
+      <c r="K128"/>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="12" t="s">
         <v>96</v>
       </c>
@@ -36933,8 +36926,9 @@
         <v>25.027625</v>
       </c>
       <c r="I129"/>
+      <c r="K129"/>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="12" t="s">
         <v>96</v>
       </c>
@@ -36961,8 +36955,9 @@
       </c>
       <c r="I130"/>
       <c r="J130"/>
+      <c r="K130"/>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="12" t="s">
         <v>96</v>
       </c>
@@ -36988,8 +36983,9 @@
         <v>0</v>
       </c>
       <c r="I131"/>
+      <c r="K131"/>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="12" t="s">
         <v>96</v>
       </c>
@@ -37015,8 +37011,9 @@
         <v>0.120444996</v>
       </c>
       <c r="I132"/>
+      <c r="K132"/>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="12" t="s">
         <v>96</v>
       </c>
@@ -37042,8 +37039,9 @@
         <v>4.8852986300000005E-4</v>
       </c>
       <c r="I133"/>
+      <c r="K133"/>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="12" t="s">
         <v>96</v>
       </c>
@@ -37069,8 +37067,9 @@
         <v>-6.5795214600000003E-12</v>
       </c>
       <c r="I134"/>
+      <c r="K134"/>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="12" t="s">
         <v>96</v>
       </c>
@@ -37096,8 +37095,9 @@
         <v>-0.98972729999999998</v>
       </c>
       <c r="I135"/>
+      <c r="K135"/>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="12" t="s">
         <v>96</v>
       </c>
@@ -37123,8 +37123,9 @@
         <v>0.13866529999999999</v>
       </c>
       <c r="I136"/>
+      <c r="K136"/>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="12" t="s">
         <v>96</v>
       </c>
@@ -37150,8 +37151,9 @@
         <v>-2.0333689999999999E-4</v>
       </c>
       <c r="I137"/>
+      <c r="K137"/>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="12" t="s">
         <v>96</v>
       </c>
@@ -37177,8 +37179,9 @@
         <v>3.3990309999999999E-5</v>
       </c>
       <c r="I138"/>
+      <c r="K138"/>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="12" t="s">
         <v>96</v>
       </c>
@@ -37204,8 +37207,9 @@
         <v>-9.5700000000000003E-8</v>
       </c>
       <c r="I139"/>
+      <c r="K139"/>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="12" t="s">
         <v>96</v>
       </c>
@@ -37231,8 +37235,9 @@
         <v>3.2499999999999998E-6</v>
       </c>
       <c r="I140"/>
+      <c r="K140"/>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141"/>
       <c r="B141"/>
       <c r="C141"/>
@@ -37242,8 +37247,9 @@
       <c r="G141" s="14"/>
       <c r="H141"/>
       <c r="I141"/>
+      <c r="K141"/>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="12" t="s">
         <v>97</v>
       </c>
@@ -37269,8 +37275,9 @@
         <v>44.658383333333298</v>
       </c>
       <c r="I142"/>
+      <c r="K142"/>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="12" t="s">
         <v>97</v>
       </c>
@@ -37296,8 +37303,9 @@
         <v>-124.095583333333</v>
       </c>
       <c r="I143"/>
+      <c r="K143"/>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="12" t="s">
         <v>97</v>
       </c>
@@ -37323,8 +37331,9 @@
         <v>99</v>
       </c>
       <c r="I144"/>
+      <c r="K144"/>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145"/>
       <c r="B145"/>
       <c r="C145"/>
@@ -37334,8 +37343,9 @@
       <c r="G145" s="14"/>
       <c r="H145"/>
       <c r="I145"/>
+      <c r="K145"/>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="12" t="s">
         <v>100</v>
       </c>
@@ -37361,8 +37371,9 @@
         <v>44.658383333333298</v>
       </c>
       <c r="I146"/>
+      <c r="K146"/>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="12" t="s">
         <v>100</v>
       </c>
@@ -37388,8 +37399,9 @@
         <v>-124.095583333333</v>
       </c>
       <c r="I147"/>
+      <c r="K147"/>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="12" t="s">
         <v>100</v>
       </c>
@@ -37415,8 +37427,9 @@
         <v>101</v>
       </c>
       <c r="I148"/>
+      <c r="K148"/>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149"/>
       <c r="B149"/>
       <c r="C149"/>
@@ -37426,8 +37439,9 @@
       <c r="G149" s="14"/>
       <c r="H149"/>
       <c r="I149"/>
+      <c r="K149"/>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="12" t="s">
         <v>102</v>
       </c>
@@ -37455,8 +37469,9 @@
       <c r="I150" s="12" t="s">
         <v>33</v>
       </c>
+      <c r="K150"/>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="12" t="s">
         <v>102</v>
       </c>
@@ -37484,8 +37499,9 @@
       <c r="I151" s="12" t="s">
         <v>33</v>
       </c>
+      <c r="K151"/>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="12" t="s">
         <v>102</v>
       </c>
@@ -37511,8 +37527,9 @@
         <v>19.987358835277099</v>
       </c>
       <c r="I152"/>
+      <c r="K152"/>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="12" t="s">
         <v>102</v>
       </c>
@@ -37538,8 +37555,9 @@
         <v>107</v>
       </c>
       <c r="I153"/>
+      <c r="K153"/>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="12" t="s">
         <v>102</v>
       </c>
@@ -37565,8 +37583,9 @@
         <v>109</v>
       </c>
       <c r="I154"/>
+      <c r="K154"/>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="12" t="s">
         <v>102</v>
       </c>
@@ -37592,8 +37611,9 @@
         <v>111</v>
       </c>
       <c r="I155"/>
+      <c r="K155"/>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="12" t="s">
         <v>102</v>
       </c>
@@ -37619,8 +37639,9 @@
         <v>113</v>
       </c>
       <c r="I156"/>
+      <c r="K156"/>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157"/>
       <c r="B157"/>
       <c r="C157"/>
@@ -37630,8 +37651,9 @@
       <c r="G157" s="14"/>
       <c r="H157"/>
       <c r="I157"/>
+      <c r="K157"/>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="12" t="s">
         <v>114</v>
       </c>
@@ -37657,8 +37679,9 @@
         <v>117</v>
       </c>
       <c r="I158"/>
+      <c r="K158"/>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="12" t="s">
         <v>114</v>
       </c>
@@ -37684,8 +37707,9 @@
         <v>119</v>
       </c>
       <c r="I159"/>
+      <c r="K159"/>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="12" t="s">
         <v>114</v>
       </c>
@@ -37711,8 +37735,9 @@
         <v>121</v>
       </c>
       <c r="I160"/>
+      <c r="K160"/>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161"/>
       <c r="B161"/>
       <c r="C161"/>
@@ -37722,8 +37747,9 @@
       <c r="G161" s="14"/>
       <c r="H161"/>
       <c r="I161"/>
+      <c r="K161"/>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="12" t="s">
         <v>122</v>
       </c>
@@ -37749,8 +37775,9 @@
         <v>25000</v>
       </c>
       <c r="I162"/>
+      <c r="K162"/>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="12" t="s">
         <v>122</v>
       </c>
@@ -37776,8 +37803,9 @@
         <v>44.658383333333298</v>
       </c>
       <c r="I163"/>
+      <c r="K163"/>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="12" t="s">
         <v>122</v>
       </c>
@@ -37803,8 +37831,9 @@
         <v>-124.095583333333</v>
       </c>
       <c r="I164"/>
+      <c r="K164"/>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="12" t="s">
         <v>122</v>
       </c>
@@ -37830,8 +37859,9 @@
         <v>0.45</v>
       </c>
       <c r="I165"/>
+      <c r="K165"/>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="12" t="s">
         <v>122</v>
       </c>
@@ -37857,8 +37887,9 @@
         <v>0.45</v>
       </c>
       <c r="I166"/>
+      <c r="K166"/>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="12" t="s">
         <v>122</v>
       </c>
@@ -37884,8 +37915,9 @@
         <v>0.45</v>
       </c>
       <c r="I167"/>
+      <c r="K167"/>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="12" t="s">
         <v>122</v>
       </c>
@@ -37911,8 +37943,9 @@
         <v>0.45</v>
       </c>
       <c r="I168"/>
+      <c r="K168"/>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169"/>
       <c r="B169"/>
       <c r="C169"/>
@@ -37922,8 +37955,9 @@
       <c r="G169" s="14"/>
       <c r="H169"/>
       <c r="I169"/>
+      <c r="K169"/>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="12" t="s">
         <v>128</v>
       </c>
@@ -37949,8 +37983,9 @@
         <v>44.658383333333298</v>
       </c>
       <c r="I170"/>
+      <c r="K170"/>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="12" t="s">
         <v>128</v>
       </c>
@@ -37976,8 +38011,9 @@
         <v>-124.095583333333</v>
       </c>
       <c r="I171"/>
+      <c r="K171"/>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172"/>
       <c r="B172"/>
       <c r="C172"/>
@@ -37987,8 +38023,9 @@
       <c r="G172" s="14"/>
       <c r="H172"/>
       <c r="I172"/>
+      <c r="K172"/>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="12" t="s">
         <v>129</v>
       </c>
@@ -38014,8 +38051,9 @@
         <v>601.76969999999994</v>
       </c>
       <c r="I173"/>
+      <c r="K173"/>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="12" t="s">
         <v>129</v>
       </c>
@@ -38041,8 +38079,9 @@
         <v>4.9606469999999998</v>
       </c>
       <c r="I174"/>
+      <c r="K174"/>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="12" t="s">
         <v>129</v>
       </c>
@@ -38068,8 +38107,9 @@
         <v>-1135.396</v>
       </c>
       <c r="I175"/>
+      <c r="K175"/>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="12" t="s">
         <v>129</v>
       </c>
@@ -38095,8 +38135,9 @@
         <v>2.6914E-2</v>
       </c>
       <c r="I176"/>
+      <c r="K176"/>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="12" t="s">
         <v>129</v>
       </c>
@@ -38122,8 +38163,9 @@
         <v>0</v>
       </c>
       <c r="I177"/>
+      <c r="K177"/>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="12" t="s">
         <v>129</v>
       </c>
@@ -38151,8 +38193,9 @@
       <c r="I178" s="12" t="s">
         <v>33</v>
       </c>
+      <c r="K178"/>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="12" t="s">
         <v>129</v>
       </c>
@@ -38178,8 +38221,9 @@
         <v>0</v>
       </c>
       <c r="I179"/>
+      <c r="K179"/>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="12" t="s">
         <v>129</v>
       </c>
@@ -38207,8 +38251,9 @@
       <c r="I180" s="12" t="s">
         <v>33</v>
       </c>
+      <c r="K180"/>
     </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="12" t="s">
         <v>129</v>
       </c>
@@ -38234,8 +38279,9 @@
         <v>27.81081</v>
       </c>
       <c r="I181"/>
+      <c r="K181"/>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="12" t="s">
         <v>129</v>
       </c>
@@ -38261,8 +38307,9 @@
         <v>0.55913900000000005</v>
       </c>
       <c r="I182"/>
+      <c r="K182"/>
     </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="12" t="s">
         <v>129</v>
       </c>
@@ -38288,8 +38335,9 @@
         <v>19.907679999999999</v>
       </c>
       <c r="I183"/>
+      <c r="K183"/>
     </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="12" t="s">
         <v>129</v>
       </c>
@@ -38316,8 +38364,9 @@
       </c>
       <c r="I184"/>
       <c r="J184"/>
+      <c r="K184"/>
     </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="12" t="s">
         <v>129</v>
       </c>
@@ -38344,8 +38393,9 @@
       </c>
       <c r="I185"/>
       <c r="J185"/>
+      <c r="K185"/>
     </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="12" t="s">
         <v>129</v>
       </c>
@@ -38372,8 +38422,9 @@
       </c>
       <c r="I186"/>
       <c r="J186"/>
+      <c r="K186"/>
     </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="12" t="s">
         <v>129</v>
       </c>
@@ -38400,8 +38451,9 @@
       </c>
       <c r="I187"/>
       <c r="J187"/>
+      <c r="K187"/>
     </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="12" t="s">
         <v>129</v>
       </c>
@@ -38427,8 +38479,9 @@
         <v>0</v>
       </c>
       <c r="I188"/>
+      <c r="K188"/>
     </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="12" t="s">
         <v>129</v>
       </c>
@@ -38454,8 +38507,9 @@
         <v>8388.6</v>
       </c>
       <c r="I189"/>
+      <c r="K189"/>
     </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="12" t="s">
         <v>129</v>
       </c>
@@ -38481,8 +38535,9 @@
         <v>125829.1</v>
       </c>
       <c r="I190"/>
+      <c r="K190"/>
     </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191"/>
       <c r="B191"/>
       <c r="C191"/>
@@ -38492,8 +38547,9 @@
       <c r="G191" s="14"/>
       <c r="H191"/>
       <c r="I191"/>
+      <c r="K191"/>
     </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="12" t="s">
         <v>148</v>
       </c>
@@ -38519,8 +38575,9 @@
         <v>5.8999999999999999E-3</v>
       </c>
       <c r="I192"/>
+      <c r="K192"/>
     </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="12" t="s">
         <v>148</v>
       </c>
@@ -38546,8 +38603,9 @@
         <v>0.76880000000000004</v>
       </c>
       <c r="I193"/>
+      <c r="K193"/>
     </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="12" t="s">
         <v>148</v>
       </c>
@@ -38573,8 +38631,9 @@
         <v>-1.6688000000000001</v>
       </c>
       <c r="I194"/>
+      <c r="K194"/>
     </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="12" t="s">
         <v>148</v>
       </c>
@@ -38600,8 +38659,9 @@
         <v>15.7</v>
       </c>
       <c r="I195"/>
+      <c r="K195"/>
     </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="12" t="s">
         <v>148</v>
       </c>
@@ -38627,8 +38687,9 @@
         <v>19706</v>
       </c>
       <c r="I196"/>
+      <c r="K196"/>
     </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="12" t="s">
         <v>148</v>
       </c>
@@ -38654,8 +38715,9 @@
         <v>34</v>
       </c>
       <c r="I197"/>
+      <c r="K197"/>
     </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="12" t="s">
         <v>148</v>
       </c>
@@ -38681,8 +38743,9 @@
         <v>3073</v>
       </c>
       <c r="I198"/>
+      <c r="K198"/>
     </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="12" t="s">
         <v>148</v>
       </c>
@@ -38708,8 +38771,9 @@
         <v>44327</v>
       </c>
       <c r="I199"/>
+      <c r="K199"/>
     </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200"/>
       <c r="B200"/>
       <c r="C200"/>
@@ -38719,8 +38783,9 @@
       <c r="G200" s="14"/>
       <c r="H200"/>
       <c r="I200"/>
+      <c r="K200"/>
     </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="12" t="s">
         <v>156</v>
       </c>
@@ -38746,8 +38811,9 @@
         <v>7.1999999999999998E-3</v>
       </c>
       <c r="I201"/>
+      <c r="K201"/>
     </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="12" t="s">
         <v>156</v>
       </c>
@@ -38773,8 +38839,9 @@
         <v>0.73519999999999996</v>
       </c>
       <c r="I202"/>
+      <c r="K202"/>
     </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="12" t="s">
         <v>156</v>
       </c>
@@ -38801,8 +38868,9 @@
       </c>
       <c r="I203"/>
       <c r="J203"/>
+      <c r="K203"/>
     </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="12" t="s">
         <v>156</v>
       </c>
@@ -38829,8 +38897,9 @@
       </c>
       <c r="I204"/>
       <c r="J204"/>
+      <c r="K204"/>
     </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="12" t="s">
         <v>156</v>
       </c>
@@ -38857,8 +38926,9 @@
       </c>
       <c r="I205"/>
       <c r="J205"/>
+      <c r="K205"/>
     </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="12" t="s">
         <v>156</v>
       </c>
@@ -38885,8 +38955,9 @@
       </c>
       <c r="I206"/>
       <c r="J206"/>
+      <c r="K206"/>
     </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="12" t="s">
         <v>156</v>
       </c>
@@ -38913,8 +38984,9 @@
       </c>
       <c r="I207"/>
       <c r="J207"/>
+      <c r="K207"/>
     </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="12" t="s">
         <v>156</v>
       </c>
@@ -38940,8 +39012,9 @@
         <v>44327</v>
       </c>
       <c r="I208"/>
+      <c r="K208"/>
     </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209"/>
       <c r="B209"/>
       <c r="C209"/>
@@ -38950,8 +39023,9 @@
       <c r="F209"/>
       <c r="G209" s="14"/>
       <c r="I209"/>
+      <c r="K209"/>
     </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210"/>
       <c r="B210"/>
       <c r="C210"/>
@@ -38962,8 +39036,9 @@
       <c r="J210" s="12" t="s">
         <v>158</v>
       </c>
+      <c r="K210"/>
     </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211"/>
       <c r="B211"/>
       <c r="C211"/>
@@ -38972,8 +39047,9 @@
       <c r="F211"/>
       <c r="G211" s="14"/>
       <c r="J211"/>
+      <c r="K211"/>
     </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212"/>
       <c r="B212"/>
       <c r="C212"/>
@@ -38984,8 +39060,9 @@
       <c r="J212" s="12" t="s">
         <v>159</v>
       </c>
+      <c r="K212"/>
     </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213"/>
       <c r="B213"/>
       <c r="C213"/>
@@ -38994,8 +39071,9 @@
       <c r="F213"/>
       <c r="G213" s="14"/>
       <c r="I213"/>
+      <c r="K213"/>
     </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="12" t="s">
         <v>160</v>
       </c>
@@ -39018,8 +39096,9 @@
       <c r="I214" s="12" t="s">
         <v>19</v>
       </c>
+      <c r="K214"/>
     </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="12" t="s">
         <v>162</v>
       </c>
@@ -39042,8 +39121,9 @@
       <c r="I215" s="12" t="s">
         <v>19</v>
       </c>
+      <c r="K215"/>
     </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216"/>
       <c r="B216"/>
       <c r="C216"/>
@@ -39052,8 +39132,9 @@
       <c r="F216" s="18"/>
       <c r="G216" s="14"/>
       <c r="I216"/>
+      <c r="K216"/>
     </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="12" t="s">
         <v>164</v>
       </c>
@@ -39076,8 +39157,9 @@
       <c r="I217" s="12" t="s">
         <v>19</v>
       </c>
+      <c r="K217"/>
     </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="12" t="s">
         <v>166</v>
       </c>
@@ -39100,8 +39182,9 @@
       <c r="I218" s="12" t="s">
         <v>19</v>
       </c>
+      <c r="K218"/>
     </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="12" t="s">
         <v>168</v>
       </c>
@@ -39123,8 +39206,9 @@
       <c r="I219" s="12" t="s">
         <v>19</v>
       </c>
+      <c r="K219"/>
     </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="12" t="s">
         <v>170</v>
       </c>
@@ -39146,6 +39230,7 @@
       <c r="I220" s="12" t="s">
         <v>19</v>
       </c>
+      <c r="K220"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/deployment/Omaha_Cal_Info_CE01ISSM_00002.xlsx
+++ b/deployment/Omaha_Cal_Info_CE01ISSM_00002.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1010" uniqueCount="209">
   <si>
     <t>Ref Des</t>
   </si>
@@ -243,9 +243,6 @@
     <t>CE01ISSM-RID16-02-FLORTD000</t>
   </si>
   <si>
-    <t>50011</t>
-  </si>
-  <si>
     <t>CE01ISSM-RID16-03-CTDBPC000</t>
   </si>
   <si>
@@ -325,9 +322,6 @@
   </si>
   <si>
     <t>[3.151368E-03,1.331199E-04,2.608421E-06,2.324704E+02,-3.129184E-01,-5.733898E+01,4.543627E+00]</t>
-  </si>
-  <si>
-    <t>CE01ISSM-MFD37-04-DOSTAD000</t>
   </si>
   <si>
     <t>[2.853459E-03,1.204889E-04,2.388215E-06,2.308258E+02,-3.418438E-01,-5.570005E+01,4.565417E+00]</t>
@@ -655,6 +649,9 @@
   </si>
   <si>
     <t>OL000199</t>
+  </si>
+  <si>
+    <t>CE01ISSM-MFD37-03-DOSTAD000</t>
   </si>
 </sst>
 </file>
@@ -1233,7 +1230,7 @@
   <sheetData>
     <row r="1" spans="1:14" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B1" s="22" t="s">
         <v>0</v>
@@ -1271,7 +1268,7 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>11</v>
@@ -1292,10 +1289,10 @@
         <v>42157</v>
       </c>
       <c r="H2" s="21" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="J2" s="6">
         <v>25</v>
@@ -1315,10 +1312,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMM220"/>
+  <dimension ref="A1:AMM222"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1340,7 +1337,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C1" s="23" t="s">
         <v>14</v>
@@ -1349,7 +1346,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="23" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F1" s="23" t="s">
         <v>15</v>
@@ -2397,7 +2394,7 @@
         <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C3" s="12" t="s">
         <v>12</v>
@@ -2406,10 +2403,10 @@
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G3" s="14"/>
       <c r="H3"/>
@@ -4467,7 +4464,7 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C5" s="12" t="s">
         <v>12</v>
@@ -4476,10 +4473,10 @@
         <v>2</v>
       </c>
       <c r="E5" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G5" s="14" t="s">
         <v>21</v>
@@ -5511,7 +5508,7 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>12</v>
@@ -5520,10 +5517,10 @@
         <v>2</v>
       </c>
       <c r="E6" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F6" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G6" s="14" t="s">
         <v>22</v>
@@ -7583,7 +7580,7 @@
         <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C8" s="12" t="s">
         <v>12</v>
@@ -7592,10 +7589,10 @@
         <v>2</v>
       </c>
       <c r="E8" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F8" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G8" s="14" t="s">
         <v>21</v>
@@ -8627,7 +8624,7 @@
         <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C9" s="12" t="s">
         <v>12</v>
@@ -8636,10 +8633,10 @@
         <v>2</v>
       </c>
       <c r="E9" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F9" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G9" s="14" t="s">
         <v>22</v>
@@ -10697,7 +10694,7 @@
         <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C11" s="12" t="s">
         <v>12</v>
@@ -10706,7 +10703,7 @@
         <v>2</v>
       </c>
       <c r="E11" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F11" s="12" t="s">
         <v>25</v>
@@ -11740,7 +11737,7 @@
         <v>24</v>
       </c>
       <c r="B12" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C12" s="12" t="s">
         <v>12</v>
@@ -11749,7 +11746,7 @@
         <v>2</v>
       </c>
       <c r="E12" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F12" s="12" t="s">
         <v>25</v>
@@ -12783,7 +12780,7 @@
         <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C13" s="12" t="s">
         <v>12</v>
@@ -12792,7 +12789,7 @@
         <v>2</v>
       </c>
       <c r="E13" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F13" s="12" t="s">
         <v>25</v>
@@ -13826,7 +13823,7 @@
         <v>24</v>
       </c>
       <c r="B14" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C14" s="12" t="s">
         <v>12</v>
@@ -13835,7 +13832,7 @@
         <v>2</v>
       </c>
       <c r="E14" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F14" s="12" t="s">
         <v>25</v>
@@ -14869,7 +14866,7 @@
         <v>24</v>
       </c>
       <c r="B15" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C15" s="12" t="s">
         <v>12</v>
@@ -14878,7 +14875,7 @@
         <v>2</v>
       </c>
       <c r="E15" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F15" s="12" t="s">
         <v>25</v>
@@ -15912,7 +15909,7 @@
         <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C16" s="12" t="s">
         <v>12</v>
@@ -15921,7 +15918,7 @@
         <v>2</v>
       </c>
       <c r="E16" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F16" s="12" t="s">
         <v>25</v>
@@ -16955,7 +16952,7 @@
         <v>24</v>
       </c>
       <c r="B17" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C17" s="12" t="s">
         <v>12</v>
@@ -16964,7 +16961,7 @@
         <v>2</v>
       </c>
       <c r="E17" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F17" s="12" t="s">
         <v>25</v>
@@ -19025,7 +19022,7 @@
         <v>34</v>
       </c>
       <c r="B19" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C19" s="12" t="s">
         <v>12</v>
@@ -19034,7 +19031,7 @@
         <v>2</v>
       </c>
       <c r="E19" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F19" s="12" t="s">
         <v>35</v>
@@ -20068,7 +20065,7 @@
         <v>34</v>
       </c>
       <c r="B20" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C20" s="12" t="s">
         <v>12</v>
@@ -20077,7 +20074,7 @@
         <v>2</v>
       </c>
       <c r="E20" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F20" s="12" t="s">
         <v>35</v>
@@ -21111,7 +21108,7 @@
         <v>34</v>
       </c>
       <c r="B21" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C21" s="12" t="s">
         <v>12</v>
@@ -21120,7 +21117,7 @@
         <v>2</v>
       </c>
       <c r="E21" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F21" s="12" t="s">
         <v>35</v>
@@ -22154,7 +22151,7 @@
         <v>34</v>
       </c>
       <c r="B22" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C22" s="12" t="s">
         <v>12</v>
@@ -22163,7 +22160,7 @@
         <v>2</v>
       </c>
       <c r="E22" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F22" s="12" t="s">
         <v>35</v>
@@ -23197,7 +23194,7 @@
         <v>34</v>
       </c>
       <c r="B23" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C23" s="12" t="s">
         <v>12</v>
@@ -23206,7 +23203,7 @@
         <v>2</v>
       </c>
       <c r="E23" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F23" s="12" t="s">
         <v>35</v>
@@ -24240,7 +24237,7 @@
         <v>34</v>
       </c>
       <c r="B24" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C24" s="12" t="s">
         <v>12</v>
@@ -24249,7 +24246,7 @@
         <v>2</v>
       </c>
       <c r="E24" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F24" s="12" t="s">
         <v>35</v>
@@ -25283,7 +25280,7 @@
         <v>34</v>
       </c>
       <c r="B25" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C25" s="12" t="s">
         <v>12</v>
@@ -25292,7 +25289,7 @@
         <v>2</v>
       </c>
       <c r="E25" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F25" s="12" t="s">
         <v>35</v>
@@ -27353,7 +27350,7 @@
         <v>36</v>
       </c>
       <c r="B27" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C27" s="12" t="s">
         <v>12</v>
@@ -27362,10 +27359,10 @@
         <v>2</v>
       </c>
       <c r="E27" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F27" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G27" s="14" t="s">
         <v>37</v>
@@ -28396,7 +28393,7 @@
         <v>36</v>
       </c>
       <c r="B28" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C28" s="12" t="s">
         <v>12</v>
@@ -28405,10 +28402,10 @@
         <v>2</v>
       </c>
       <c r="E28" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F28" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G28" s="14" t="s">
         <v>39</v>
@@ -29439,7 +29436,7 @@
         <v>36</v>
       </c>
       <c r="B29" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C29" s="12" t="s">
         <v>12</v>
@@ -29448,10 +29445,10 @@
         <v>2</v>
       </c>
       <c r="E29" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F29" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G29" s="14" t="s">
         <v>41</v>
@@ -30481,7 +30478,7 @@
         <v>36</v>
       </c>
       <c r="B30" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C30" s="12" t="s">
         <v>12</v>
@@ -30490,10 +30487,10 @@
         <v>2</v>
       </c>
       <c r="E30" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F30" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G30" s="14" t="s">
         <v>42</v>
@@ -31523,7 +31520,7 @@
         <v>36</v>
       </c>
       <c r="B31" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C31" s="12" t="s">
         <v>12</v>
@@ -31532,10 +31529,10 @@
         <v>2</v>
       </c>
       <c r="E31" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F31" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G31" s="14" t="s">
         <v>44</v>
@@ -32566,7 +32563,7 @@
         <v>36</v>
       </c>
       <c r="B32" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C32" s="12" t="s">
         <v>12</v>
@@ -32575,10 +32572,10 @@
         <v>2</v>
       </c>
       <c r="E32" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F32" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G32" s="14" t="s">
         <v>46</v>
@@ -33609,7 +33606,7 @@
         <v>36</v>
       </c>
       <c r="B33" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C33" s="12" t="s">
         <v>12</v>
@@ -33618,10 +33615,10 @@
         <v>2</v>
       </c>
       <c r="E33" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F33" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G33" s="14" t="s">
         <v>48</v>
@@ -34652,7 +34649,7 @@
         <v>36</v>
       </c>
       <c r="B34" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C34" s="16" t="s">
         <v>12</v>
@@ -34661,10 +34658,10 @@
         <v>2</v>
       </c>
       <c r="E34" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F34" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G34" s="17" t="s">
         <v>50</v>
@@ -34673,6 +34670,7 @@
         <v>51</v>
       </c>
       <c r="K34"/>
+      <c r="L34"/>
     </row>
     <row r="35" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A35"/>
@@ -34685,13 +34683,14 @@
       <c r="H35"/>
       <c r="I35"/>
       <c r="K35"/>
+      <c r="L35"/>
     </row>
     <row r="36" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A36" s="12" t="s">
         <v>52</v>
       </c>
       <c r="B36" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C36" s="12" t="s">
         <v>12</v>
@@ -34700,10 +34699,10 @@
         <v>2</v>
       </c>
       <c r="E36" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F36" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G36" s="14" t="s">
         <v>37</v>
@@ -34713,13 +34712,14 @@
       </c>
       <c r="I36"/>
       <c r="K36"/>
+      <c r="L36"/>
     </row>
     <row r="37" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A37" s="12" t="s">
         <v>52</v>
       </c>
       <c r="B37" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C37" s="12" t="s">
         <v>12</v>
@@ -34728,10 +34728,10 @@
         <v>2</v>
       </c>
       <c r="E37" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F37" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G37" s="14" t="s">
         <v>39</v>
@@ -34741,13 +34741,14 @@
       </c>
       <c r="I37"/>
       <c r="K37"/>
+      <c r="L37"/>
     </row>
     <row r="38" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A38" s="12" t="s">
         <v>52</v>
       </c>
       <c r="B38" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C38" s="12" t="s">
         <v>12</v>
@@ -34756,10 +34757,10 @@
         <v>2</v>
       </c>
       <c r="E38" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F38" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G38" s="14" t="s">
         <v>41</v>
@@ -34769,13 +34770,14 @@
       </c>
       <c r="I38"/>
       <c r="K38"/>
+      <c r="L38"/>
     </row>
     <row r="39" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A39" s="12" t="s">
         <v>52</v>
       </c>
       <c r="B39" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C39" s="12" t="s">
         <v>12</v>
@@ -34784,10 +34786,10 @@
         <v>2</v>
       </c>
       <c r="E39" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F39" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G39" s="14" t="s">
         <v>42</v>
@@ -34797,13 +34799,14 @@
       </c>
       <c r="I39"/>
       <c r="K39"/>
+      <c r="L39"/>
     </row>
     <row r="40" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A40" s="12" t="s">
         <v>52</v>
       </c>
       <c r="B40" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C40" s="12" t="s">
         <v>12</v>
@@ -34812,10 +34815,10 @@
         <v>2</v>
       </c>
       <c r="E40" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F40" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G40" s="14" t="s">
         <v>44</v>
@@ -34825,13 +34828,14 @@
       </c>
       <c r="I40"/>
       <c r="K40"/>
+      <c r="L40"/>
     </row>
     <row r="41" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A41" s="12" t="s">
         <v>52</v>
       </c>
       <c r="B41" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C41" s="12" t="s">
         <v>12</v>
@@ -34840,10 +34844,10 @@
         <v>2</v>
       </c>
       <c r="E41" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F41" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G41" s="14" t="s">
         <v>46</v>
@@ -34853,13 +34857,14 @@
       </c>
       <c r="I41"/>
       <c r="K41"/>
+      <c r="L41"/>
     </row>
     <row r="42" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A42" s="12" t="s">
         <v>52</v>
       </c>
       <c r="B42" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C42" s="12" t="s">
         <v>12</v>
@@ -34868,10 +34873,10 @@
         <v>2</v>
       </c>
       <c r="E42" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F42" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G42" s="14" t="s">
         <v>48</v>
@@ -34881,13 +34886,14 @@
       </c>
       <c r="I42"/>
       <c r="K42"/>
+      <c r="L42"/>
     </row>
     <row r="43" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A43" s="12" t="s">
         <v>52</v>
       </c>
       <c r="B43" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C43" s="12" t="s">
         <v>12</v>
@@ -34896,10 +34902,10 @@
         <v>2</v>
       </c>
       <c r="E43" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F43" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G43" s="14" t="s">
         <v>50</v>
@@ -34910,6 +34916,7 @@
       <c r="I43"/>
       <c r="J43"/>
       <c r="K43"/>
+      <c r="L43"/>
     </row>
     <row r="44" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A44"/>
@@ -34922,24 +34929,15 @@
       <c r="H44"/>
       <c r="I44"/>
       <c r="K44"/>
+      <c r="L44"/>
     </row>
     <row r="45" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="J45" s="12" t="s">
         <v>60</v>
       </c>
       <c r="K45"/>
-      <c r="L45" s="12">
-        <v>2</v>
-      </c>
-      <c r="M45" s="12">
-        <v>1154</v>
-      </c>
-      <c r="N45" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="O45" s="12">
-        <v>47</v>
-      </c>
+      <c r="L45"/>
+      <c r="N45" s="14"/>
       <c r="P45"/>
     </row>
     <row r="46" spans="1:1026" x14ac:dyDescent="0.25">
@@ -34947,18 +34945,8 @@
         <v>60</v>
       </c>
       <c r="K46"/>
-      <c r="L46" s="12">
-        <v>2</v>
-      </c>
-      <c r="M46" s="12">
-        <v>1154</v>
-      </c>
-      <c r="N46" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="O46" s="12">
-        <v>1.832E-6</v>
-      </c>
+      <c r="L46"/>
+      <c r="N46" s="14"/>
       <c r="P46"/>
     </row>
     <row r="47" spans="1:1026" x14ac:dyDescent="0.25">
@@ -34966,18 +34954,8 @@
         <v>60</v>
       </c>
       <c r="K47"/>
-      <c r="L47" s="12">
-        <v>2</v>
-      </c>
-      <c r="M47" s="12">
-        <v>1154</v>
-      </c>
-      <c r="N47" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="O47" s="12">
-        <v>45</v>
-      </c>
+      <c r="L47"/>
+      <c r="N47" s="14"/>
       <c r="P47"/>
     </row>
     <row r="48" spans="1:1026" x14ac:dyDescent="0.25">
@@ -34985,18 +34963,8 @@
         <v>60</v>
       </c>
       <c r="K48"/>
-      <c r="L48" s="12">
-        <v>2</v>
-      </c>
-      <c r="M48" s="12">
-        <v>1154</v>
-      </c>
-      <c r="N48" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="O48" s="12">
-        <v>7.3000000000000001E-3</v>
-      </c>
+      <c r="L48"/>
+      <c r="N48" s="14"/>
       <c r="P48"/>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.25">
@@ -35004,18 +34972,8 @@
         <v>60</v>
       </c>
       <c r="K49"/>
-      <c r="L49" s="12">
-        <v>2</v>
-      </c>
-      <c r="M49" s="12">
-        <v>1154</v>
-      </c>
-      <c r="N49" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="O49" s="12">
-        <v>44</v>
-      </c>
+      <c r="L49"/>
+      <c r="N49" s="14"/>
       <c r="P49"/>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.25">
@@ -35023,18 +34981,8 @@
         <v>60</v>
       </c>
       <c r="K50"/>
-      <c r="L50" s="12">
-        <v>2</v>
-      </c>
-      <c r="M50" s="12">
-        <v>1154</v>
-      </c>
-      <c r="N50" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="O50" s="12">
-        <v>9.0399999999999994E-2</v>
-      </c>
+      <c r="L50"/>
+      <c r="N50" s="14"/>
       <c r="P50"/>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.25">
@@ -35042,84 +34990,32 @@
         <v>60</v>
       </c>
       <c r="K51"/>
-      <c r="L51" s="12">
-        <v>2</v>
-      </c>
-      <c r="M51" s="12">
-        <v>1154</v>
-      </c>
-      <c r="N51" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="O51" s="12">
-        <v>117</v>
-      </c>
-      <c r="P51" s="12" t="s">
-        <v>33</v>
-      </c>
+      <c r="L51"/>
+      <c r="N51" s="14"/>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="J52" s="12" t="s">
         <v>60</v>
       </c>
       <c r="K52"/>
-      <c r="L52" s="12">
-        <v>2</v>
-      </c>
-      <c r="M52" s="12">
-        <v>1154</v>
-      </c>
-      <c r="N52" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="O52" s="12">
-        <v>700</v>
-      </c>
-      <c r="P52" s="12" t="s">
-        <v>33</v>
-      </c>
+      <c r="L52"/>
+      <c r="N52" s="14"/>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="J53" s="12" t="s">
         <v>60</v>
       </c>
       <c r="K53"/>
-      <c r="L53" s="12">
-        <v>2</v>
-      </c>
-      <c r="M53" s="12">
-        <v>1154</v>
-      </c>
-      <c r="N53" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="O53" s="12">
-        <v>1.08</v>
-      </c>
-      <c r="P53" s="12" t="s">
-        <v>33</v>
-      </c>
+      <c r="L53"/>
+      <c r="N53" s="14"/>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="J54" s="12" t="s">
         <v>60</v>
       </c>
       <c r="K54"/>
-      <c r="L54" s="12">
-        <v>2</v>
-      </c>
-      <c r="M54" s="12">
-        <v>1154</v>
-      </c>
-      <c r="N54" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="O54" s="12">
-        <v>3.9E-2</v>
-      </c>
-      <c r="P54" s="12" t="s">
-        <v>33</v>
-      </c>
+      <c r="L54"/>
+      <c r="N54" s="14"/>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55"/>
@@ -35132,13 +35028,14 @@
       <c r="H55"/>
       <c r="I55"/>
       <c r="K55"/>
+      <c r="L55"/>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56" s="12" t="s">
         <v>71</v>
       </c>
       <c r="B56" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C56" s="12" t="s">
         <v>12</v>
@@ -35147,7 +35044,7 @@
         <v>2</v>
       </c>
       <c r="E56" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F56" s="12">
         <v>1153</v>
@@ -35160,13 +35057,14 @@
       </c>
       <c r="I56"/>
       <c r="K56"/>
+      <c r="L56"/>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" s="12" t="s">
         <v>71</v>
       </c>
       <c r="B57" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C57" s="12" t="s">
         <v>12</v>
@@ -35175,7 +35073,7 @@
         <v>2</v>
       </c>
       <c r="E57" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F57" s="12">
         <v>1153</v>
@@ -35188,13 +35086,14 @@
       </c>
       <c r="I57"/>
       <c r="K57"/>
+      <c r="L57"/>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58" s="12" t="s">
         <v>71</v>
       </c>
       <c r="B58" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C58" s="12" t="s">
         <v>12</v>
@@ -35203,7 +35102,7 @@
         <v>2</v>
       </c>
       <c r="E58" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F58" s="12">
         <v>1153</v>
@@ -35216,13 +35115,14 @@
       </c>
       <c r="I58"/>
       <c r="K58"/>
+      <c r="L58"/>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59" s="12" t="s">
         <v>71</v>
       </c>
       <c r="B59" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C59" s="12" t="s">
         <v>12</v>
@@ -35231,7 +35131,7 @@
         <v>2</v>
       </c>
       <c r="E59" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F59" s="12">
         <v>1153</v>
@@ -35244,13 +35144,14 @@
       </c>
       <c r="I59"/>
       <c r="K59"/>
+      <c r="L59"/>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60" s="12" t="s">
         <v>71</v>
       </c>
       <c r="B60" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C60" s="12" t="s">
         <v>12</v>
@@ -35259,7 +35160,7 @@
         <v>2</v>
       </c>
       <c r="E60" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F60" s="12">
         <v>1153</v>
@@ -35272,13 +35173,14 @@
       </c>
       <c r="I60"/>
       <c r="K60"/>
+      <c r="L60"/>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A61" s="12" t="s">
         <v>71</v>
       </c>
       <c r="B61" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C61" s="12" t="s">
         <v>12</v>
@@ -35287,7 +35189,7 @@
         <v>2</v>
       </c>
       <c r="E61" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F61" s="12">
         <v>1153</v>
@@ -35300,13 +35202,14 @@
       </c>
       <c r="I61"/>
       <c r="K61"/>
+      <c r="L61"/>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A62" s="12" t="s">
         <v>71</v>
       </c>
       <c r="B62" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C62" s="12" t="s">
         <v>12</v>
@@ -35315,7 +35218,7 @@
         <v>2</v>
       </c>
       <c r="E62" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F62" s="12">
         <v>1153</v>
@@ -35330,13 +35233,14 @@
         <v>33</v>
       </c>
       <c r="K62"/>
+      <c r="L62"/>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A63" s="12" t="s">
         <v>71</v>
       </c>
       <c r="B63" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C63" s="12" t="s">
         <v>12</v>
@@ -35345,7 +35249,7 @@
         <v>2</v>
       </c>
       <c r="E63" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F63" s="12">
         <v>1153</v>
@@ -35360,13 +35264,14 @@
         <v>33</v>
       </c>
       <c r="K63"/>
+      <c r="L63"/>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A64" s="12" t="s">
         <v>71</v>
       </c>
       <c r="B64" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C64" s="12" t="s">
         <v>12</v>
@@ -35375,7 +35280,7 @@
         <v>2</v>
       </c>
       <c r="E64" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F64" s="12">
         <v>1153</v>
@@ -35390,13 +35295,14 @@
         <v>33</v>
       </c>
       <c r="K64"/>
+      <c r="L64"/>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" s="12" t="s">
         <v>71</v>
       </c>
       <c r="B65" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C65" s="12" t="s">
         <v>12</v>
@@ -35405,7 +35311,7 @@
         <v>2</v>
       </c>
       <c r="E65" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F65" s="12">
         <v>1153</v>
@@ -35420,6 +35326,7 @@
         <v>33</v>
       </c>
       <c r="K65"/>
+      <c r="L65"/>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66"/>
@@ -35432,440 +35339,203 @@
       <c r="H66"/>
       <c r="I66"/>
       <c r="K66"/>
+      <c r="L66"/>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J67" s="14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K67"/>
-      <c r="L67" s="12">
-        <v>2</v>
-      </c>
-      <c r="M67" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="N67" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="O67" s="14">
-        <v>44.658383333333298</v>
-      </c>
+      <c r="L67"/>
+      <c r="N67" s="14"/>
+      <c r="O67" s="14"/>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J68" s="14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K68"/>
-      <c r="L68" s="12">
-        <v>2</v>
-      </c>
-      <c r="M68" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="N68" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="O68" s="14">
-        <v>-124.095583333333</v>
-      </c>
+      <c r="L68"/>
+      <c r="N68" s="14"/>
+      <c r="O68" s="14"/>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J69" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K69"/>
-      <c r="L69" s="12">
-        <v>2</v>
-      </c>
-      <c r="M69" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="N69" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="O69" s="12">
-        <v>1.276456E-3</v>
-      </c>
+      <c r="L69"/>
+      <c r="N69" s="14"/>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J70" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K70"/>
-      <c r="L70" s="12">
-        <v>2</v>
-      </c>
-      <c r="M70" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="N70" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="O70" s="12">
-        <v>2.6903810000000002E-4</v>
-      </c>
+      <c r="L70"/>
+      <c r="N70" s="14"/>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J71" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K71"/>
-      <c r="L71" s="12">
-        <v>2</v>
-      </c>
-      <c r="M71" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="N71" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="O71" s="12">
-        <v>-5.591639E-7</v>
-      </c>
+      <c r="L71"/>
+      <c r="N71" s="14"/>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J72" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K72"/>
-      <c r="L72" s="12">
-        <v>2</v>
-      </c>
-      <c r="M72" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="N72" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="O72" s="12">
-        <v>1.577658E-7</v>
-      </c>
+      <c r="L72"/>
+      <c r="N72" s="14"/>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J73" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K73"/>
-      <c r="L73" s="12">
-        <v>2</v>
-      </c>
-      <c r="M73" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="N73" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="O73" s="12">
-        <v>-58.854516699999998</v>
-      </c>
+      <c r="L73"/>
+      <c r="N73" s="14"/>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J74" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K74"/>
-      <c r="L74" s="12">
-        <v>2</v>
-      </c>
-      <c r="M74" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="N74" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="O74" s="12">
-        <v>54.255826800000001</v>
-      </c>
+      <c r="L74"/>
+      <c r="N74" s="14"/>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J75" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K75"/>
-      <c r="L75" s="12">
-        <v>2</v>
-      </c>
-      <c r="M75" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="N75" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="O75" s="12">
-        <v>-0.55724122799999998</v>
-      </c>
+      <c r="L75"/>
+      <c r="N75" s="14"/>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J76" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K76"/>
-      <c r="L76" s="12">
-        <v>2</v>
-      </c>
-      <c r="M76" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="N76" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="O76" s="12">
-        <v>524431.27800000005</v>
-      </c>
+      <c r="L76"/>
+      <c r="N76" s="14"/>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J77" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K77"/>
-      <c r="L77" s="12">
-        <v>2</v>
-      </c>
-      <c r="M77" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="N77" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="O77" s="12">
-        <v>-21.887732100000001</v>
-      </c>
+      <c r="L77"/>
+      <c r="N77" s="14"/>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J78" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K78"/>
-      <c r="L78" s="12">
-        <v>2</v>
-      </c>
-      <c r="M78" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="N78" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="O78" s="12">
-        <v>0.31120579700000001</v>
-      </c>
+      <c r="L78"/>
+      <c r="N78" s="14"/>
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J79" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K79"/>
-      <c r="L79" s="12">
-        <v>2</v>
-      </c>
-      <c r="M79" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="N79" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="O79" s="12">
-        <v>25.026250000000001</v>
-      </c>
+      <c r="L79"/>
+      <c r="N79" s="14"/>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J80" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K80"/>
-      <c r="L80" s="12">
-        <v>2</v>
-      </c>
-      <c r="M80" s="12" t="s">
+      <c r="L80"/>
+      <c r="N80" s="14"/>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J81" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="N80" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="O80" s="12">
-        <v>-3.5E-4</v>
-      </c>
+      <c r="K81"/>
+      <c r="L81"/>
+      <c r="N81" s="14"/>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="J81" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="K81"/>
-      <c r="L81" s="12">
-        <v>2</v>
-      </c>
-      <c r="M81" s="12" t="s">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J82" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="N81" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="O81" s="12">
-        <v>0</v>
-      </c>
+      <c r="K82"/>
+      <c r="L82"/>
+      <c r="N82" s="14"/>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="J82" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="K82"/>
-      <c r="L82" s="12">
-        <v>2</v>
-      </c>
-      <c r="M82" s="12" t="s">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J83" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="N82" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="O82" s="12">
-        <v>-0.159678125</v>
-      </c>
+      <c r="K83"/>
+      <c r="L83"/>
+      <c r="N83" s="14"/>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="J83" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="K83"/>
-      <c r="L83" s="12">
-        <v>2</v>
-      </c>
-      <c r="M83" s="12" t="s">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J84" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="N83" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="O83" s="12">
-        <v>4.8865805100000001E-4</v>
-      </c>
+      <c r="K84"/>
+      <c r="L84"/>
+      <c r="N84" s="14"/>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="J84" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="K84"/>
-      <c r="L84" s="12">
-        <v>2</v>
-      </c>
-      <c r="M84" s="12" t="s">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J85" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="N84" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="O84" s="12">
-        <v>-5.8760541700000003E-12</v>
-      </c>
+      <c r="K85"/>
+      <c r="L85"/>
+      <c r="N85" s="14"/>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="J85" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="K85"/>
-      <c r="L85" s="12">
-        <v>2</v>
-      </c>
-      <c r="M85" s="12" t="s">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J86" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="N85" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="O85" s="12">
-        <v>-0.97195659999999995</v>
-      </c>
+      <c r="K86"/>
+      <c r="L86"/>
+      <c r="N86" s="14"/>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="J86" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="K86"/>
-      <c r="L86" s="12">
-        <v>2</v>
-      </c>
-      <c r="M86" s="12" t="s">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J87" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="N86" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="O86" s="12">
-        <v>0.13858780000000001</v>
-      </c>
+      <c r="K87"/>
+      <c r="L87"/>
+      <c r="N87" s="14"/>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="J87" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="K87"/>
-      <c r="L87" s="12">
-        <v>2</v>
-      </c>
-      <c r="M87" s="12" t="s">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J88" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="N87" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="O87" s="12">
-        <v>-2.7013310000000002E-4</v>
-      </c>
+      <c r="K88"/>
+      <c r="L88"/>
+      <c r="N88" s="14"/>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="J88" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="K88"/>
-      <c r="L88" s="12">
-        <v>2</v>
-      </c>
-      <c r="M88" s="12" t="s">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J89" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="N88" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="O88" s="12">
-        <v>3.8801909999999999E-5</v>
-      </c>
+      <c r="K89"/>
+      <c r="L89"/>
+      <c r="N89" s="14"/>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="J89" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="K89"/>
-      <c r="L89" s="12">
-        <v>2</v>
-      </c>
-      <c r="M89" s="12" t="s">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J90" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="N89" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="O89" s="12">
-        <v>-9.5700000000000003E-8</v>
-      </c>
+      <c r="K90"/>
+      <c r="L90"/>
+      <c r="N90" s="14"/>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="J90" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="K90"/>
-      <c r="L90" s="12">
-        <v>2</v>
-      </c>
-      <c r="M90" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="N90" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="O90" s="12">
-        <v>3.2499999999999998E-6</v>
-      </c>
-    </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A91"/>
       <c r="B91"/>
       <c r="C91"/>
@@ -35876,13 +35546,14 @@
       <c r="H91"/>
       <c r="I91"/>
       <c r="K91"/>
+      <c r="L91"/>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A92" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B92" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C92" s="12" t="s">
         <v>12</v>
@@ -35891,10 +35562,10 @@
         <v>2</v>
       </c>
       <c r="E92" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F92" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G92" s="14" t="s">
         <v>21</v>
@@ -35904,13 +35575,14 @@
       </c>
       <c r="I92"/>
       <c r="K92"/>
+      <c r="L92"/>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B93" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C93" s="12" t="s">
         <v>12</v>
@@ -35919,10 +35591,10 @@
         <v>2</v>
       </c>
       <c r="E93" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F93" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G93" s="14" t="s">
         <v>22</v>
@@ -35932,13 +35604,14 @@
       </c>
       <c r="I93"/>
       <c r="K93"/>
+      <c r="L93"/>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A94" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B94" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C94" s="12" t="s">
         <v>12</v>
@@ -35947,13 +35620,13 @@
         <v>2</v>
       </c>
       <c r="E94" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F94" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G94" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H94" s="12">
         <v>1.2472819999999999E-3</v>
@@ -35961,13 +35634,14 @@
       <c r="I94"/>
       <c r="J94"/>
       <c r="K94"/>
+      <c r="L94"/>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B95" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C95" s="12" t="s">
         <v>12</v>
@@ -35976,13 +35650,13 @@
         <v>2</v>
       </c>
       <c r="E95" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F95" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G95" s="14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H95" s="12">
         <v>2.7513169999999999E-4</v>
@@ -35990,13 +35664,14 @@
       <c r="I95"/>
       <c r="J95"/>
       <c r="K95"/>
+      <c r="L95"/>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A96" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B96" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C96" s="12" t="s">
         <v>12</v>
@@ -36005,26 +35680,27 @@
         <v>2</v>
       </c>
       <c r="E96" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F96" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G96" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H96" s="12">
         <v>-1.164927E-6</v>
       </c>
       <c r="I96"/>
       <c r="K96"/>
+      <c r="L96"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B97" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C97" s="12" t="s">
         <v>12</v>
@@ -36033,26 +35709,27 @@
         <v>2</v>
       </c>
       <c r="E97" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F97" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G97" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H97" s="12">
         <v>1.828527E-7</v>
       </c>
       <c r="I97"/>
       <c r="K97"/>
+      <c r="L97"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B98" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C98" s="12" t="s">
         <v>12</v>
@@ -36061,26 +35738,27 @@
         <v>2</v>
       </c>
       <c r="E98" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F98" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G98" s="14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H98" s="12">
         <v>-60.958993499999998</v>
       </c>
       <c r="I98"/>
       <c r="K98"/>
+      <c r="L98"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B99" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C99" s="12" t="s">
         <v>12</v>
@@ -36089,26 +35767,27 @@
         <v>2</v>
       </c>
       <c r="E99" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F99" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G99" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H99" s="12">
         <v>54.631500299999999</v>
       </c>
       <c r="I99"/>
       <c r="K99"/>
+      <c r="L99"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B100" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C100" s="12" t="s">
         <v>12</v>
@@ -36117,26 +35796,27 @@
         <v>2</v>
       </c>
       <c r="E100" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F100" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G100" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H100" s="12">
         <v>-0.80724953099999996</v>
       </c>
       <c r="I100"/>
       <c r="K100"/>
+      <c r="L100"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B101" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C101" s="12" t="s">
         <v>12</v>
@@ -36145,26 +35825,27 @@
         <v>2</v>
       </c>
       <c r="E101" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F101" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G101" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H101" s="12">
         <v>524737.08900000004</v>
       </c>
       <c r="I101"/>
       <c r="K101"/>
+      <c r="L101"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B102" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C102" s="12" t="s">
         <v>12</v>
@@ -36173,26 +35854,27 @@
         <v>2</v>
       </c>
       <c r="E102" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F102" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G102" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H102" s="12">
         <v>17.629218300000002</v>
       </c>
       <c r="I102"/>
       <c r="K102"/>
+      <c r="L102"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B103" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C103" s="12" t="s">
         <v>12</v>
@@ -36201,26 +35883,27 @@
         <v>2</v>
       </c>
       <c r="E103" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F103" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G103" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H103" s="12">
         <v>-0.43791688400000001</v>
       </c>
       <c r="I103"/>
       <c r="K103"/>
+      <c r="L103"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B104" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C104" s="12" t="s">
         <v>12</v>
@@ -36229,26 +35912,27 @@
         <v>2</v>
       </c>
       <c r="E104" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F104" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G104" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H104" s="12">
         <v>25.067125000000001</v>
       </c>
       <c r="I104"/>
       <c r="K104"/>
+      <c r="L104"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B105" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C105" s="12" t="s">
         <v>12</v>
@@ -36257,26 +35941,27 @@
         <v>2</v>
       </c>
       <c r="E105" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F105" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G105" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H105" s="12">
         <v>2.5000000000000001E-5</v>
       </c>
       <c r="I105"/>
       <c r="K105"/>
+      <c r="L105"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B106" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C106" s="12" t="s">
         <v>12</v>
@@ -36285,26 +35970,27 @@
         <v>2</v>
       </c>
       <c r="E106" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F106" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G106" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H106" s="12">
         <v>0</v>
       </c>
       <c r="I106"/>
       <c r="K106"/>
+      <c r="L106"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B107" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C107" s="12" t="s">
         <v>12</v>
@@ -36313,26 +35999,27 @@
         <v>2</v>
       </c>
       <c r="E107" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F107" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G107" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H107" s="12">
         <v>8.5999905299999999E-2</v>
       </c>
       <c r="I107"/>
       <c r="K107"/>
+      <c r="L107"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A108" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B108" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C108" s="12" t="s">
         <v>12</v>
@@ -36341,26 +36028,27 @@
         <v>2</v>
       </c>
       <c r="E108" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F108" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G108" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H108" s="12">
         <v>4.8842670400000004E-4</v>
       </c>
       <c r="I108"/>
       <c r="K108"/>
+      <c r="L108"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A109" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B109" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C109" s="12" t="s">
         <v>12</v>
@@ -36369,26 +36057,27 @@
         <v>2</v>
       </c>
       <c r="E109" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F109" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G109" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H109" s="12">
         <v>-6.8426125900000003E-12</v>
       </c>
       <c r="I109"/>
       <c r="K109"/>
+      <c r="L109"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A110" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B110" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C110" s="12" t="s">
         <v>12</v>
@@ -36397,26 +36086,27 @@
         <v>2</v>
       </c>
       <c r="E110" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F110" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G110" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H110" s="12">
         <v>-0.99330379999999996</v>
       </c>
       <c r="I110"/>
       <c r="K110"/>
+      <c r="L110"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A111" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B111" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C111" s="12" t="s">
         <v>12</v>
@@ -36425,26 +36115,27 @@
         <v>2</v>
       </c>
       <c r="E111" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F111" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G111" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H111" s="12">
         <v>0.13849600000000001</v>
       </c>
       <c r="I111"/>
       <c r="K111"/>
+      <c r="L111"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A112" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B112" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C112" s="12" t="s">
         <v>12</v>
@@ -36453,26 +36144,27 @@
         <v>2</v>
       </c>
       <c r="E112" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F112" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G112" s="14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H112" s="12">
         <v>-2.270537E-4</v>
       </c>
       <c r="I112"/>
       <c r="K112"/>
+      <c r="L112"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A113" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B113" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C113" s="12" t="s">
         <v>12</v>
@@ -36481,26 +36173,27 @@
         <v>2</v>
       </c>
       <c r="E113" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F113" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G113" s="14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H113" s="12">
         <v>3.540078E-5</v>
       </c>
       <c r="I113"/>
       <c r="K113"/>
+      <c r="L113"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A114" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B114" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C114" s="12" t="s">
         <v>12</v>
@@ -36509,26 +36202,27 @@
         <v>2</v>
       </c>
       <c r="E114" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F114" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G114" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H114" s="12">
         <v>-9.5700000000000003E-8</v>
       </c>
       <c r="I114"/>
       <c r="K114"/>
+      <c r="L114"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B115" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C115" s="12" t="s">
         <v>12</v>
@@ -36537,21 +36231,22 @@
         <v>2</v>
       </c>
       <c r="E115" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F115" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G115" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H115" s="12">
         <v>3.2499999999999998E-6</v>
       </c>
       <c r="I115"/>
       <c r="K115"/>
+      <c r="L115"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A116"/>
       <c r="B116"/>
       <c r="C116"/>
@@ -36562,13 +36257,14 @@
       <c r="H116"/>
       <c r="I116"/>
       <c r="K116"/>
+      <c r="L116"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A117" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B117" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C117" s="12" t="s">
         <v>12</v>
@@ -36577,10 +36273,10 @@
         <v>2</v>
       </c>
       <c r="E117" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F117" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G117" s="14" t="s">
         <v>21</v>
@@ -36590,13 +36286,14 @@
       </c>
       <c r="I117"/>
       <c r="K117"/>
+      <c r="L117"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A118" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B118" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C118" s="12" t="s">
         <v>12</v>
@@ -36605,10 +36302,10 @@
         <v>2</v>
       </c>
       <c r="E118" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F118" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G118" s="14" t="s">
         <v>22</v>
@@ -36618,13 +36315,14 @@
       </c>
       <c r="I118"/>
       <c r="K118"/>
+      <c r="L118"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A119" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B119" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C119" s="12" t="s">
         <v>12</v>
@@ -36633,26 +36331,27 @@
         <v>2</v>
       </c>
       <c r="E119" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F119" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G119" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H119" s="12">
         <v>1.2589159999999999E-3</v>
       </c>
       <c r="I119"/>
       <c r="K119"/>
+      <c r="L119"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A120" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B120" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C120" s="12" t="s">
         <v>12</v>
@@ -36661,26 +36360,27 @@
         <v>2</v>
       </c>
       <c r="E120" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F120" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G120" s="14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H120" s="12">
         <v>2.7384590000000003E-4</v>
       </c>
       <c r="I120"/>
       <c r="K120"/>
+      <c r="L120"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A121" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B121" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C121" s="12" t="s">
         <v>12</v>
@@ -36689,26 +36389,27 @@
         <v>2</v>
       </c>
       <c r="E121" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F121" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G121" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H121" s="12">
         <v>-1.1230929999999999E-6</v>
       </c>
       <c r="I121"/>
       <c r="K121"/>
+      <c r="L121"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A122" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B122" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C122" s="12" t="s">
         <v>12</v>
@@ -36717,26 +36418,27 @@
         <v>2</v>
       </c>
       <c r="E122" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F122" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G122" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H122" s="12">
         <v>1.8295270000000001E-7</v>
       </c>
       <c r="I122"/>
       <c r="K122"/>
+      <c r="L122"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A123" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B123" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C123" s="12" t="s">
         <v>12</v>
@@ -36745,26 +36447,27 @@
         <v>2</v>
       </c>
       <c r="E123" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F123" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G123" s="14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H123" s="12">
         <v>-58.694972800000002</v>
       </c>
       <c r="I123"/>
       <c r="K123"/>
+      <c r="L123"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A124" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B124" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C124" s="12" t="s">
         <v>12</v>
@@ -36773,26 +36476,27 @@
         <v>2</v>
       </c>
       <c r="E124" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F124" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G124" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H124" s="12">
         <v>54.6728393</v>
       </c>
       <c r="I124"/>
       <c r="K124"/>
+      <c r="L124"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A125" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B125" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C125" s="12" t="s">
         <v>12</v>
@@ -36801,26 +36505,27 @@
         <v>2</v>
       </c>
       <c r="E125" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F125" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G125" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H125" s="12">
         <v>-0.63763615600000001</v>
       </c>
       <c r="I125"/>
       <c r="K125"/>
+      <c r="L125"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A126" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B126" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C126" s="12" t="s">
         <v>12</v>
@@ -36829,26 +36534,27 @@
         <v>2</v>
       </c>
       <c r="E126" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F126" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G126" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H126" s="12">
         <v>524643.36600000004</v>
       </c>
       <c r="I126"/>
       <c r="K126"/>
+      <c r="L126"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A127" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B127" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C127" s="12" t="s">
         <v>12</v>
@@ -36857,26 +36563,27 @@
         <v>2</v>
       </c>
       <c r="E127" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F127" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G127" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H127" s="12">
         <v>24.075237300000001</v>
       </c>
       <c r="I127"/>
       <c r="K127"/>
+      <c r="L127"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A128" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B128" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C128" s="12" t="s">
         <v>12</v>
@@ -36885,13 +36592,13 @@
         <v>2</v>
       </c>
       <c r="E128" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F128" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G128" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H128" s="12">
         <v>-0.59340453599999998</v>
@@ -36899,13 +36606,14 @@
       <c r="I128"/>
       <c r="J128"/>
       <c r="K128"/>
+      <c r="L128"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A129" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B129" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C129" s="12" t="s">
         <v>12</v>
@@ -36914,26 +36622,27 @@
         <v>2</v>
       </c>
       <c r="E129" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F129" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G129" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H129" s="12">
         <v>25.027625</v>
       </c>
       <c r="I129"/>
       <c r="K129"/>
+      <c r="L129"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A130" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B130" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C130" s="12" t="s">
         <v>12</v>
@@ -36942,13 +36651,13 @@
         <v>2</v>
       </c>
       <c r="E130" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F130" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G130" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H130" s="12">
         <v>-6.7500000000000004E-4</v>
@@ -36956,13 +36665,14 @@
       <c r="I130"/>
       <c r="J130"/>
       <c r="K130"/>
+      <c r="L130"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A131" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B131" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C131" s="12" t="s">
         <v>12</v>
@@ -36971,26 +36681,27 @@
         <v>2</v>
       </c>
       <c r="E131" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F131" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G131" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H131" s="12">
         <v>0</v>
       </c>
       <c r="I131"/>
       <c r="K131"/>
+      <c r="L131"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A132" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B132" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C132" s="12" t="s">
         <v>12</v>
@@ -36999,26 +36710,27 @@
         <v>2</v>
       </c>
       <c r="E132" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F132" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G132" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H132" s="12">
         <v>0.120444996</v>
       </c>
       <c r="I132"/>
       <c r="K132"/>
+      <c r="L132"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A133" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B133" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C133" s="12" t="s">
         <v>12</v>
@@ -37027,26 +36739,27 @@
         <v>2</v>
       </c>
       <c r="E133" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F133" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G133" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H133" s="12">
         <v>4.8852986300000005E-4</v>
       </c>
       <c r="I133"/>
       <c r="K133"/>
+      <c r="L133"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A134" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B134" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C134" s="12" t="s">
         <v>12</v>
@@ -37055,26 +36768,27 @@
         <v>2</v>
       </c>
       <c r="E134" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F134" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G134" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H134" s="12">
         <v>-6.5795214600000003E-12</v>
       </c>
       <c r="I134"/>
       <c r="K134"/>
+      <c r="L134"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A135" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B135" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C135" s="12" t="s">
         <v>12</v>
@@ -37083,26 +36797,27 @@
         <v>2</v>
       </c>
       <c r="E135" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F135" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G135" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H135" s="12">
         <v>-0.98972729999999998</v>
       </c>
       <c r="I135"/>
       <c r="K135"/>
+      <c r="L135"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A136" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B136" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C136" s="12" t="s">
         <v>12</v>
@@ -37111,26 +36826,27 @@
         <v>2</v>
       </c>
       <c r="E136" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F136" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G136" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H136" s="12">
         <v>0.13866529999999999</v>
       </c>
       <c r="I136"/>
       <c r="K136"/>
+      <c r="L136"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A137" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B137" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C137" s="12" t="s">
         <v>12</v>
@@ -37139,26 +36855,27 @@
         <v>2</v>
       </c>
       <c r="E137" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F137" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G137" s="14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H137" s="12">
         <v>-2.0333689999999999E-4</v>
       </c>
       <c r="I137"/>
       <c r="K137"/>
+      <c r="L137"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A138" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B138" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C138" s="12" t="s">
         <v>12</v>
@@ -37167,26 +36884,27 @@
         <v>2</v>
       </c>
       <c r="E138" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F138" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G138" s="14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H138" s="12">
         <v>3.3990309999999999E-5</v>
       </c>
       <c r="I138"/>
       <c r="K138"/>
+      <c r="L138"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A139" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B139" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C139" s="12" t="s">
         <v>12</v>
@@ -37195,26 +36913,27 @@
         <v>2</v>
       </c>
       <c r="E139" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F139" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G139" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H139" s="12">
         <v>-9.5700000000000003E-8</v>
       </c>
       <c r="I139"/>
       <c r="K139"/>
+      <c r="L139"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A140" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B140" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C140" s="12" t="s">
         <v>12</v>
@@ -37223,21 +36942,22 @@
         <v>2</v>
       </c>
       <c r="E140" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F140" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G140" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H140" s="12">
         <v>3.2499999999999998E-6</v>
       </c>
       <c r="I140"/>
       <c r="K140"/>
+      <c r="L140"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A141"/>
       <c r="B141"/>
       <c r="C141"/>
@@ -37248,13 +36968,14 @@
       <c r="H141"/>
       <c r="I141"/>
       <c r="K141"/>
+      <c r="L141"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A142" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B142" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C142" s="12" t="s">
         <v>12</v>
@@ -37263,7 +36984,7 @@
         <v>2</v>
       </c>
       <c r="E142" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F142" s="12">
         <v>219</v>
@@ -37276,13 +36997,14 @@
       </c>
       <c r="I142"/>
       <c r="K142"/>
+      <c r="L142"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A143" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B143" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C143" s="12" t="s">
         <v>12</v>
@@ -37291,7 +37013,7 @@
         <v>2</v>
       </c>
       <c r="E143" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F143" s="12">
         <v>219</v>
@@ -37304,13 +37026,14 @@
       </c>
       <c r="I143"/>
       <c r="K143"/>
+      <c r="L143"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A144" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B144" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C144" s="12" t="s">
         <v>12</v>
@@ -37319,21 +37042,22 @@
         <v>2</v>
       </c>
       <c r="E144" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F144" s="12">
         <v>219</v>
       </c>
       <c r="G144" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="H144" s="12" t="s">
         <v>98</v>
-      </c>
-      <c r="H144" s="12" t="s">
-        <v>99</v>
       </c>
       <c r="I144"/>
       <c r="K144"/>
+      <c r="L144"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A145"/>
       <c r="B145"/>
       <c r="C145"/>
@@ -37344,13 +37068,14 @@
       <c r="H145"/>
       <c r="I145"/>
       <c r="K145"/>
+      <c r="L145"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A146" s="12" t="s">
-        <v>100</v>
+        <v>208</v>
       </c>
       <c r="B146" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C146" s="12" t="s">
         <v>12</v>
@@ -37359,7 +37084,7 @@
         <v>2</v>
       </c>
       <c r="E146" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F146" s="12">
         <v>311</v>
@@ -37372,13 +37097,14 @@
       </c>
       <c r="I146"/>
       <c r="K146"/>
+      <c r="L146"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A147" s="12" t="s">
-        <v>100</v>
+    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A147" s="14" t="s">
+        <v>208</v>
       </c>
       <c r="B147" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C147" s="12" t="s">
         <v>12</v>
@@ -37387,7 +37113,7 @@
         <v>2</v>
       </c>
       <c r="E147" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F147" s="12">
         <v>311</v>
@@ -37400,13 +37126,14 @@
       </c>
       <c r="I147"/>
       <c r="K147"/>
+      <c r="L147"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A148" s="12" t="s">
-        <v>100</v>
+    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A148" s="14" t="s">
+        <v>208</v>
       </c>
       <c r="B148" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C148" s="12" t="s">
         <v>12</v>
@@ -37415,21 +37142,22 @@
         <v>2</v>
       </c>
       <c r="E148" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F148" s="12">
         <v>311</v>
       </c>
       <c r="G148" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H148" s="12" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I148"/>
       <c r="K148"/>
+      <c r="L148"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A149"/>
       <c r="B149"/>
       <c r="C149"/>
@@ -37440,13 +37168,14 @@
       <c r="H149"/>
       <c r="I149"/>
       <c r="K149"/>
+      <c r="L149"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A150" s="12" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B150" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C150" s="12" t="s">
         <v>12</v>
@@ -37455,13 +37184,13 @@
         <v>2</v>
       </c>
       <c r="E150" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F150" s="12">
         <v>254</v>
       </c>
       <c r="G150" s="14" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H150" s="12">
         <v>217</v>
@@ -37470,13 +37199,14 @@
         <v>33</v>
       </c>
       <c r="K150"/>
+      <c r="L150"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A151" s="12" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B151" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C151" s="12" t="s">
         <v>12</v>
@@ -37485,13 +37215,13 @@
         <v>2</v>
       </c>
       <c r="E151" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F151" s="12">
         <v>254</v>
       </c>
       <c r="G151" s="14" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H151" s="12">
         <v>240</v>
@@ -37500,13 +37230,14 @@
         <v>33</v>
       </c>
       <c r="K151"/>
+      <c r="L151"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A152" s="12" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B152" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C152" s="12" t="s">
         <v>12</v>
@@ -37515,26 +37246,27 @@
         <v>2</v>
       </c>
       <c r="E152" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F152" s="12">
         <v>254</v>
       </c>
       <c r="G152" s="14" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H152" s="12">
         <v>19.987358835277099</v>
       </c>
       <c r="I152"/>
       <c r="K152"/>
+      <c r="L152"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A153" s="12" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B153" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C153" s="12" t="s">
         <v>12</v>
@@ -37543,26 +37275,27 @@
         <v>2</v>
       </c>
       <c r="E153" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F153" s="12">
         <v>254</v>
       </c>
       <c r="G153" s="14" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="H153" s="12" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="I153"/>
       <c r="K153"/>
+      <c r="L153"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A154" s="12" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B154" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C154" s="12" t="s">
         <v>12</v>
@@ -37571,26 +37304,27 @@
         <v>2</v>
       </c>
       <c r="E154" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F154" s="12">
         <v>254</v>
       </c>
       <c r="G154" s="14" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H154" s="12" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="I154"/>
       <c r="K154"/>
+      <c r="L154"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A155" s="12" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B155" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C155" s="12" t="s">
         <v>12</v>
@@ -37599,26 +37333,27 @@
         <v>2</v>
       </c>
       <c r="E155" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F155" s="12">
         <v>254</v>
       </c>
       <c r="G155" s="14" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H155" s="12" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="I155"/>
       <c r="K155"/>
+      <c r="L155"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A156" s="12" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B156" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C156" s="12" t="s">
         <v>12</v>
@@ -37627,21 +37362,22 @@
         <v>2</v>
       </c>
       <c r="E156" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F156" s="12">
         <v>254</v>
       </c>
       <c r="G156" s="14" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="H156" s="12" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="I156"/>
       <c r="K156"/>
+      <c r="L156"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A157"/>
       <c r="B157"/>
       <c r="C157"/>
@@ -37652,13 +37388,14 @@
       <c r="H157"/>
       <c r="I157"/>
       <c r="K157"/>
+      <c r="L157"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A158" s="12" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B158" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C158" s="12" t="s">
         <v>12</v>
@@ -37667,26 +37404,27 @@
         <v>2</v>
       </c>
       <c r="E158" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F158" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="G158" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="H158" s="12" t="s">
         <v>115</v>
-      </c>
-      <c r="G158" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="H158" s="12" t="s">
-        <v>117</v>
       </c>
       <c r="I158"/>
       <c r="K158"/>
+      <c r="L158"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A159" s="12" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B159" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C159" s="12" t="s">
         <v>12</v>
@@ -37695,26 +37433,27 @@
         <v>2</v>
       </c>
       <c r="E159" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F159" s="12" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G159" s="14" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H159" s="12" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="I159"/>
       <c r="K159"/>
+      <c r="L159"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A160" s="12" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B160" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C160" s="12" t="s">
         <v>12</v>
@@ -37723,21 +37462,22 @@
         <v>2</v>
       </c>
       <c r="E160" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F160" s="12" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G160" s="14" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H160" s="12" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="I160"/>
       <c r="K160"/>
+      <c r="L160"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A161"/>
       <c r="B161"/>
       <c r="C161"/>
@@ -37748,13 +37488,14 @@
       <c r="H161"/>
       <c r="I161"/>
       <c r="K161"/>
+      <c r="L161"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A162" s="12" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B162" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C162" s="12" t="s">
         <v>12</v>
@@ -37763,26 +37504,27 @@
         <v>2</v>
       </c>
       <c r="E162" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F162" s="12">
         <v>21517</v>
       </c>
       <c r="G162" s="14" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H162" s="12">
         <v>25000</v>
       </c>
       <c r="I162"/>
       <c r="K162"/>
+      <c r="L162"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A163" s="12" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B163" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C163" s="12" t="s">
         <v>12</v>
@@ -37791,7 +37533,7 @@
         <v>2</v>
       </c>
       <c r="E163" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F163" s="12">
         <v>21517</v>
@@ -37804,13 +37546,14 @@
       </c>
       <c r="I163"/>
       <c r="K163"/>
+      <c r="L163"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A164" s="12" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B164" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C164" s="12" t="s">
         <v>12</v>
@@ -37819,7 +37562,7 @@
         <v>2</v>
       </c>
       <c r="E164" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F164" s="12">
         <v>21517</v>
@@ -37832,13 +37575,14 @@
       </c>
       <c r="I164"/>
       <c r="K164"/>
+      <c r="L164"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A165" s="12" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B165" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C165" s="12" t="s">
         <v>12</v>
@@ -37847,26 +37591,27 @@
         <v>2</v>
       </c>
       <c r="E165" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F165" s="12">
         <v>21517</v>
       </c>
       <c r="G165" s="14" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H165" s="12">
         <v>0.45</v>
       </c>
       <c r="I165"/>
       <c r="K165"/>
+      <c r="L165"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A166" s="12" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B166" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C166" s="12" t="s">
         <v>12</v>
@@ -37875,26 +37620,27 @@
         <v>2</v>
       </c>
       <c r="E166" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F166" s="12">
         <v>21517</v>
       </c>
       <c r="G166" s="14" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="H166" s="12">
         <v>0.45</v>
       </c>
       <c r="I166"/>
       <c r="K166"/>
+      <c r="L166"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A167" s="12" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B167" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C167" s="12" t="s">
         <v>12</v>
@@ -37903,26 +37649,27 @@
         <v>2</v>
       </c>
       <c r="E167" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F167" s="12">
         <v>21517</v>
       </c>
       <c r="G167" s="14" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="H167" s="12">
         <v>0.45</v>
       </c>
       <c r="I167"/>
       <c r="K167"/>
+      <c r="L167"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A168" s="12" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B168" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C168" s="12" t="s">
         <v>12</v>
@@ -37931,21 +37678,22 @@
         <v>2</v>
       </c>
       <c r="E168" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F168" s="12">
         <v>21517</v>
       </c>
       <c r="G168" s="14" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="H168" s="12">
         <v>0.45</v>
       </c>
       <c r="I168"/>
       <c r="K168"/>
+      <c r="L168"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A169"/>
       <c r="B169"/>
       <c r="C169"/>
@@ -37956,13 +37704,14 @@
       <c r="H169"/>
       <c r="I169"/>
       <c r="K169"/>
+      <c r="L169"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A170" s="12" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B170" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C170" s="12" t="s">
         <v>12</v>
@@ -37971,7 +37720,7 @@
         <v>2</v>
       </c>
       <c r="E170" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F170" s="12">
         <v>11090</v>
@@ -37984,13 +37733,14 @@
       </c>
       <c r="I170"/>
       <c r="K170"/>
+      <c r="L170"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A171" s="12" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B171" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C171" s="12" t="s">
         <v>12</v>
@@ -37999,7 +37749,7 @@
         <v>2</v>
       </c>
       <c r="E171" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F171" s="12">
         <v>11090</v>
@@ -38012,8 +37762,9 @@
       </c>
       <c r="I171"/>
       <c r="K171"/>
+      <c r="L171"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A172"/>
       <c r="B172"/>
       <c r="C172"/>
@@ -38024,13 +37775,14 @@
       <c r="H172"/>
       <c r="I172"/>
       <c r="K172"/>
+      <c r="L172"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A173" s="12" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B173" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C173" s="12" t="s">
         <v>12</v>
@@ -38039,26 +37791,27 @@
         <v>2</v>
       </c>
       <c r="E173" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F173" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G173" s="14" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H173" s="12">
         <v>601.76969999999994</v>
       </c>
       <c r="I173"/>
       <c r="K173"/>
+      <c r="L173"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A174" s="12" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B174" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C174" s="12" t="s">
         <v>12</v>
@@ -38067,26 +37820,27 @@
         <v>2</v>
       </c>
       <c r="E174" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F174" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G174" s="14" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="H174" s="12">
         <v>4.9606469999999998</v>
       </c>
       <c r="I174"/>
       <c r="K174"/>
+      <c r="L174"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A175" s="12" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B175" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C175" s="12" t="s">
         <v>12</v>
@@ -38095,26 +37849,27 @@
         <v>2</v>
       </c>
       <c r="E175" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F175" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G175" s="14" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="H175" s="12">
         <v>-1135.396</v>
       </c>
       <c r="I175"/>
       <c r="K175"/>
+      <c r="L175"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A176" s="12" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B176" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C176" s="12" t="s">
         <v>12</v>
@@ -38123,26 +37878,27 @@
         <v>2</v>
       </c>
       <c r="E176" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F176" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G176" s="14" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H176" s="12">
         <v>2.6914E-2</v>
       </c>
       <c r="I176"/>
       <c r="K176"/>
+      <c r="L176"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A177" s="12" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B177" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C177" s="12" t="s">
         <v>12</v>
@@ -38151,26 +37907,27 @@
         <v>2</v>
       </c>
       <c r="E177" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F177" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G177" s="14" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H177" s="12">
         <v>0</v>
       </c>
       <c r="I177"/>
       <c r="K177"/>
+      <c r="L177"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A178" s="12" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B178" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C178" s="12" t="s">
         <v>12</v>
@@ -38179,13 +37936,13 @@
         <v>2</v>
       </c>
       <c r="E178" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F178" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G178" s="14" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="H178" s="12">
         <v>0</v>
@@ -38194,13 +37951,14 @@
         <v>33</v>
       </c>
       <c r="K178"/>
+      <c r="L178"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A179" s="12" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B179" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C179" s="12" t="s">
         <v>12</v>
@@ -38209,26 +37967,27 @@
         <v>2</v>
       </c>
       <c r="E179" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F179" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G179" s="14" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H179" s="12">
         <v>0</v>
       </c>
       <c r="I179"/>
       <c r="K179"/>
+      <c r="L179"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A180" s="12" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B180" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C180" s="12" t="s">
         <v>12</v>
@@ -38237,13 +37996,13 @@
         <v>2</v>
       </c>
       <c r="E180" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F180" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G180" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H180" s="12">
         <v>1</v>
@@ -38252,13 +38011,14 @@
         <v>33</v>
       </c>
       <c r="K180"/>
+      <c r="L180"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A181" s="12" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B181" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C181" s="12" t="s">
         <v>12</v>
@@ -38267,26 +38027,27 @@
         <v>2</v>
       </c>
       <c r="E181" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F181" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G181" s="14" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H181" s="12">
         <v>27.81081</v>
       </c>
       <c r="I181"/>
       <c r="K181"/>
+      <c r="L181"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A182" s="12" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B182" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C182" s="12" t="s">
         <v>12</v>
@@ -38295,26 +38056,27 @@
         <v>2</v>
       </c>
       <c r="E182" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F182" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G182" s="14" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H182" s="12">
         <v>0.55913900000000005</v>
       </c>
       <c r="I182"/>
       <c r="K182"/>
+      <c r="L182"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A183" s="12" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B183" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C183" s="12" t="s">
         <v>12</v>
@@ -38323,26 +38085,27 @@
         <v>2</v>
       </c>
       <c r="E183" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F183" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G183" s="14" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H183" s="12">
         <v>19.907679999999999</v>
       </c>
       <c r="I183"/>
       <c r="K183"/>
+      <c r="L183"/>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A184" s="12" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B184" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C184" s="12" t="s">
         <v>12</v>
@@ -38351,13 +38114,13 @@
         <v>2</v>
       </c>
       <c r="E184" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F184" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G184" s="14" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H184" s="12">
         <v>35.665750000000003</v>
@@ -38365,13 +38128,14 @@
       <c r="I184"/>
       <c r="J184"/>
       <c r="K184"/>
+      <c r="L184"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A185" s="12" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B185" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C185" s="12" t="s">
         <v>12</v>
@@ -38380,13 +38144,13 @@
         <v>2</v>
       </c>
       <c r="E185" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F185" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G185" s="14" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H185" s="12">
         <v>5.7847879999999998</v>
@@ -38394,13 +38158,14 @@
       <c r="I185"/>
       <c r="J185"/>
       <c r="K185"/>
+      <c r="L185"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A186" s="12" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B186" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C186" s="12" t="s">
         <v>12</v>
@@ -38409,13 +38174,13 @@
         <v>2</v>
       </c>
       <c r="E186" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F186" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G186" s="14" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H186" s="12">
         <v>-3942.6729999999998</v>
@@ -38423,13 +38188,14 @@
       <c r="I186"/>
       <c r="J186"/>
       <c r="K186"/>
+      <c r="L186"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A187" s="12" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B187" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C187" s="12" t="s">
         <v>12</v>
@@ -38438,13 +38204,13 @@
         <v>2</v>
       </c>
       <c r="E187" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F187" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G187" s="14" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H187" s="12">
         <v>-11520.64</v>
@@ -38452,13 +38218,14 @@
       <c r="I187"/>
       <c r="J187"/>
       <c r="K187"/>
+      <c r="L187"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A188" s="12" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B188" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C188" s="12" t="s">
         <v>12</v>
@@ -38467,26 +38234,27 @@
         <v>2</v>
       </c>
       <c r="E188" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F188" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G188" s="14" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H188" s="12">
         <v>0</v>
       </c>
       <c r="I188"/>
       <c r="K188"/>
+      <c r="L188"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A189" s="12" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B189" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C189" s="12" t="s">
         <v>12</v>
@@ -38495,26 +38263,27 @@
         <v>2</v>
       </c>
       <c r="E189" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F189" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G189" s="14" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H189" s="12">
         <v>8388.6</v>
       </c>
       <c r="I189"/>
       <c r="K189"/>
+      <c r="L189"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A190" s="12" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B190" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C190" s="12" t="s">
         <v>12</v>
@@ -38523,21 +38292,22 @@
         <v>2</v>
       </c>
       <c r="E190" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F190" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G190" s="14" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="H190" s="12">
         <v>125829.1</v>
       </c>
       <c r="I190"/>
       <c r="K190"/>
+      <c r="L190"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A191"/>
       <c r="B191"/>
       <c r="C191"/>
@@ -38548,13 +38318,14 @@
       <c r="H191"/>
       <c r="I191"/>
       <c r="K191"/>
+      <c r="L191"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A192" s="12" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B192" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C192" s="12" t="s">
         <v>12</v>
@@ -38563,26 +38334,27 @@
         <v>2</v>
       </c>
       <c r="E192" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F192" s="12" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G192" s="14" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H192" s="12">
         <v>5.8999999999999999E-3</v>
       </c>
       <c r="I192"/>
       <c r="K192"/>
+      <c r="L192"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A193" s="12" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B193" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C193" s="12" t="s">
         <v>12</v>
@@ -38591,26 +38363,27 @@
         <v>2</v>
       </c>
       <c r="E193" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F193" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="G193" s="14" t="s">
         <v>149</v>
-      </c>
-      <c r="G193" s="14" t="s">
-        <v>151</v>
       </c>
       <c r="H193" s="12">
         <v>0.76880000000000004</v>
       </c>
       <c r="I193"/>
       <c r="K193"/>
+      <c r="L193"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A194" s="12" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B194" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C194" s="12" t="s">
         <v>12</v>
@@ -38619,26 +38392,27 @@
         <v>2</v>
       </c>
       <c r="E194" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F194" s="12" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G194" s="14" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="H194" s="12">
         <v>-1.6688000000000001</v>
       </c>
       <c r="I194"/>
       <c r="K194"/>
+      <c r="L194"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A195" s="12" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B195" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C195" s="12" t="s">
         <v>12</v>
@@ -38647,26 +38421,27 @@
         <v>2</v>
       </c>
       <c r="E195" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F195" s="12" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G195" s="14" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H195" s="12">
         <v>15.7</v>
       </c>
       <c r="I195"/>
       <c r="K195"/>
+      <c r="L195"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A196" s="12" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B196" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C196" s="12" t="s">
         <v>12</v>
@@ -38675,10 +38450,10 @@
         <v>2</v>
       </c>
       <c r="E196" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F196" s="12" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G196" s="14" t="s">
         <v>26</v>
@@ -38688,13 +38463,14 @@
       </c>
       <c r="I196"/>
       <c r="K196"/>
+      <c r="L196"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A197" s="12" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B197" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C197" s="12" t="s">
         <v>12</v>
@@ -38703,26 +38479,27 @@
         <v>2</v>
       </c>
       <c r="E197" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F197" s="12" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G197" s="14" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H197" s="12">
         <v>34</v>
       </c>
       <c r="I197"/>
       <c r="K197"/>
+      <c r="L197"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A198" s="12" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B198" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C198" s="12" t="s">
         <v>12</v>
@@ -38731,10 +38508,10 @@
         <v>2</v>
       </c>
       <c r="E198" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F198" s="12" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G198" s="14" t="s">
         <v>28</v>
@@ -38744,13 +38521,14 @@
       </c>
       <c r="I198"/>
       <c r="K198"/>
+      <c r="L198"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A199" s="12" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B199" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C199" s="12" t="s">
         <v>12</v>
@@ -38759,21 +38537,22 @@
         <v>2</v>
       </c>
       <c r="E199" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F199" s="12" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G199" s="14" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="H199" s="12">
         <v>44327</v>
       </c>
       <c r="I199"/>
       <c r="K199"/>
+      <c r="L199"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A200"/>
       <c r="B200"/>
       <c r="C200"/>
@@ -38784,13 +38563,14 @@
       <c r="H200"/>
       <c r="I200"/>
       <c r="K200"/>
+      <c r="L200"/>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A201" s="12" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B201" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C201" s="12" t="s">
         <v>12</v>
@@ -38799,26 +38579,27 @@
         <v>2</v>
       </c>
       <c r="E201" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F201" s="12" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G201" s="14" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H201" s="12">
         <v>7.1999999999999998E-3</v>
       </c>
       <c r="I201"/>
       <c r="K201"/>
+      <c r="L201"/>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A202" s="12" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B202" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C202" s="12" t="s">
         <v>12</v>
@@ -38827,26 +38608,27 @@
         <v>2</v>
       </c>
       <c r="E202" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F202" s="12" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G202" s="14" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H202" s="12">
         <v>0.73519999999999996</v>
       </c>
       <c r="I202"/>
       <c r="K202"/>
+      <c r="L202"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A203" s="12" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B203" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C203" s="12" t="s">
         <v>12</v>
@@ -38855,13 +38637,13 @@
         <v>2</v>
       </c>
       <c r="E203" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F203" s="12" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G203" s="14" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="H203" s="12">
         <v>-1.5599000000000001</v>
@@ -38869,13 +38651,14 @@
       <c r="I203"/>
       <c r="J203"/>
       <c r="K203"/>
+      <c r="L203"/>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A204" s="12" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B204" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C204" s="12" t="s">
         <v>12</v>
@@ -38884,13 +38667,13 @@
         <v>2</v>
       </c>
       <c r="E204" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F204" s="12" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G204" s="14" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H204" s="12">
         <v>14.6</v>
@@ -38898,13 +38681,14 @@
       <c r="I204"/>
       <c r="J204"/>
       <c r="K204"/>
+      <c r="L204"/>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A205" s="12" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B205" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C205" s="12" t="s">
         <v>12</v>
@@ -38913,10 +38697,10 @@
         <v>2</v>
       </c>
       <c r="E205" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F205" s="12" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G205" s="14" t="s">
         <v>26</v>
@@ -38927,13 +38711,14 @@
       <c r="I205"/>
       <c r="J205"/>
       <c r="K205"/>
+      <c r="L205"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A206" s="12" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B206" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C206" s="12" t="s">
         <v>12</v>
@@ -38942,13 +38727,13 @@
         <v>2</v>
       </c>
       <c r="E206" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F206" s="12" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G206" s="14" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H206" s="12">
         <v>34</v>
@@ -38956,13 +38741,14 @@
       <c r="I206"/>
       <c r="J206"/>
       <c r="K206"/>
+      <c r="L206"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A207" s="12" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B207" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C207" s="12" t="s">
         <v>12</v>
@@ -38971,10 +38757,10 @@
         <v>2</v>
       </c>
       <c r="E207" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F207" s="12" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G207" s="14" t="s">
         <v>28</v>
@@ -38985,13 +38771,14 @@
       <c r="I207"/>
       <c r="J207"/>
       <c r="K207"/>
+      <c r="L207"/>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A208" s="12" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B208" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C208" s="12" t="s">
         <v>12</v>
@@ -39000,21 +38787,22 @@
         <v>2</v>
       </c>
       <c r="E208" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F208" s="12" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G208" s="14" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="H208" s="12">
         <v>44327</v>
       </c>
       <c r="I208"/>
       <c r="K208"/>
+      <c r="L208"/>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A209"/>
       <c r="B209"/>
       <c r="C209"/>
@@ -39024,8 +38812,9 @@
       <c r="G209" s="14"/>
       <c r="I209"/>
       <c r="K209"/>
+      <c r="L209"/>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A210"/>
       <c r="B210"/>
       <c r="C210"/>
@@ -39034,11 +38823,12 @@
       <c r="F210"/>
       <c r="G210" s="14"/>
       <c r="J210" s="12" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="K210"/>
+      <c r="L210"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A211"/>
       <c r="B211"/>
       <c r="C211"/>
@@ -39048,8 +38838,9 @@
       <c r="G211" s="14"/>
       <c r="J211"/>
       <c r="K211"/>
+      <c r="L211"/>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A212"/>
       <c r="B212"/>
       <c r="C212"/>
@@ -39058,11 +38849,12 @@
       <c r="F212"/>
       <c r="G212" s="14"/>
       <c r="J212" s="12" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="K212"/>
+      <c r="L212"/>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A213"/>
       <c r="B213"/>
       <c r="C213"/>
@@ -39072,13 +38864,14 @@
       <c r="G213" s="14"/>
       <c r="I213"/>
       <c r="K213"/>
+      <c r="L213"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A214" s="12" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B214" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C214" s="12" t="s">
         <v>12</v>
@@ -39087,23 +38880,24 @@
         <v>2</v>
       </c>
       <c r="E214" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F214" s="18" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G214" s="14"/>
       <c r="I214" s="12" t="s">
         <v>19</v>
       </c>
       <c r="K214"/>
+      <c r="L214"/>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A215" s="12" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B215" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C215" s="12" t="s">
         <v>12</v>
@@ -39112,18 +38906,19 @@
         <v>2</v>
       </c>
       <c r="E215" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F215" s="18" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G215" s="14"/>
       <c r="I215" s="12" t="s">
         <v>19</v>
       </c>
       <c r="K215"/>
+      <c r="L215"/>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A216"/>
       <c r="B216"/>
       <c r="C216"/>
@@ -39133,13 +38928,14 @@
       <c r="G216" s="14"/>
       <c r="I216"/>
       <c r="K216"/>
+      <c r="L216"/>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A217" s="12" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B217" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C217" s="12" t="s">
         <v>12</v>
@@ -39148,23 +38944,24 @@
         <v>2</v>
       </c>
       <c r="E217" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F217" s="18" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G217" s="14"/>
       <c r="I217" s="12" t="s">
         <v>19</v>
       </c>
       <c r="K217"/>
+      <c r="L217"/>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A218" s="12" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B218" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C218" s="12" t="s">
         <v>12</v>
@@ -39173,23 +38970,24 @@
         <v>2</v>
       </c>
       <c r="E218" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F218" s="18" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G218" s="14"/>
       <c r="I218" s="12" t="s">
         <v>19</v>
       </c>
       <c r="K218"/>
+      <c r="L218"/>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A219" s="12" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B219" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C219" s="12" t="s">
         <v>12</v>
@@ -39198,22 +38996,23 @@
         <v>2</v>
       </c>
       <c r="E219" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F219" s="18" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="I219" s="12" t="s">
         <v>19</v>
       </c>
       <c r="K219"/>
+      <c r="L219"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A220" s="12" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B220" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C220" s="12" t="s">
         <v>12</v>
@@ -39222,15 +39021,22 @@
         <v>2</v>
       </c>
       <c r="E220" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F220" s="18" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="I220" s="12" t="s">
         <v>19</v>
       </c>
       <c r="K220"/>
+      <c r="L220"/>
+    </row>
+    <row r="221" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L221"/>
+    </row>
+    <row r="222" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L222"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/deployment/Omaha_Cal_Info_CE01ISSM_00002.xlsx
+++ b/deployment/Omaha_Cal_Info_CE01ISSM_00002.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AST1799\Documents\OOI\OOI Douments\CI\asset-management\deployment\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27127"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="759" activeTab="1"/>
+    <workbookView xWindow="13580" yWindow="1420" windowWidth="22760" windowHeight="19360" tabRatio="759" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="1" r:id="rId1"/>
@@ -20,7 +15,12 @@
     <sheet name="ACS182_CC_tcarray" sheetId="6" r:id="rId6"/>
     <sheet name="Sheet7" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -662,7 +662,7 @@
     <numFmt numFmtId="164" formatCode="d\-mmm\-yy;@"/>
     <numFmt numFmtId="165" formatCode="0.000000"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -702,6 +702,22 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -761,9 +777,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -831,7 +849,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
+    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="TableStyleLight1" xfId="1"/>
   </cellStyles>
@@ -959,7 +979,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -994,7 +1014,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1205,30 +1225,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AML2"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" style="1"/>
-    <col min="3" max="3" width="20.140625" style="1"/>
-    <col min="4" max="4" width="15.7109375" style="1"/>
-    <col min="5" max="5" width="11.5703125" style="2"/>
-    <col min="6" max="6" width="11.28515625" style="3"/>
-    <col min="7" max="7" width="11.7109375" style="2"/>
-    <col min="8" max="8" width="11.7109375" style="1"/>
-    <col min="9" max="9" width="13.7109375" style="1"/>
-    <col min="10" max="10" width="14.28515625" style="1"/>
-    <col min="11" max="11" width="11.5703125" style="1"/>
-    <col min="12" max="12" width="21" style="1"/>
-    <col min="13" max="13" width="12" style="1"/>
-    <col min="14" max="14" width="12.7109375" style="1"/>
-    <col min="15" max="1026" width="8.85546875" style="1"/>
+    <col min="2" max="4" width="8.83203125" style="1"/>
+    <col min="5" max="5" width="8.83203125" style="2"/>
+    <col min="6" max="6" width="8.83203125" style="3"/>
+    <col min="7" max="7" width="8.83203125" style="2"/>
+    <col min="8" max="1026" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="4" customFormat="1" ht="42">
       <c r="A1" s="22" t="s">
         <v>172</v>
       </c>
@@ -1266,7 +1277,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
         <v>174</v>
       </c>
@@ -1307,6 +1318,11 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1314,25 +1330,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMM222"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I10" sqref="A10:XFD10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="31" style="12"/>
-    <col min="2" max="2" width="12.140625" style="14" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" style="12" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" style="12" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" style="14" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" style="12" customWidth="1"/>
+    <col min="1" max="1" width="25" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.1640625" style="14" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" style="12" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" style="12" customWidth="1"/>
+    <col min="5" max="5" width="13.83203125" style="14" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" style="12" customWidth="1"/>
     <col min="7" max="7" width="23" style="12" customWidth="1"/>
-    <col min="8" max="8" width="27.7109375" style="12" customWidth="1"/>
-    <col min="9" max="9" width="29.140625" style="12"/>
-    <col min="10" max="1027" width="8.85546875" style="12"/>
+    <col min="8" max="8" width="27.6640625" style="12" customWidth="1"/>
+    <col min="9" max="1027" width="8.83203125" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1026" s="13" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1026" s="13" customFormat="1" ht="28">
       <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
@@ -1361,7 +1376,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:1026" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1026">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -2389,7 +2404,7 @@
       <c r="AMK2"/>
       <c r="AML2"/>
     </row>
-    <row r="3" spans="1:1026" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1026">
       <c r="A3" s="12" t="s">
         <v>18</v>
       </c>
@@ -3431,7 +3446,7 @@
       <c r="AMK3"/>
       <c r="AML3"/>
     </row>
-    <row r="4" spans="1:1026" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1026">
       <c r="A4"/>
       <c r="B4"/>
       <c r="C4"/>
@@ -4459,7 +4474,7 @@
       <c r="AMK4"/>
       <c r="AML4"/>
     </row>
-    <row r="5" spans="1:1026" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1026">
       <c r="A5" s="12" t="s">
         <v>20</v>
       </c>
@@ -5503,7 +5518,7 @@
       <c r="AMK5"/>
       <c r="AML5"/>
     </row>
-    <row r="6" spans="1:1026" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1026">
       <c r="A6" s="12" t="s">
         <v>20</v>
       </c>
@@ -6547,7 +6562,7 @@
       <c r="AMK6"/>
       <c r="AML6"/>
     </row>
-    <row r="7" spans="1:1026" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1026">
       <c r="A7"/>
       <c r="B7"/>
       <c r="C7"/>
@@ -7575,7 +7590,7 @@
       <c r="AMK7"/>
       <c r="AML7"/>
     </row>
-    <row r="8" spans="1:1026" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1026">
       <c r="A8" s="12" t="s">
         <v>23</v>
       </c>
@@ -8619,7 +8634,7 @@
       <c r="AMK8"/>
       <c r="AML8"/>
     </row>
-    <row r="9" spans="1:1026" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1026">
       <c r="A9" s="12" t="s">
         <v>23</v>
       </c>
@@ -9662,7 +9677,7 @@
       <c r="AMK9"/>
       <c r="AML9"/>
     </row>
-    <row r="10" spans="1:1026" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1026">
       <c r="A10"/>
       <c r="B10"/>
       <c r="C10"/>
@@ -10689,7 +10704,7 @@
       <c r="AMK10"/>
       <c r="AML10"/>
     </row>
-    <row r="11" spans="1:1026" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1026">
       <c r="A11" s="12" t="s">
         <v>24</v>
       </c>
@@ -11732,7 +11747,7 @@
       <c r="AMK11"/>
       <c r="AML11"/>
     </row>
-    <row r="12" spans="1:1026" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1026">
       <c r="A12" s="12" t="s">
         <v>24</v>
       </c>
@@ -12775,7 +12790,7 @@
       <c r="AMK12"/>
       <c r="AML12"/>
     </row>
-    <row r="13" spans="1:1026" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1026">
       <c r="A13" s="12" t="s">
         <v>24</v>
       </c>
@@ -13818,7 +13833,7 @@
       <c r="AMK13"/>
       <c r="AML13"/>
     </row>
-    <row r="14" spans="1:1026" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1026">
       <c r="A14" s="12" t="s">
         <v>24</v>
       </c>
@@ -14861,7 +14876,7 @@
       <c r="AMK14"/>
       <c r="AML14"/>
     </row>
-    <row r="15" spans="1:1026" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1026">
       <c r="A15" s="12" t="s">
         <v>24</v>
       </c>
@@ -15904,7 +15919,7 @@
       <c r="AMK15"/>
       <c r="AML15"/>
     </row>
-    <row r="16" spans="1:1026" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1026">
       <c r="A16" s="12" t="s">
         <v>24</v>
       </c>
@@ -16947,7 +16962,7 @@
       <c r="AMK16"/>
       <c r="AML16"/>
     </row>
-    <row r="17" spans="1:1026" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1026">
       <c r="A17" s="12" t="s">
         <v>24</v>
       </c>
@@ -17990,7 +18005,7 @@
       <c r="AMK17"/>
       <c r="AML17"/>
     </row>
-    <row r="18" spans="1:1026" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1026">
       <c r="A18"/>
       <c r="B18"/>
       <c r="C18"/>
@@ -19017,7 +19032,7 @@
       <c r="AMK18"/>
       <c r="AML18"/>
     </row>
-    <row r="19" spans="1:1026" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1026">
       <c r="A19" s="12" t="s">
         <v>34</v>
       </c>
@@ -20060,7 +20075,7 @@
       <c r="AMK19"/>
       <c r="AML19"/>
     </row>
-    <row r="20" spans="1:1026" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1026">
       <c r="A20" s="12" t="s">
         <v>34</v>
       </c>
@@ -21103,7 +21118,7 @@
       <c r="AMK20"/>
       <c r="AML20"/>
     </row>
-    <row r="21" spans="1:1026" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1026">
       <c r="A21" s="12" t="s">
         <v>34</v>
       </c>
@@ -22146,7 +22161,7 @@
       <c r="AMK21"/>
       <c r="AML21"/>
     </row>
-    <row r="22" spans="1:1026" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1026">
       <c r="A22" s="12" t="s">
         <v>34</v>
       </c>
@@ -23189,7 +23204,7 @@
       <c r="AMK22"/>
       <c r="AML22"/>
     </row>
-    <row r="23" spans="1:1026" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1026">
       <c r="A23" s="12" t="s">
         <v>34</v>
       </c>
@@ -24232,7 +24247,7 @@
       <c r="AMK23"/>
       <c r="AML23"/>
     </row>
-    <row r="24" spans="1:1026" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1026">
       <c r="A24" s="12" t="s">
         <v>34</v>
       </c>
@@ -25275,7 +25290,7 @@
       <c r="AMK24"/>
       <c r="AML24"/>
     </row>
-    <row r="25" spans="1:1026" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1026">
       <c r="A25" s="12" t="s">
         <v>34</v>
       </c>
@@ -26318,7 +26333,7 @@
       <c r="AMK25"/>
       <c r="AML25"/>
     </row>
-    <row r="26" spans="1:1026" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1026">
       <c r="A26"/>
       <c r="B26"/>
       <c r="C26"/>
@@ -27345,7 +27360,7 @@
       <c r="AMK26"/>
       <c r="AML26"/>
     </row>
-    <row r="27" spans="1:1026" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1026">
       <c r="A27" s="12" t="s">
         <v>36</v>
       </c>
@@ -28388,7 +28403,7 @@
       <c r="AMK27"/>
       <c r="AML27"/>
     </row>
-    <row r="28" spans="1:1026" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1026">
       <c r="A28" s="12" t="s">
         <v>36</v>
       </c>
@@ -29431,7 +29446,7 @@
       <c r="AMK28"/>
       <c r="AML28"/>
     </row>
-    <row r="29" spans="1:1026" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1026">
       <c r="A29" s="12" t="s">
         <v>36</v>
       </c>
@@ -30473,7 +30488,7 @@
       <c r="AMK29"/>
       <c r="AML29"/>
     </row>
-    <row r="30" spans="1:1026" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1026">
       <c r="A30" s="12" t="s">
         <v>36</v>
       </c>
@@ -31515,7 +31530,7 @@
       <c r="AMK30"/>
       <c r="AML30"/>
     </row>
-    <row r="31" spans="1:1026" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1026">
       <c r="A31" s="12" t="s">
         <v>36</v>
       </c>
@@ -32558,7 +32573,7 @@
       <c r="AMK31"/>
       <c r="AML31"/>
     </row>
-    <row r="32" spans="1:1026" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1026">
       <c r="A32" s="12" t="s">
         <v>36</v>
       </c>
@@ -33601,7 +33616,7 @@
       <c r="AMK32"/>
       <c r="AML32"/>
     </row>
-    <row r="33" spans="1:1026" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1026">
       <c r="A33" s="12" t="s">
         <v>36</v>
       </c>
@@ -34644,7 +34659,7 @@
       <c r="AMK33"/>
       <c r="AML33"/>
     </row>
-    <row r="34" spans="1:1026" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1026" s="16" customFormat="1">
       <c r="A34" s="16" t="s">
         <v>36</v>
       </c>
@@ -34672,7 +34687,7 @@
       <c r="K34"/>
       <c r="L34"/>
     </row>
-    <row r="35" spans="1:1026" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1026">
       <c r="A35"/>
       <c r="B35"/>
       <c r="C35"/>
@@ -34685,7 +34700,7 @@
       <c r="K35"/>
       <c r="L35"/>
     </row>
-    <row r="36" spans="1:1026" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1026">
       <c r="A36" s="12" t="s">
         <v>52</v>
       </c>
@@ -34714,7 +34729,7 @@
       <c r="K36"/>
       <c r="L36"/>
     </row>
-    <row r="37" spans="1:1026" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1026">
       <c r="A37" s="12" t="s">
         <v>52</v>
       </c>
@@ -34743,7 +34758,7 @@
       <c r="K37"/>
       <c r="L37"/>
     </row>
-    <row r="38" spans="1:1026" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1026">
       <c r="A38" s="12" t="s">
         <v>52</v>
       </c>
@@ -34772,7 +34787,7 @@
       <c r="K38"/>
       <c r="L38"/>
     </row>
-    <row r="39" spans="1:1026" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1026">
       <c r="A39" s="12" t="s">
         <v>52</v>
       </c>
@@ -34801,7 +34816,7 @@
       <c r="K39"/>
       <c r="L39"/>
     </row>
-    <row r="40" spans="1:1026" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1026">
       <c r="A40" s="12" t="s">
         <v>52</v>
       </c>
@@ -34830,7 +34845,7 @@
       <c r="K40"/>
       <c r="L40"/>
     </row>
-    <row r="41" spans="1:1026" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1026">
       <c r="A41" s="12" t="s">
         <v>52</v>
       </c>
@@ -34859,7 +34874,7 @@
       <c r="K41"/>
       <c r="L41"/>
     </row>
-    <row r="42" spans="1:1026" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1026">
       <c r="A42" s="12" t="s">
         <v>52</v>
       </c>
@@ -34888,7 +34903,7 @@
       <c r="K42"/>
       <c r="L42"/>
     </row>
-    <row r="43" spans="1:1026" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1026">
       <c r="A43" s="12" t="s">
         <v>52</v>
       </c>
@@ -34918,7 +34933,7 @@
       <c r="K43"/>
       <c r="L43"/>
     </row>
-    <row r="44" spans="1:1026" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1026">
       <c r="A44"/>
       <c r="B44"/>
       <c r="C44"/>
@@ -34931,7 +34946,7 @@
       <c r="K44"/>
       <c r="L44"/>
     </row>
-    <row r="45" spans="1:1026" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1026">
       <c r="J45" s="12" t="s">
         <v>60</v>
       </c>
@@ -34940,7 +34955,7 @@
       <c r="N45" s="14"/>
       <c r="P45"/>
     </row>
-    <row r="46" spans="1:1026" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1026">
       <c r="J46" s="12" t="s">
         <v>60</v>
       </c>
@@ -34949,7 +34964,7 @@
       <c r="N46" s="14"/>
       <c r="P46"/>
     </row>
-    <row r="47" spans="1:1026" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1026">
       <c r="J47" s="12" t="s">
         <v>60</v>
       </c>
@@ -34958,7 +34973,7 @@
       <c r="N47" s="14"/>
       <c r="P47"/>
     </row>
-    <row r="48" spans="1:1026" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1026">
       <c r="J48" s="12" t="s">
         <v>60</v>
       </c>
@@ -34967,7 +34982,7 @@
       <c r="N48" s="14"/>
       <c r="P48"/>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16">
       <c r="J49" s="12" t="s">
         <v>60</v>
       </c>
@@ -34976,7 +34991,7 @@
       <c r="N49" s="14"/>
       <c r="P49"/>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16">
       <c r="J50" s="12" t="s">
         <v>60</v>
       </c>
@@ -34985,7 +35000,7 @@
       <c r="N50" s="14"/>
       <c r="P50"/>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16">
       <c r="J51" s="12" t="s">
         <v>60</v>
       </c>
@@ -34993,7 +35008,7 @@
       <c r="L51"/>
       <c r="N51" s="14"/>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:16">
       <c r="J52" s="12" t="s">
         <v>60</v>
       </c>
@@ -35001,7 +35016,7 @@
       <c r="L52"/>
       <c r="N52" s="14"/>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:16">
       <c r="J53" s="12" t="s">
         <v>60</v>
       </c>
@@ -35009,7 +35024,7 @@
       <c r="L53"/>
       <c r="N53" s="14"/>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:16">
       <c r="J54" s="12" t="s">
         <v>60</v>
       </c>
@@ -35017,7 +35032,7 @@
       <c r="L54"/>
       <c r="N54" s="14"/>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:16">
       <c r="A55"/>
       <c r="B55"/>
       <c r="C55"/>
@@ -35030,7 +35045,7 @@
       <c r="K55"/>
       <c r="L55"/>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:16">
       <c r="A56" s="12" t="s">
         <v>71</v>
       </c>
@@ -35059,7 +35074,7 @@
       <c r="K56"/>
       <c r="L56"/>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:16">
       <c r="A57" s="12" t="s">
         <v>71</v>
       </c>
@@ -35088,7 +35103,7 @@
       <c r="K57"/>
       <c r="L57"/>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:16">
       <c r="A58" s="12" t="s">
         <v>71</v>
       </c>
@@ -35117,7 +35132,7 @@
       <c r="K58"/>
       <c r="L58"/>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:16">
       <c r="A59" s="12" t="s">
         <v>71</v>
       </c>
@@ -35146,7 +35161,7 @@
       <c r="K59"/>
       <c r="L59"/>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:16">
       <c r="A60" s="12" t="s">
         <v>71</v>
       </c>
@@ -35175,7 +35190,7 @@
       <c r="K60"/>
       <c r="L60"/>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:16">
       <c r="A61" s="12" t="s">
         <v>71</v>
       </c>
@@ -35204,7 +35219,7 @@
       <c r="K61"/>
       <c r="L61"/>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:16">
       <c r="A62" s="12" t="s">
         <v>71</v>
       </c>
@@ -35227,7 +35242,7 @@
         <v>67</v>
       </c>
       <c r="H62" s="12">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="I62" s="12" t="s">
         <v>33</v>
@@ -35235,7 +35250,7 @@
       <c r="K62"/>
       <c r="L62"/>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:16">
       <c r="A63" s="12" t="s">
         <v>71</v>
       </c>
@@ -35266,7 +35281,7 @@
       <c r="K63"/>
       <c r="L63"/>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:16">
       <c r="A64" s="12" t="s">
         <v>71</v>
       </c>
@@ -35289,7 +35304,7 @@
         <v>69</v>
       </c>
       <c r="H64" s="12">
-        <v>1.08</v>
+        <v>1.0760000000000001</v>
       </c>
       <c r="I64" s="12" t="s">
         <v>33</v>
@@ -35297,7 +35312,7 @@
       <c r="K64"/>
       <c r="L64"/>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15">
       <c r="A65" s="12" t="s">
         <v>71</v>
       </c>
@@ -35328,7 +35343,7 @@
       <c r="K65"/>
       <c r="L65"/>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15">
       <c r="A66"/>
       <c r="B66"/>
       <c r="C66"/>
@@ -35341,7 +35356,7 @@
       <c r="K66"/>
       <c r="L66"/>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15">
       <c r="J67" s="14" t="s">
         <v>72</v>
       </c>
@@ -35350,7 +35365,7 @@
       <c r="N67" s="14"/>
       <c r="O67" s="14"/>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15">
       <c r="J68" s="14" t="s">
         <v>72</v>
       </c>
@@ -35359,7 +35374,7 @@
       <c r="N68" s="14"/>
       <c r="O68" s="14"/>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15">
       <c r="J69" s="12" t="s">
         <v>72</v>
       </c>
@@ -35367,7 +35382,7 @@
       <c r="L69"/>
       <c r="N69" s="14"/>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15">
       <c r="J70" s="12" t="s">
         <v>72</v>
       </c>
@@ -35375,7 +35390,7 @@
       <c r="L70"/>
       <c r="N70" s="14"/>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15">
       <c r="J71" s="12" t="s">
         <v>72</v>
       </c>
@@ -35383,7 +35398,7 @@
       <c r="L71"/>
       <c r="N71" s="14"/>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:15">
       <c r="J72" s="12" t="s">
         <v>72</v>
       </c>
@@ -35391,7 +35406,7 @@
       <c r="L72"/>
       <c r="N72" s="14"/>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:15">
       <c r="J73" s="12" t="s">
         <v>72</v>
       </c>
@@ -35399,7 +35414,7 @@
       <c r="L73"/>
       <c r="N73" s="14"/>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:15">
       <c r="J74" s="12" t="s">
         <v>72</v>
       </c>
@@ -35407,7 +35422,7 @@
       <c r="L74"/>
       <c r="N74" s="14"/>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:15">
       <c r="J75" s="12" t="s">
         <v>72</v>
       </c>
@@ -35415,7 +35430,7 @@
       <c r="L75"/>
       <c r="N75" s="14"/>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:15">
       <c r="J76" s="12" t="s">
         <v>72</v>
       </c>
@@ -35423,7 +35438,7 @@
       <c r="L76"/>
       <c r="N76" s="14"/>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:15">
       <c r="J77" s="12" t="s">
         <v>72</v>
       </c>
@@ -35431,7 +35446,7 @@
       <c r="L77"/>
       <c r="N77" s="14"/>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:15">
       <c r="J78" s="12" t="s">
         <v>72</v>
       </c>
@@ -35439,7 +35454,7 @@
       <c r="L78"/>
       <c r="N78" s="14"/>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:15">
       <c r="J79" s="12" t="s">
         <v>72</v>
       </c>
@@ -35447,7 +35462,7 @@
       <c r="L79"/>
       <c r="N79" s="14"/>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:15">
       <c r="J80" s="12" t="s">
         <v>72</v>
       </c>
@@ -35455,7 +35470,7 @@
       <c r="L80"/>
       <c r="N80" s="14"/>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:14">
       <c r="J81" s="12" t="s">
         <v>72</v>
       </c>
@@ -35463,7 +35478,7 @@
       <c r="L81"/>
       <c r="N81" s="14"/>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:14">
       <c r="J82" s="12" t="s">
         <v>72</v>
       </c>
@@ -35471,7 +35486,7 @@
       <c r="L82"/>
       <c r="N82" s="14"/>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:14">
       <c r="J83" s="12" t="s">
         <v>72</v>
       </c>
@@ -35479,7 +35494,7 @@
       <c r="L83"/>
       <c r="N83" s="14"/>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:14">
       <c r="J84" s="12" t="s">
         <v>72</v>
       </c>
@@ -35487,7 +35502,7 @@
       <c r="L84"/>
       <c r="N84" s="14"/>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:14">
       <c r="J85" s="12" t="s">
         <v>72</v>
       </c>
@@ -35495,7 +35510,7 @@
       <c r="L85"/>
       <c r="N85" s="14"/>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:14">
       <c r="J86" s="12" t="s">
         <v>72</v>
       </c>
@@ -35503,7 +35518,7 @@
       <c r="L86"/>
       <c r="N86" s="14"/>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:14">
       <c r="J87" s="12" t="s">
         <v>72</v>
       </c>
@@ -35511,7 +35526,7 @@
       <c r="L87"/>
       <c r="N87" s="14"/>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:14">
       <c r="J88" s="12" t="s">
         <v>72</v>
       </c>
@@ -35519,7 +35534,7 @@
       <c r="L88"/>
       <c r="N88" s="14"/>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:14">
       <c r="J89" s="12" t="s">
         <v>72</v>
       </c>
@@ -35527,7 +35542,7 @@
       <c r="L89"/>
       <c r="N89" s="14"/>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:14">
       <c r="J90" s="12" t="s">
         <v>72</v>
       </c>
@@ -35535,7 +35550,7 @@
       <c r="L90"/>
       <c r="N90" s="14"/>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:14">
       <c r="A91"/>
       <c r="B91"/>
       <c r="C91"/>
@@ -35548,7 +35563,7 @@
       <c r="K91"/>
       <c r="L91"/>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:14">
       <c r="A92" s="12" t="s">
         <v>72</v>
       </c>
@@ -35577,7 +35592,7 @@
       <c r="K92"/>
       <c r="L92"/>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:14">
       <c r="A93" s="12" t="s">
         <v>72</v>
       </c>
@@ -35606,7 +35621,7 @@
       <c r="K93"/>
       <c r="L93"/>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:14">
       <c r="A94" s="12" t="s">
         <v>72</v>
       </c>
@@ -35636,7 +35651,7 @@
       <c r="K94"/>
       <c r="L94"/>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:14">
       <c r="A95" s="12" t="s">
         <v>72</v>
       </c>
@@ -35666,7 +35681,7 @@
       <c r="K95"/>
       <c r="L95"/>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:14">
       <c r="A96" s="12" t="s">
         <v>72</v>
       </c>
@@ -35695,7 +35710,7 @@
       <c r="K96"/>
       <c r="L96"/>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:12">
       <c r="A97" s="12" t="s">
         <v>72</v>
       </c>
@@ -35724,7 +35739,7 @@
       <c r="K97"/>
       <c r="L97"/>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:12">
       <c r="A98" s="12" t="s">
         <v>72</v>
       </c>
@@ -35753,7 +35768,7 @@
       <c r="K98"/>
       <c r="L98"/>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:12">
       <c r="A99" s="12" t="s">
         <v>72</v>
       </c>
@@ -35782,7 +35797,7 @@
       <c r="K99"/>
       <c r="L99"/>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:12">
       <c r="A100" s="12" t="s">
         <v>72</v>
       </c>
@@ -35811,7 +35826,7 @@
       <c r="K100"/>
       <c r="L100"/>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:12">
       <c r="A101" s="12" t="s">
         <v>72</v>
       </c>
@@ -35840,7 +35855,7 @@
       <c r="K101"/>
       <c r="L101"/>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:12">
       <c r="A102" s="12" t="s">
         <v>72</v>
       </c>
@@ -35869,7 +35884,7 @@
       <c r="K102"/>
       <c r="L102"/>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:12">
       <c r="A103" s="12" t="s">
         <v>72</v>
       </c>
@@ -35898,7 +35913,7 @@
       <c r="K103"/>
       <c r="L103"/>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:12">
       <c r="A104" s="12" t="s">
         <v>72</v>
       </c>
@@ -35927,7 +35942,7 @@
       <c r="K104"/>
       <c r="L104"/>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:12">
       <c r="A105" s="12" t="s">
         <v>72</v>
       </c>
@@ -35956,7 +35971,7 @@
       <c r="K105"/>
       <c r="L105"/>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:12">
       <c r="A106" s="12" t="s">
         <v>72</v>
       </c>
@@ -35985,7 +36000,7 @@
       <c r="K106"/>
       <c r="L106"/>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:12">
       <c r="A107" s="12" t="s">
         <v>72</v>
       </c>
@@ -36014,7 +36029,7 @@
       <c r="K107"/>
       <c r="L107"/>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:12">
       <c r="A108" s="12" t="s">
         <v>72</v>
       </c>
@@ -36043,7 +36058,7 @@
       <c r="K108"/>
       <c r="L108"/>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:12">
       <c r="A109" s="12" t="s">
         <v>72</v>
       </c>
@@ -36072,7 +36087,7 @@
       <c r="K109"/>
       <c r="L109"/>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:12">
       <c r="A110" s="12" t="s">
         <v>72</v>
       </c>
@@ -36101,7 +36116,7 @@
       <c r="K110"/>
       <c r="L110"/>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:12">
       <c r="A111" s="12" t="s">
         <v>72</v>
       </c>
@@ -36130,7 +36145,7 @@
       <c r="K111"/>
       <c r="L111"/>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:12">
       <c r="A112" s="12" t="s">
         <v>72</v>
       </c>
@@ -36159,7 +36174,7 @@
       <c r="K112"/>
       <c r="L112"/>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:12">
       <c r="A113" s="12" t="s">
         <v>72</v>
       </c>
@@ -36188,7 +36203,7 @@
       <c r="K113"/>
       <c r="L113"/>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:12">
       <c r="A114" s="12" t="s">
         <v>72</v>
       </c>
@@ -36217,7 +36232,7 @@
       <c r="K114"/>
       <c r="L114"/>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:12">
       <c r="A115" s="12" t="s">
         <v>72</v>
       </c>
@@ -36246,7 +36261,7 @@
       <c r="K115"/>
       <c r="L115"/>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:12">
       <c r="A116"/>
       <c r="B116"/>
       <c r="C116"/>
@@ -36259,7 +36274,7 @@
       <c r="K116"/>
       <c r="L116"/>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:12">
       <c r="A117" s="12" t="s">
         <v>95</v>
       </c>
@@ -36288,7 +36303,7 @@
       <c r="K117"/>
       <c r="L117"/>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:12">
       <c r="A118" s="12" t="s">
         <v>95</v>
       </c>
@@ -36317,7 +36332,7 @@
       <c r="K118"/>
       <c r="L118"/>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:12">
       <c r="A119" s="12" t="s">
         <v>95</v>
       </c>
@@ -36346,7 +36361,7 @@
       <c r="K119"/>
       <c r="L119"/>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:12">
       <c r="A120" s="12" t="s">
         <v>95</v>
       </c>
@@ -36375,7 +36390,7 @@
       <c r="K120"/>
       <c r="L120"/>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:12">
       <c r="A121" s="12" t="s">
         <v>95</v>
       </c>
@@ -36404,7 +36419,7 @@
       <c r="K121"/>
       <c r="L121"/>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:12">
       <c r="A122" s="12" t="s">
         <v>95</v>
       </c>
@@ -36433,7 +36448,7 @@
       <c r="K122"/>
       <c r="L122"/>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:12">
       <c r="A123" s="12" t="s">
         <v>95</v>
       </c>
@@ -36462,7 +36477,7 @@
       <c r="K123"/>
       <c r="L123"/>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:12">
       <c r="A124" s="12" t="s">
         <v>95</v>
       </c>
@@ -36491,7 +36506,7 @@
       <c r="K124"/>
       <c r="L124"/>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:12">
       <c r="A125" s="12" t="s">
         <v>95</v>
       </c>
@@ -36520,7 +36535,7 @@
       <c r="K125"/>
       <c r="L125"/>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:12">
       <c r="A126" s="12" t="s">
         <v>95</v>
       </c>
@@ -36549,7 +36564,7 @@
       <c r="K126"/>
       <c r="L126"/>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:12">
       <c r="A127" s="12" t="s">
         <v>95</v>
       </c>
@@ -36578,7 +36593,7 @@
       <c r="K127"/>
       <c r="L127"/>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:12">
       <c r="A128" s="12" t="s">
         <v>95</v>
       </c>
@@ -36608,7 +36623,7 @@
       <c r="K128"/>
       <c r="L128"/>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:12">
       <c r="A129" s="12" t="s">
         <v>95</v>
       </c>
@@ -36637,7 +36652,7 @@
       <c r="K129"/>
       <c r="L129"/>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:12">
       <c r="A130" s="12" t="s">
         <v>95</v>
       </c>
@@ -36667,7 +36682,7 @@
       <c r="K130"/>
       <c r="L130"/>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:12">
       <c r="A131" s="12" t="s">
         <v>95</v>
       </c>
@@ -36696,7 +36711,7 @@
       <c r="K131"/>
       <c r="L131"/>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:12">
       <c r="A132" s="12" t="s">
         <v>95</v>
       </c>
@@ -36725,7 +36740,7 @@
       <c r="K132"/>
       <c r="L132"/>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:12">
       <c r="A133" s="12" t="s">
         <v>95</v>
       </c>
@@ -36754,7 +36769,7 @@
       <c r="K133"/>
       <c r="L133"/>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:12">
       <c r="A134" s="12" t="s">
         <v>95</v>
       </c>
@@ -36783,7 +36798,7 @@
       <c r="K134"/>
       <c r="L134"/>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:12">
       <c r="A135" s="12" t="s">
         <v>95</v>
       </c>
@@ -36812,7 +36827,7 @@
       <c r="K135"/>
       <c r="L135"/>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:12">
       <c r="A136" s="12" t="s">
         <v>95</v>
       </c>
@@ -36841,7 +36856,7 @@
       <c r="K136"/>
       <c r="L136"/>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:12">
       <c r="A137" s="12" t="s">
         <v>95</v>
       </c>
@@ -36870,7 +36885,7 @@
       <c r="K137"/>
       <c r="L137"/>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:12">
       <c r="A138" s="12" t="s">
         <v>95</v>
       </c>
@@ -36899,7 +36914,7 @@
       <c r="K138"/>
       <c r="L138"/>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:12">
       <c r="A139" s="12" t="s">
         <v>95</v>
       </c>
@@ -36928,7 +36943,7 @@
       <c r="K139"/>
       <c r="L139"/>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:12">
       <c r="A140" s="12" t="s">
         <v>95</v>
       </c>
@@ -36957,7 +36972,7 @@
       <c r="K140"/>
       <c r="L140"/>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:12">
       <c r="A141"/>
       <c r="B141"/>
       <c r="C141"/>
@@ -36970,7 +36985,7 @@
       <c r="K141"/>
       <c r="L141"/>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:12">
       <c r="A142" s="12" t="s">
         <v>96</v>
       </c>
@@ -36999,7 +37014,7 @@
       <c r="K142"/>
       <c r="L142"/>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:12">
       <c r="A143" s="12" t="s">
         <v>96</v>
       </c>
@@ -37028,7 +37043,7 @@
       <c r="K143"/>
       <c r="L143"/>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:12">
       <c r="A144" s="12" t="s">
         <v>96</v>
       </c>
@@ -37057,7 +37072,7 @@
       <c r="K144"/>
       <c r="L144"/>
     </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:12">
       <c r="A145"/>
       <c r="B145"/>
       <c r="C145"/>
@@ -37070,7 +37085,7 @@
       <c r="K145"/>
       <c r="L145"/>
     </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:12">
       <c r="A146" s="12" t="s">
         <v>208</v>
       </c>
@@ -37099,7 +37114,7 @@
       <c r="K146"/>
       <c r="L146"/>
     </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:12">
       <c r="A147" s="14" t="s">
         <v>208</v>
       </c>
@@ -37128,7 +37143,7 @@
       <c r="K147"/>
       <c r="L147"/>
     </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:12">
       <c r="A148" s="14" t="s">
         <v>208</v>
       </c>
@@ -37157,7 +37172,7 @@
       <c r="K148"/>
       <c r="L148"/>
     </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:12">
       <c r="A149"/>
       <c r="B149"/>
       <c r="C149"/>
@@ -37170,7 +37185,7 @@
       <c r="K149"/>
       <c r="L149"/>
     </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:12">
       <c r="A150" s="12" t="s">
         <v>100</v>
       </c>
@@ -37201,7 +37216,7 @@
       <c r="K150"/>
       <c r="L150"/>
     </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:12">
       <c r="A151" s="12" t="s">
         <v>100</v>
       </c>
@@ -37232,7 +37247,7 @@
       <c r="K151"/>
       <c r="L151"/>
     </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:12">
       <c r="A152" s="12" t="s">
         <v>100</v>
       </c>
@@ -37261,7 +37276,7 @@
       <c r="K152"/>
       <c r="L152"/>
     </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:12">
       <c r="A153" s="12" t="s">
         <v>100</v>
       </c>
@@ -37290,7 +37305,7 @@
       <c r="K153"/>
       <c r="L153"/>
     </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:12">
       <c r="A154" s="12" t="s">
         <v>100</v>
       </c>
@@ -37319,7 +37334,7 @@
       <c r="K154"/>
       <c r="L154"/>
     </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:12">
       <c r="A155" s="12" t="s">
         <v>100</v>
       </c>
@@ -37348,7 +37363,7 @@
       <c r="K155"/>
       <c r="L155"/>
     </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:12">
       <c r="A156" s="12" t="s">
         <v>100</v>
       </c>
@@ -37377,7 +37392,7 @@
       <c r="K156"/>
       <c r="L156"/>
     </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:12">
       <c r="A157"/>
       <c r="B157"/>
       <c r="C157"/>
@@ -37390,7 +37405,7 @@
       <c r="K157"/>
       <c r="L157"/>
     </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:12">
       <c r="A158" s="12" t="s">
         <v>112</v>
       </c>
@@ -37419,7 +37434,7 @@
       <c r="K158"/>
       <c r="L158"/>
     </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:12">
       <c r="A159" s="12" t="s">
         <v>112</v>
       </c>
@@ -37448,7 +37463,7 @@
       <c r="K159"/>
       <c r="L159"/>
     </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:12">
       <c r="A160" s="12" t="s">
         <v>112</v>
       </c>
@@ -37477,7 +37492,7 @@
       <c r="K160"/>
       <c r="L160"/>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:12">
       <c r="A161"/>
       <c r="B161"/>
       <c r="C161"/>
@@ -37490,7 +37505,7 @@
       <c r="K161"/>
       <c r="L161"/>
     </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:12">
       <c r="A162" s="12" t="s">
         <v>120</v>
       </c>
@@ -37519,7 +37534,7 @@
       <c r="K162"/>
       <c r="L162"/>
     </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:12">
       <c r="A163" s="12" t="s">
         <v>120</v>
       </c>
@@ -37548,7 +37563,7 @@
       <c r="K163"/>
       <c r="L163"/>
     </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:12">
       <c r="A164" s="12" t="s">
         <v>120</v>
       </c>
@@ -37577,7 +37592,7 @@
       <c r="K164"/>
       <c r="L164"/>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:12">
       <c r="A165" s="12" t="s">
         <v>120</v>
       </c>
@@ -37606,7 +37621,7 @@
       <c r="K165"/>
       <c r="L165"/>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:12">
       <c r="A166" s="12" t="s">
         <v>120</v>
       </c>
@@ -37635,7 +37650,7 @@
       <c r="K166"/>
       <c r="L166"/>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:12">
       <c r="A167" s="12" t="s">
         <v>120</v>
       </c>
@@ -37664,7 +37679,7 @@
       <c r="K167"/>
       <c r="L167"/>
     </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:12">
       <c r="A168" s="12" t="s">
         <v>120</v>
       </c>
@@ -37693,7 +37708,7 @@
       <c r="K168"/>
       <c r="L168"/>
     </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:12">
       <c r="A169"/>
       <c r="B169"/>
       <c r="C169"/>
@@ -37706,7 +37721,7 @@
       <c r="K169"/>
       <c r="L169"/>
     </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:12">
       <c r="A170" s="12" t="s">
         <v>126</v>
       </c>
@@ -37735,7 +37750,7 @@
       <c r="K170"/>
       <c r="L170"/>
     </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:12">
       <c r="A171" s="12" t="s">
         <v>126</v>
       </c>
@@ -37764,7 +37779,7 @@
       <c r="K171"/>
       <c r="L171"/>
     </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:12">
       <c r="A172"/>
       <c r="B172"/>
       <c r="C172"/>
@@ -37777,7 +37792,7 @@
       <c r="K172"/>
       <c r="L172"/>
     </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:12">
       <c r="A173" s="12" t="s">
         <v>127</v>
       </c>
@@ -37806,7 +37821,7 @@
       <c r="K173"/>
       <c r="L173"/>
     </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:12">
       <c r="A174" s="12" t="s">
         <v>127</v>
       </c>
@@ -37835,7 +37850,7 @@
       <c r="K174"/>
       <c r="L174"/>
     </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:12">
       <c r="A175" s="12" t="s">
         <v>127</v>
       </c>
@@ -37864,7 +37879,7 @@
       <c r="K175"/>
       <c r="L175"/>
     </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:12">
       <c r="A176" s="12" t="s">
         <v>127</v>
       </c>
@@ -37893,7 +37908,7 @@
       <c r="K176"/>
       <c r="L176"/>
     </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:12">
       <c r="A177" s="12" t="s">
         <v>127</v>
       </c>
@@ -37922,7 +37937,7 @@
       <c r="K177"/>
       <c r="L177"/>
     </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:12">
       <c r="A178" s="12" t="s">
         <v>127</v>
       </c>
@@ -37953,7 +37968,7 @@
       <c r="K178"/>
       <c r="L178"/>
     </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:12">
       <c r="A179" s="12" t="s">
         <v>127</v>
       </c>
@@ -37982,7 +37997,7 @@
       <c r="K179"/>
       <c r="L179"/>
     </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:12">
       <c r="A180" s="12" t="s">
         <v>127</v>
       </c>
@@ -38013,7 +38028,7 @@
       <c r="K180"/>
       <c r="L180"/>
     </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:12">
       <c r="A181" s="12" t="s">
         <v>127</v>
       </c>
@@ -38042,7 +38057,7 @@
       <c r="K181"/>
       <c r="L181"/>
     </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:12">
       <c r="A182" s="12" t="s">
         <v>127</v>
       </c>
@@ -38071,7 +38086,7 @@
       <c r="K182"/>
       <c r="L182"/>
     </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:12">
       <c r="A183" s="12" t="s">
         <v>127</v>
       </c>
@@ -38100,7 +38115,7 @@
       <c r="K183"/>
       <c r="L183"/>
     </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:12">
       <c r="A184" s="12" t="s">
         <v>127</v>
       </c>
@@ -38130,7 +38145,7 @@
       <c r="K184"/>
       <c r="L184"/>
     </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:12">
       <c r="A185" s="12" t="s">
         <v>127</v>
       </c>
@@ -38160,7 +38175,7 @@
       <c r="K185"/>
       <c r="L185"/>
     </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:12">
       <c r="A186" s="12" t="s">
         <v>127</v>
       </c>
@@ -38190,7 +38205,7 @@
       <c r="K186"/>
       <c r="L186"/>
     </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:12">
       <c r="A187" s="12" t="s">
         <v>127</v>
       </c>
@@ -38220,7 +38235,7 @@
       <c r="K187"/>
       <c r="L187"/>
     </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:12">
       <c r="A188" s="12" t="s">
         <v>127</v>
       </c>
@@ -38249,7 +38264,7 @@
       <c r="K188"/>
       <c r="L188"/>
     </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:12">
       <c r="A189" s="12" t="s">
         <v>127</v>
       </c>
@@ -38278,7 +38293,7 @@
       <c r="K189"/>
       <c r="L189"/>
     </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:12">
       <c r="A190" s="12" t="s">
         <v>127</v>
       </c>
@@ -38307,7 +38322,7 @@
       <c r="K190"/>
       <c r="L190"/>
     </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:12">
       <c r="A191"/>
       <c r="B191"/>
       <c r="C191"/>
@@ -38320,7 +38335,7 @@
       <c r="K191"/>
       <c r="L191"/>
     </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:12">
       <c r="A192" s="12" t="s">
         <v>146</v>
       </c>
@@ -38349,7 +38364,7 @@
       <c r="K192"/>
       <c r="L192"/>
     </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:12">
       <c r="A193" s="12" t="s">
         <v>146</v>
       </c>
@@ -38378,7 +38393,7 @@
       <c r="K193"/>
       <c r="L193"/>
     </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:12">
       <c r="A194" s="12" t="s">
         <v>146</v>
       </c>
@@ -38407,7 +38422,7 @@
       <c r="K194"/>
       <c r="L194"/>
     </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:12">
       <c r="A195" s="12" t="s">
         <v>146</v>
       </c>
@@ -38436,7 +38451,7 @@
       <c r="K195"/>
       <c r="L195"/>
     </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:12">
       <c r="A196" s="12" t="s">
         <v>146</v>
       </c>
@@ -38465,7 +38480,7 @@
       <c r="K196"/>
       <c r="L196"/>
     </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:12">
       <c r="A197" s="12" t="s">
         <v>146</v>
       </c>
@@ -38494,7 +38509,7 @@
       <c r="K197"/>
       <c r="L197"/>
     </row>
-    <row r="198" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:12">
       <c r="A198" s="12" t="s">
         <v>146</v>
       </c>
@@ -38523,7 +38538,7 @@
       <c r="K198"/>
       <c r="L198"/>
     </row>
-    <row r="199" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:12">
       <c r="A199" s="12" t="s">
         <v>146</v>
       </c>
@@ -38552,7 +38567,7 @@
       <c r="K199"/>
       <c r="L199"/>
     </row>
-    <row r="200" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:12">
       <c r="A200"/>
       <c r="B200"/>
       <c r="C200"/>
@@ -38565,7 +38580,7 @@
       <c r="K200"/>
       <c r="L200"/>
     </row>
-    <row r="201" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:12">
       <c r="A201" s="12" t="s">
         <v>154</v>
       </c>
@@ -38594,7 +38609,7 @@
       <c r="K201"/>
       <c r="L201"/>
     </row>
-    <row r="202" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:12">
       <c r="A202" s="12" t="s">
         <v>154</v>
       </c>
@@ -38623,7 +38638,7 @@
       <c r="K202"/>
       <c r="L202"/>
     </row>
-    <row r="203" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:12">
       <c r="A203" s="12" t="s">
         <v>154</v>
       </c>
@@ -38653,7 +38668,7 @@
       <c r="K203"/>
       <c r="L203"/>
     </row>
-    <row r="204" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:12">
       <c r="A204" s="12" t="s">
         <v>154</v>
       </c>
@@ -38683,7 +38698,7 @@
       <c r="K204"/>
       <c r="L204"/>
     </row>
-    <row r="205" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:12">
       <c r="A205" s="12" t="s">
         <v>154</v>
       </c>
@@ -38713,7 +38728,7 @@
       <c r="K205"/>
       <c r="L205"/>
     </row>
-    <row r="206" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:12">
       <c r="A206" s="12" t="s">
         <v>154</v>
       </c>
@@ -38743,7 +38758,7 @@
       <c r="K206"/>
       <c r="L206"/>
     </row>
-    <row r="207" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:12">
       <c r="A207" s="12" t="s">
         <v>154</v>
       </c>
@@ -38773,7 +38788,7 @@
       <c r="K207"/>
       <c r="L207"/>
     </row>
-    <row r="208" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:12">
       <c r="A208" s="12" t="s">
         <v>154</v>
       </c>
@@ -38802,7 +38817,7 @@
       <c r="K208"/>
       <c r="L208"/>
     </row>
-    <row r="209" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:12">
       <c r="A209"/>
       <c r="B209"/>
       <c r="C209"/>
@@ -38814,7 +38829,7 @@
       <c r="K209"/>
       <c r="L209"/>
     </row>
-    <row r="210" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:12">
       <c r="A210"/>
       <c r="B210"/>
       <c r="C210"/>
@@ -38828,7 +38843,7 @@
       <c r="K210"/>
       <c r="L210"/>
     </row>
-    <row r="211" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:12">
       <c r="A211"/>
       <c r="B211"/>
       <c r="C211"/>
@@ -38840,7 +38855,7 @@
       <c r="K211"/>
       <c r="L211"/>
     </row>
-    <row r="212" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:12">
       <c r="A212"/>
       <c r="B212"/>
       <c r="C212"/>
@@ -38854,7 +38869,7 @@
       <c r="K212"/>
       <c r="L212"/>
     </row>
-    <row r="213" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:12">
       <c r="A213"/>
       <c r="B213"/>
       <c r="C213"/>
@@ -38866,7 +38881,7 @@
       <c r="K213"/>
       <c r="L213"/>
     </row>
-    <row r="214" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:12">
       <c r="A214" s="12" t="s">
         <v>158</v>
       </c>
@@ -38892,7 +38907,7 @@
       <c r="K214"/>
       <c r="L214"/>
     </row>
-    <row r="215" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:12">
       <c r="A215" s="12" t="s">
         <v>160</v>
       </c>
@@ -38918,7 +38933,7 @@
       <c r="K215"/>
       <c r="L215"/>
     </row>
-    <row r="216" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:12">
       <c r="A216"/>
       <c r="B216"/>
       <c r="C216"/>
@@ -38930,7 +38945,7 @@
       <c r="K216"/>
       <c r="L216"/>
     </row>
-    <row r="217" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:12">
       <c r="A217" s="12" t="s">
         <v>162</v>
       </c>
@@ -38956,7 +38971,7 @@
       <c r="K217"/>
       <c r="L217"/>
     </row>
-    <row r="218" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:12">
       <c r="A218" s="12" t="s">
         <v>164</v>
       </c>
@@ -38982,7 +38997,7 @@
       <c r="K218"/>
       <c r="L218"/>
     </row>
-    <row r="219" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:12">
       <c r="A219" s="12" t="s">
         <v>166</v>
       </c>
@@ -39007,7 +39022,7 @@
       <c r="K219"/>
       <c r="L219"/>
     </row>
-    <row r="220" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:12">
       <c r="A220" s="12" t="s">
         <v>168</v>
       </c>
@@ -39032,15 +39047,20 @@
       <c r="K220"/>
       <c r="L220"/>
     </row>
-    <row r="221" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:12">
       <c r="L221"/>
     </row>
-    <row r="222" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:12">
       <c r="L222"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -39048,16 +39068,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL77"/>
   <sheetViews>
-    <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+    <sheetView zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="50" workbookViewId="0">
       <selection activeCellId="1" sqref="L2:M2 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1025" width="8.7109375"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:38">
       <c r="A1" s="19">
         <v>-4.8681000000000002E-2</v>
       </c>
@@ -39173,7 +39190,7 @@
         <v>1.8308000000000001E-2</v>
       </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:38">
       <c r="A2" s="19">
         <v>-4.3818000000000003E-2</v>
       </c>
@@ -39289,7 +39306,7 @@
         <v>1.4529E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:38">
       <c r="A3" s="19">
         <v>-3.4930999999999997E-2</v>
       </c>
@@ -39405,7 +39422,7 @@
         <v>1.0225E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:38">
       <c r="A4" s="19">
         <v>-2.8472999999999998E-2</v>
       </c>
@@ -39521,7 +39538,7 @@
         <v>5.3530000000000001E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:38">
       <c r="A5" s="19">
         <v>-2.3571999999999999E-2</v>
       </c>
@@ -39637,7 +39654,7 @@
         <v>2.359E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:38">
       <c r="A6" s="19">
         <v>-1.9560000000000001E-2</v>
       </c>
@@ -39753,7 +39770,7 @@
         <v>4.8299999999999998E-4</v>
       </c>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:38">
       <c r="A7" s="19">
         <v>-1.6504999999999999E-2</v>
       </c>
@@ -39869,7 +39886,7 @@
         <v>-3.1999999999999999E-5</v>
       </c>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:38">
       <c r="A8" s="19">
         <v>-1.5032999999999999E-2</v>
       </c>
@@ -39985,7 +40002,7 @@
         <v>-6.6000000000000005E-5</v>
       </c>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:38">
       <c r="A9" s="19">
         <v>-1.5565000000000001E-2</v>
       </c>
@@ -40101,7 +40118,7 @@
         <v>-1.93E-4</v>
       </c>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:38">
       <c r="A10" s="19">
         <v>-1.5072E-2</v>
       </c>
@@ -40217,7 +40234,7 @@
         <v>-3.3199999999999999E-4</v>
       </c>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:38">
       <c r="A11" s="19">
         <v>-1.3521E-2</v>
       </c>
@@ -40333,7 +40350,7 @@
         <v>4.3000000000000002E-5</v>
       </c>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:38">
       <c r="A12" s="19">
         <v>-1.2801999999999999E-2</v>
       </c>
@@ -40449,7 +40466,7 @@
         <v>1.4E-5</v>
       </c>
     </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:38">
       <c r="A13" s="19">
         <v>-1.2318000000000001E-2</v>
       </c>
@@ -40565,7 +40582,7 @@
         <v>5.9299999999999999E-4</v>
       </c>
     </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:38">
       <c r="A14" s="19">
         <v>-1.1985000000000001E-2</v>
       </c>
@@ -40681,7 +40698,7 @@
         <v>1.098E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:38">
       <c r="A15" s="19">
         <v>-1.2311000000000001E-2</v>
       </c>
@@ -40797,7 +40814,7 @@
         <v>1.3860000000000001E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:38">
       <c r="A16" s="19">
         <v>-1.2248E-2</v>
       </c>
@@ -40913,7 +40930,7 @@
         <v>1.6379999999999999E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:38">
       <c r="A17" s="19">
         <v>-1.2452E-2</v>
       </c>
@@ -41029,7 +41046,7 @@
         <v>2.5300000000000001E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:38">
       <c r="A18" s="19">
         <v>-1.2609E-2</v>
       </c>
@@ -41145,7 +41162,7 @@
         <v>2.722E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:38">
       <c r="A19" s="19">
         <v>-1.2754E-2</v>
       </c>
@@ -41261,7 +41278,7 @@
         <v>3.1779999999999998E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:38">
       <c r="A20" s="19">
         <v>-1.2996000000000001E-2</v>
       </c>
@@ -41377,7 +41394,7 @@
         <v>3.5460000000000001E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:38">
       <c r="A21" s="19">
         <v>-1.3259999999999999E-2</v>
       </c>
@@ -41493,7 +41510,7 @@
         <v>3.7520000000000001E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:38">
       <c r="A22" s="19">
         <v>-1.3252E-2</v>
       </c>
@@ -41609,7 +41626,7 @@
         <v>4.1539999999999997E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:38">
       <c r="A23" s="19">
         <v>-1.2996000000000001E-2</v>
       </c>
@@ -41725,7 +41742,7 @@
         <v>4.4120000000000001E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:38">
       <c r="A24" s="19">
         <v>-1.3065E-2</v>
       </c>
@@ -41841,7 +41858,7 @@
         <v>4.5399999999999998E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:38">
       <c r="A25" s="19">
         <v>-1.2914999999999999E-2</v>
       </c>
@@ -41957,7 +41974,7 @@
         <v>4.6839999999999998E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:38">
       <c r="A26" s="19">
         <v>-1.2756E-2</v>
       </c>
@@ -42073,7 +42090,7 @@
         <v>4.9439999999999996E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:38">
       <c r="A27" s="19">
         <v>-1.2621E-2</v>
       </c>
@@ -42189,7 +42206,7 @@
         <v>5.0939999999999996E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:38">
       <c r="A28" s="19">
         <v>-1.2571000000000001E-2</v>
       </c>
@@ -42305,7 +42322,7 @@
         <v>5.3070000000000001E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:38">
       <c r="A29" s="19">
         <v>-1.2444999999999999E-2</v>
       </c>
@@ -42421,7 +42438,7 @@
         <v>5.398E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:38">
       <c r="A30" s="19">
         <v>-1.2527E-2</v>
       </c>
@@ -42537,7 +42554,7 @@
         <v>5.4229999999999999E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:38">
       <c r="A31" s="19">
         <v>-1.2609E-2</v>
       </c>
@@ -42653,7 +42670,7 @@
         <v>5.4590000000000003E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:38">
       <c r="A32" s="19">
         <v>-1.2475999999999999E-2</v>
       </c>
@@ -42769,7 +42786,7 @@
         <v>5.509E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:38">
       <c r="A33" s="19">
         <v>-1.2545000000000001E-2</v>
       </c>
@@ -42885,7 +42902,7 @@
         <v>5.555E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:38">
       <c r="A34" s="19">
         <v>-1.2597000000000001E-2</v>
       </c>
@@ -43001,7 +43018,7 @@
         <v>5.522E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:38">
       <c r="A35" s="19">
         <v>-1.2463999999999999E-2</v>
       </c>
@@ -43117,7 +43134,7 @@
         <v>5.5180000000000003E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:38">
       <c r="A36" s="19">
         <v>-1.235E-2</v>
       </c>
@@ -43233,7 +43250,7 @@
         <v>5.4469999999999996E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:38">
       <c r="A37" s="19">
         <v>-1.2390999999999999E-2</v>
       </c>
@@ -43349,7 +43366,7 @@
         <v>5.3680000000000004E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:38">
       <c r="A38" s="19">
         <v>-1.2290000000000001E-2</v>
       </c>
@@ -43465,7 +43482,7 @@
         <v>5.2030000000000002E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:38">
       <c r="A39" s="19">
         <v>-1.2145E-2</v>
       </c>
@@ -43581,7 +43598,7 @@
         <v>5.0260000000000001E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:38">
       <c r="A40" s="19">
         <v>-1.2045999999999999E-2</v>
       </c>
@@ -43697,7 +43714,7 @@
         <v>4.7590000000000002E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:38">
       <c r="A41" s="19">
         <v>-1.2135E-2</v>
       </c>
@@ -43813,7 +43830,7 @@
         <v>4.6090000000000002E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:38">
       <c r="A42" s="19">
         <v>-9.0749999999999997E-3</v>
       </c>
@@ -43929,7 +43946,7 @@
         <v>2.7499999999999998E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:38">
       <c r="A43" s="19">
         <v>-9.2790000000000008E-3</v>
       </c>
@@ -44045,7 +44062,7 @@
         <v>2.9619999999999998E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:38">
       <c r="A44" s="19">
         <v>-9.3989999999999994E-3</v>
       </c>
@@ -44161,7 +44178,7 @@
         <v>3.1819999999999999E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:38">
       <c r="A45" s="19">
         <v>-9.6290000000000004E-3</v>
       </c>
@@ -44277,7 +44294,7 @@
         <v>3.3400000000000001E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:38">
       <c r="A46" s="19">
         <v>-9.6570000000000007E-3</v>
       </c>
@@ -44393,7 +44410,7 @@
         <v>3.4299999999999999E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:38">
       <c r="A47" s="19">
         <v>-9.8580000000000004E-3</v>
       </c>
@@ -44509,7 +44526,7 @@
         <v>3.5669999999999999E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:38">
       <c r="A48" s="19">
         <v>-9.9699999999999997E-3</v>
       </c>
@@ -44625,7 +44642,7 @@
         <v>3.6240000000000001E-3</v>
       </c>
     </row>
-    <row r="49" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:38">
       <c r="A49" s="19">
         <v>-9.9399999999999992E-3</v>
       </c>
@@ -44741,7 +44758,7 @@
         <v>3.6830000000000001E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:38">
       <c r="A50" s="19">
         <v>-9.9220000000000003E-3</v>
       </c>
@@ -44857,7 +44874,7 @@
         <v>3.7859999999999999E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:38">
       <c r="A51" s="19">
         <v>-9.9900000000000006E-3</v>
       </c>
@@ -44973,7 +44990,7 @@
         <v>3.908E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:38">
       <c r="A52" s="19">
         <v>-1.0068000000000001E-2</v>
       </c>
@@ -45089,7 +45106,7 @@
         <v>3.8809999999999999E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:38">
       <c r="A53" s="19">
         <v>-9.9939999999999994E-3</v>
       </c>
@@ -45205,7 +45222,7 @@
         <v>3.9719999999999998E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:38">
       <c r="A54" s="19">
         <v>-1.0073E-2</v>
       </c>
@@ -45321,7 +45338,7 @@
         <v>3.9940000000000002E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:38">
       <c r="A55" s="19">
         <v>-1.0144E-2</v>
       </c>
@@ -45437,7 +45454,7 @@
         <v>4.0540000000000003E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:38">
       <c r="A56" s="19">
         <v>-1.0099E-2</v>
       </c>
@@ -45553,7 +45570,7 @@
         <v>4.0540000000000003E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:38">
       <c r="A57" s="19">
         <v>-1.0014E-2</v>
       </c>
@@ -45669,7 +45686,7 @@
         <v>4.1570000000000001E-3</v>
       </c>
     </row>
-    <row r="58" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:38">
       <c r="A58" s="19">
         <v>-1.0068000000000001E-2</v>
       </c>
@@ -45785,7 +45802,7 @@
         <v>4.1219999999999998E-3</v>
       </c>
     </row>
-    <row r="59" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:38">
       <c r="A59" s="19">
         <v>-1.0227E-2</v>
       </c>
@@ -45901,7 +45918,7 @@
         <v>4.1660000000000004E-3</v>
       </c>
     </row>
-    <row r="60" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:38">
       <c r="A60" s="19">
         <v>-1.0083E-2</v>
       </c>
@@ -46017,7 +46034,7 @@
         <v>4.1790000000000004E-3</v>
       </c>
     </row>
-    <row r="61" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:38">
       <c r="A61" s="19">
         <v>-1.0024999999999999E-2</v>
       </c>
@@ -46133,7 +46150,7 @@
         <v>4.1180000000000001E-3</v>
       </c>
     </row>
-    <row r="62" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:38">
       <c r="A62" s="19">
         <v>-9.9950000000000004E-3</v>
       </c>
@@ -46249,7 +46266,7 @@
         <v>4.1729999999999996E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:38">
       <c r="A63" s="19">
         <v>-1.0057999999999999E-2</v>
       </c>
@@ -46365,7 +46382,7 @@
         <v>4.0540000000000003E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:38">
       <c r="A64" s="19">
         <v>-9.8700000000000003E-3</v>
       </c>
@@ -46481,7 +46498,7 @@
         <v>3.908E-3</v>
       </c>
     </row>
-    <row r="65" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:38">
       <c r="A65" s="19">
         <v>-9.6310000000000007E-3</v>
       </c>
@@ -46597,7 +46614,7 @@
         <v>3.7919999999999998E-3</v>
       </c>
     </row>
-    <row r="66" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:38">
       <c r="A66" s="19">
         <v>-9.4680000000000007E-3</v>
       </c>
@@ -46713,7 +46730,7 @@
         <v>3.5609999999999999E-3</v>
       </c>
     </row>
-    <row r="67" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:38">
       <c r="A67" s="19">
         <v>-9.2530000000000008E-3</v>
       </c>
@@ -46829,7 +46846,7 @@
         <v>3.3319999999999999E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:38">
       <c r="A68" s="19">
         <v>-9.1929999999999998E-3</v>
       </c>
@@ -46945,7 +46962,7 @@
         <v>3.1480000000000002E-3</v>
       </c>
     </row>
-    <row r="69" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:38">
       <c r="A69" s="19">
         <v>-9.1769999999999994E-3</v>
       </c>
@@ -47061,7 +47078,7 @@
         <v>2.9090000000000001E-3</v>
       </c>
     </row>
-    <row r="70" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:38">
       <c r="A70" s="19">
         <v>-8.9149999999999993E-3</v>
       </c>
@@ -47177,7 +47194,7 @@
         <v>2.7049999999999999E-3</v>
       </c>
     </row>
-    <row r="71" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:38">
       <c r="A71" s="19">
         <v>-8.5920000000000007E-3</v>
       </c>
@@ -47293,7 +47310,7 @@
         <v>2.5920000000000001E-3</v>
       </c>
     </row>
-    <row r="72" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:38">
       <c r="A72" s="19">
         <v>-8.5489999999999993E-3</v>
       </c>
@@ -47409,7 +47426,7 @@
         <v>2.2780000000000001E-3</v>
       </c>
     </row>
-    <row r="73" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:38">
       <c r="A73" s="19">
         <v>-8.1949999999999992E-3</v>
       </c>
@@ -47525,7 +47542,7 @@
         <v>2.3089999999999999E-3</v>
       </c>
     </row>
-    <row r="74" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:38">
       <c r="A74" s="19">
         <v>-8.0520000000000001E-3</v>
       </c>
@@ -47641,7 +47658,7 @@
         <v>2.3050000000000002E-3</v>
       </c>
     </row>
-    <row r="75" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:38">
       <c r="A75" s="19">
         <v>-8.2279999999999992E-3</v>
       </c>
@@ -47757,7 +47774,7 @@
         <v>1.9840000000000001E-3</v>
       </c>
     </row>
-    <row r="76" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:38">
       <c r="A76" s="19">
         <v>-8.0999999999999996E-3</v>
       </c>
@@ -47873,7 +47890,7 @@
         <v>1.941E-3</v>
       </c>
     </row>
-    <row r="77" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:38">
       <c r="A77" s="19">
         <v>-7.8379999999999995E-3</v>
       </c>
@@ -47992,6 +48009,11 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -47999,16 +48021,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL77"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCellId="1" sqref="L2:M2 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1025" width="8.7109375"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:38">
       <c r="A1" s="20">
         <v>-2.7814999999999999E-2</v>
       </c>
@@ -48124,7 +48143,7 @@
         <v>1.1034E-2</v>
       </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:38">
       <c r="A2" s="20">
         <v>-2.8749E-2</v>
       </c>
@@ -48240,7 +48259,7 @@
         <v>9.8440000000000003E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:38">
       <c r="A3" s="20">
         <v>-2.3845999999999999E-2</v>
       </c>
@@ -48356,7 +48375,7 @@
         <v>8.5909999999999997E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:38">
       <c r="A4" s="20">
         <v>-2.2463E-2</v>
       </c>
@@ -48472,7 +48491,7 @@
         <v>9.5189999999999997E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:38">
       <c r="A5" s="20">
         <v>-2.1078E-2</v>
       </c>
@@ -48588,7 +48607,7 @@
         <v>6.5589999999999997E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:38">
       <c r="A6" s="20">
         <v>-1.7205999999999999E-2</v>
       </c>
@@ -48704,7 +48723,7 @@
         <v>7.1260000000000004E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:38">
       <c r="A7" s="20">
         <v>-1.4818E-2</v>
       </c>
@@ -48820,7 +48839,7 @@
         <v>4.6880000000000003E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:38">
       <c r="A8" s="20">
         <v>-1.3204E-2</v>
       </c>
@@ -48936,7 +48955,7 @@
         <v>5.3559999999999997E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:38">
       <c r="A9" s="20">
         <v>-1.1083000000000001E-2</v>
       </c>
@@ -49052,7 +49071,7 @@
         <v>4.6899999999999997E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:38">
       <c r="A10" s="20">
         <v>-1.0874999999999999E-2</v>
       </c>
@@ -49168,7 +49187,7 @@
         <v>3.5439999999999998E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:38">
       <c r="A11" s="20">
         <v>-9.5779999999999997E-3</v>
       </c>
@@ -49284,7 +49303,7 @@
         <v>3.29E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:38">
       <c r="A12" s="20">
         <v>-1.0030000000000001E-2</v>
       </c>
@@ -49400,7 +49419,7 @@
         <v>2.6090000000000002E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:38">
       <c r="A13" s="20">
         <v>-8.2059999999999998E-3</v>
       </c>
@@ -49516,7 +49535,7 @@
         <v>2.9619999999999998E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:38">
       <c r="A14" s="20">
         <v>-8.1359999999999991E-3</v>
       </c>
@@ -49632,7 +49651,7 @@
         <v>2.643E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:38">
       <c r="A15" s="20">
         <v>-8.5470000000000008E-3</v>
       </c>
@@ -49748,7 +49767,7 @@
         <v>2.153E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:38">
       <c r="A16" s="20">
         <v>-7.2269999999999999E-3</v>
       </c>
@@ -49864,7 +49883,7 @@
         <v>2.6020000000000001E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:38">
       <c r="A17" s="20">
         <v>-6.9309999999999997E-3</v>
       </c>
@@ -49980,7 +49999,7 @@
         <v>2.5200000000000001E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:38">
       <c r="A18" s="20">
         <v>-7.541E-3</v>
       </c>
@@ -50096,7 +50115,7 @@
         <v>2.15E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:38">
       <c r="A19" s="20">
         <v>-7.1149999999999998E-3</v>
       </c>
@@ -50212,7 +50231,7 @@
         <v>2.3029999999999999E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:38">
       <c r="A20" s="20">
         <v>-6.698E-3</v>
       </c>
@@ -50328,7 +50347,7 @@
         <v>2.2959999999999999E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:38">
       <c r="A21" s="20">
         <v>-7.1260000000000004E-3</v>
       </c>
@@ -50444,7 +50463,7 @@
         <v>2.3029999999999999E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:38">
       <c r="A22" s="20">
         <v>-6.633E-3</v>
       </c>
@@ -50560,7 +50579,7 @@
         <v>2.5349999999999999E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:38">
       <c r="A23" s="20">
         <v>-6.5900000000000004E-3</v>
       </c>
@@ -50676,7 +50695,7 @@
         <v>2.395E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:38">
       <c r="A24" s="20">
         <v>-6.4739999999999997E-3</v>
       </c>
@@ -50792,7 +50811,7 @@
         <v>2.5469999999999998E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:38">
       <c r="A25" s="20">
         <v>-6.509E-3</v>
       </c>
@@ -50908,7 +50927,7 @@
         <v>2.578E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:38">
       <c r="A26" s="20">
         <v>-7.319E-3</v>
       </c>
@@ -51024,7 +51043,7 @@
         <v>2.4880000000000002E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:38">
       <c r="A27" s="20">
         <v>-6.8609999999999999E-3</v>
       </c>
@@ -51140,7 +51159,7 @@
         <v>2.7910000000000001E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:38">
       <c r="A28" s="20">
         <v>-7.254E-3</v>
       </c>
@@ -51256,7 +51275,7 @@
         <v>2.6050000000000001E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:38">
       <c r="A29" s="20">
         <v>-7.0320000000000001E-3</v>
       </c>
@@ -51372,7 +51391,7 @@
         <v>2.6450000000000002E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:38">
       <c r="A30" s="20">
         <v>-7.3540000000000003E-3</v>
       </c>
@@ -51488,7 +51507,7 @@
         <v>2.7529999999999998E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:38">
       <c r="A31" s="20">
         <v>-6.7759999999999999E-3</v>
       </c>
@@ -51604,7 +51623,7 @@
         <v>2.5739999999999999E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:38">
       <c r="A32" s="20">
         <v>-7.1089999999999999E-3</v>
       </c>
@@ -51720,7 +51739,7 @@
         <v>2.6870000000000002E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:38">
       <c r="A33" s="20">
         <v>-6.9560000000000004E-3</v>
       </c>
@@ -51836,7 +51855,7 @@
         <v>2.8059999999999999E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:38">
       <c r="A34" s="20">
         <v>-6.9490000000000003E-3</v>
       </c>
@@ -51952,7 +51971,7 @@
         <v>2.5200000000000001E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:38">
       <c r="A35" s="20">
         <v>-7.1500000000000001E-3</v>
       </c>
@@ -52068,7 +52087,7 @@
         <v>2.6059999999999998E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:38">
       <c r="A36" s="20">
         <v>-6.5009999999999998E-3</v>
       </c>
@@ -52184,7 +52203,7 @@
         <v>2.6069999999999999E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:38">
       <c r="A37" s="20">
         <v>-7.4400000000000004E-3</v>
       </c>
@@ -52300,7 +52319,7 @@
         <v>2.3960000000000001E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:38">
       <c r="A38" s="20">
         <v>-7.2160000000000002E-3</v>
       </c>
@@ -52416,7 +52435,7 @@
         <v>2.4940000000000001E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:38">
       <c r="A39" s="20">
         <v>-6.9829999999999996E-3</v>
       </c>
@@ -52532,7 +52551,7 @@
         <v>2.2070000000000002E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:38">
       <c r="A40" s="20">
         <v>-7.234E-3</v>
       </c>
@@ -52648,7 +52667,7 @@
         <v>2.0240000000000002E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:38">
       <c r="A41" s="20">
         <v>-6.6610000000000003E-3</v>
       </c>
@@ -52764,7 +52783,7 @@
         <v>2.029E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:38">
       <c r="A42" s="20">
         <v>-3.6770000000000001E-3</v>
       </c>
@@ -52880,7 +52899,7 @@
         <v>5.6599999999999999E-4</v>
       </c>
     </row>
-    <row r="43" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:38">
       <c r="A43" s="20">
         <v>-4.1570000000000001E-3</v>
       </c>
@@ -52996,7 +53015,7 @@
         <v>7.1500000000000003E-4</v>
       </c>
     </row>
-    <row r="44" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:38">
       <c r="A44" s="20">
         <v>-4.1700000000000001E-3</v>
       </c>
@@ -53112,7 +53131,7 @@
         <v>9.3400000000000004E-4</v>
       </c>
     </row>
-    <row r="45" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:38">
       <c r="A45" s="20">
         <v>-4.6810000000000003E-3</v>
       </c>
@@ -53228,7 +53247,7 @@
         <v>9.8799999999999995E-4</v>
       </c>
     </row>
-    <row r="46" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:38">
       <c r="A46" s="20">
         <v>-4.8690000000000001E-3</v>
       </c>
@@ -53344,7 +53363,7 @@
         <v>1.17E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:38">
       <c r="A47" s="20">
         <v>-4.8789999999999997E-3</v>
       </c>
@@ -53460,7 +53479,7 @@
         <v>1.312E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:38">
       <c r="A48" s="20">
         <v>-5.2100000000000002E-3</v>
       </c>
@@ -53576,7 +53595,7 @@
         <v>1.3910000000000001E-3</v>
       </c>
     </row>
-    <row r="49" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:38">
       <c r="A49" s="20">
         <v>-5.3600000000000002E-3</v>
       </c>
@@ -53692,7 +53711,7 @@
         <v>1.4710000000000001E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:38">
       <c r="A50" s="20">
         <v>-5.4980000000000003E-3</v>
       </c>
@@ -53808,7 +53827,7 @@
         <v>1.5169999999999999E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:38">
       <c r="A51" s="20">
         <v>-5.3540000000000003E-3</v>
       </c>
@@ -53924,7 +53943,7 @@
         <v>1.6379999999999999E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:38">
       <c r="A52" s="20">
         <v>-5.2490000000000002E-3</v>
       </c>
@@ -54040,7 +54059,7 @@
         <v>1.7160000000000001E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:38">
       <c r="A53" s="20">
         <v>-5.3990000000000002E-3</v>
       </c>
@@ -54156,7 +54175,7 @@
         <v>1.7949999999999999E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:38">
       <c r="A54" s="20">
         <v>-5.5960000000000003E-3</v>
       </c>
@@ -54272,7 +54291,7 @@
         <v>1.856E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:38">
       <c r="A55" s="20">
         <v>-5.5170000000000002E-3</v>
       </c>
@@ -54388,7 +54407,7 @@
         <v>1.9740000000000001E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:38">
       <c r="A56" s="20">
         <v>-5.4710000000000002E-3</v>
       </c>
@@ -54504,7 +54523,7 @@
         <v>2.0170000000000001E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:38">
       <c r="A57" s="20">
         <v>-5.7780000000000001E-3</v>
       </c>
@@ -54620,7 +54639,7 @@
         <v>2.0219999999999999E-3</v>
       </c>
     </row>
-    <row r="58" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:38">
       <c r="A58" s="20">
         <v>-6.2500000000000003E-3</v>
       </c>
@@ -54736,7 +54755,7 @@
         <v>2.075E-3</v>
       </c>
     </row>
-    <row r="59" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:38">
       <c r="A59" s="20">
         <v>-6.097E-3</v>
       </c>
@@ -54852,7 +54871,7 @@
         <v>2.209E-3</v>
       </c>
     </row>
-    <row r="60" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:38">
       <c r="A60" s="20">
         <v>-5.5900000000000004E-3</v>
       </c>
@@ -54968,7 +54987,7 @@
         <v>2.2399999999999998E-3</v>
       </c>
     </row>
-    <row r="61" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:38">
       <c r="A61" s="20">
         <v>-5.6519999999999999E-3</v>
       </c>
@@ -55084,7 +55103,7 @@
         <v>2.3479999999999998E-3</v>
       </c>
     </row>
-    <row r="62" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:38">
       <c r="A62" s="20">
         <v>-5.9350000000000002E-3</v>
       </c>
@@ -55200,7 +55219,7 @@
         <v>2.264E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:38">
       <c r="A63" s="20">
         <v>-5.9800000000000001E-3</v>
       </c>
@@ -55316,7 +55335,7 @@
         <v>2.2499999999999998E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:38">
       <c r="A64" s="20">
         <v>-5.5019999999999999E-3</v>
       </c>
@@ -55432,7 +55451,7 @@
         <v>2.3010000000000001E-3</v>
       </c>
     </row>
-    <row r="65" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:38">
       <c r="A65" s="20">
         <v>-5.8060000000000004E-3</v>
       </c>
@@ -55548,7 +55567,7 @@
         <v>2.1640000000000001E-3</v>
       </c>
     </row>
-    <row r="66" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:38">
       <c r="A66" s="20">
         <v>-5.5970000000000004E-3</v>
       </c>
@@ -55664,7 +55683,7 @@
         <v>2.0860000000000002E-3</v>
       </c>
     </row>
-    <row r="67" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:38">
       <c r="A67" s="20">
         <v>-5.1640000000000002E-3</v>
       </c>
@@ -55780,7 +55799,7 @@
         <v>1.928E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:38">
       <c r="A68" s="20">
         <v>-5.0949999999999997E-3</v>
       </c>
@@ -55896,7 +55915,7 @@
         <v>1.6919999999999999E-3</v>
       </c>
     </row>
-    <row r="69" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:38">
       <c r="A69" s="20">
         <v>-5.5589999999999997E-3</v>
       </c>
@@ -56012,7 +56031,7 @@
         <v>1.6019999999999999E-3</v>
       </c>
     </row>
-    <row r="70" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:38">
       <c r="A70" s="20">
         <v>-4.7239999999999999E-3</v>
       </c>
@@ -56128,7 +56147,7 @@
         <v>1.366E-3</v>
       </c>
     </row>
-    <row r="71" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:38">
       <c r="A71" s="20">
         <v>-4.8669999999999998E-3</v>
       </c>
@@ -56244,7 +56263,7 @@
         <v>1.044E-3</v>
       </c>
     </row>
-    <row r="72" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:38">
       <c r="A72" s="20">
         <v>-4.4799999999999996E-3</v>
       </c>
@@ -56360,7 +56379,7 @@
         <v>1.0579999999999999E-3</v>
       </c>
     </row>
-    <row r="73" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:38">
       <c r="A73" s="20">
         <v>-3.954E-3</v>
       </c>
@@ -56476,7 +56495,7 @@
         <v>6.9200000000000002E-4</v>
       </c>
     </row>
-    <row r="74" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:38">
       <c r="A74" s="20">
         <v>-3.9249999999999997E-3</v>
       </c>
@@ -56592,7 +56611,7 @@
         <v>6.3199999999999997E-4</v>
       </c>
     </row>
-    <row r="75" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:38">
       <c r="A75" s="20">
         <v>-3.3180000000000002E-3</v>
       </c>
@@ -56708,7 +56727,7 @@
         <v>5.6899999999999995E-4</v>
       </c>
     </row>
-    <row r="76" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:38">
       <c r="A76" s="20">
         <v>-3.411E-3</v>
       </c>
@@ -56824,7 +56843,7 @@
         <v>2.63E-4</v>
       </c>
     </row>
-    <row r="77" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:38">
       <c r="A77" s="20">
         <v>-2.9190000000000002E-3</v>
       </c>
@@ -56943,6 +56962,11 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -56950,16 +56974,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK80"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCellId="1" sqref="L2:M2 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1025" width="8.7109375"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37">
       <c r="A1" s="20">
         <v>-0.137742</v>
       </c>
@@ -57072,7 +57093,7 @@
         <v>6.6461000000000006E-2</v>
       </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:37">
       <c r="A2" s="20">
         <v>-0.123683</v>
       </c>
@@ -57185,7 +57206,7 @@
         <v>5.8449000000000001E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:37">
       <c r="A3" s="20">
         <v>-0.10781399999999999</v>
       </c>
@@ -57298,7 +57319,7 @@
         <v>4.9410000000000003E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:37">
       <c r="A4" s="20">
         <v>-9.4052999999999998E-2</v>
       </c>
@@ -57411,7 +57432,7 @@
         <v>4.1635999999999999E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:37">
       <c r="A5" s="20">
         <v>-8.1762000000000001E-2</v>
       </c>
@@ -57524,7 +57545,7 @@
         <v>3.5949000000000002E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:37">
       <c r="A6" s="20">
         <v>-7.3484999999999995E-2</v>
       </c>
@@ -57637,7 +57658,7 @@
         <v>3.1420999999999998E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:37">
       <c r="A7" s="20">
         <v>-6.5034999999999996E-2</v>
       </c>
@@ -57750,7 +57771,7 @@
         <v>2.7899E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:37">
       <c r="A8" s="20">
         <v>-5.9811999999999997E-2</v>
       </c>
@@ -57863,7 +57884,7 @@
         <v>2.5471000000000001E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:37">
       <c r="A9" s="20">
         <v>-5.4587999999999998E-2</v>
       </c>
@@ -57976,7 +57997,7 @@
         <v>2.3725E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:37">
       <c r="A10" s="20">
         <v>-5.0522999999999998E-2</v>
       </c>
@@ -58089,7 +58110,7 @@
         <v>2.2010999999999999E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:37">
       <c r="A11" s="20">
         <v>-4.6417E-2</v>
       </c>
@@ -58202,7 +58223,7 @@
         <v>2.0455000000000001E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:37">
       <c r="A12" s="20">
         <v>-4.2894000000000002E-2</v>
       </c>
@@ -58315,7 +58336,7 @@
         <v>1.9470000000000001E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:37">
       <c r="A13" s="20">
         <v>-3.9669000000000003E-2</v>
       </c>
@@ -58428,7 +58449,7 @@
         <v>1.8332000000000001E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:37">
       <c r="A14" s="20">
         <v>-3.7416999999999999E-2</v>
       </c>
@@ -58541,7 +58562,7 @@
         <v>1.7141E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:37">
       <c r="A15" s="20">
         <v>-3.4583999999999997E-2</v>
       </c>
@@ -58654,7 +58675,7 @@
         <v>1.6249E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:37">
       <c r="A16" s="20">
         <v>-3.2606000000000003E-2</v>
       </c>
@@ -58767,7 +58788,7 @@
         <v>1.5339E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:37">
       <c r="A17" s="20">
         <v>-3.0513999999999999E-2</v>
       </c>
@@ -58880,7 +58901,7 @@
         <v>1.4739E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:37">
       <c r="A18" s="20">
         <v>-2.8753999999999998E-2</v>
       </c>
@@ -58993,7 +59014,7 @@
         <v>1.3972E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:37">
       <c r="A19" s="20">
         <v>-2.7019999999999999E-2</v>
       </c>
@@ -59106,7 +59127,7 @@
         <v>1.3403999999999999E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:37">
       <c r="A20" s="20">
         <v>-2.5475999999999999E-2</v>
       </c>
@@ -59219,7 +59240,7 @@
         <v>1.2867999999999999E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:37">
       <c r="A21" s="20">
         <v>-2.3871E-2</v>
       </c>
@@ -59332,7 +59353,7 @@
         <v>1.2293999999999999E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:37">
       <c r="A22" s="20">
         <v>-2.2845000000000001E-2</v>
       </c>
@@ -59445,7 +59466,7 @@
         <v>1.1951E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:37">
       <c r="A23" s="20">
         <v>-2.1545000000000002E-2</v>
       </c>
@@ -59558,7 +59579,7 @@
         <v>1.1438E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:37">
       <c r="A24" s="20">
         <v>-2.0223999999999999E-2</v>
       </c>
@@ -59671,7 +59692,7 @@
         <v>1.1024000000000001E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:37">
       <c r="A25" s="20">
         <v>-1.9413E-2</v>
       </c>
@@ -59784,7 +59805,7 @@
         <v>1.0603E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:37">
       <c r="A26" s="20">
         <v>-1.8415000000000001E-2</v>
       </c>
@@ -59897,7 +59918,7 @@
         <v>1.0244E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:37">
       <c r="A27" s="20">
         <v>-1.7524000000000001E-2</v>
       </c>
@@ -60010,7 +60031,7 @@
         <v>9.887E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:37">
       <c r="A28" s="20">
         <v>-1.6789999999999999E-2</v>
       </c>
@@ -60123,7 +60144,7 @@
         <v>9.6430000000000005E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:37">
       <c r="A29" s="20">
         <v>-1.6043000000000002E-2</v>
       </c>
@@ -60236,7 +60257,7 @@
         <v>9.3469999999999994E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:37">
       <c r="A30" s="20">
         <v>-1.5464E-2</v>
       </c>
@@ -60349,7 +60370,7 @@
         <v>9.0679999999999997E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:37">
       <c r="A31" s="20">
         <v>-1.4756E-2</v>
       </c>
@@ -60462,7 +60483,7 @@
         <v>8.7930000000000005E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:37">
       <c r="A32" s="20">
         <v>-1.4224000000000001E-2</v>
       </c>
@@ -60575,7 +60596,7 @@
         <v>8.5599999999999999E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:37">
       <c r="A33" s="20">
         <v>-1.3837E-2</v>
       </c>
@@ -60688,7 +60709,7 @@
         <v>8.3809999999999996E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:37">
       <c r="A34" s="20">
         <v>-1.3697000000000001E-2</v>
       </c>
@@ -60801,7 +60822,7 @@
         <v>8.2850000000000007E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:37">
       <c r="A35" s="20">
         <v>-1.3313999999999999E-2</v>
       </c>
@@ -60914,7 +60935,7 @@
         <v>8.1309999999999993E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:37">
       <c r="A36" s="20">
         <v>-1.2796E-2</v>
       </c>
@@ -61027,7 +61048,7 @@
         <v>7.9869999999999993E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:37">
       <c r="A37" s="20">
         <v>-1.2234999999999999E-2</v>
       </c>
@@ -61140,7 +61161,7 @@
         <v>7.8079999999999998E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:37">
       <c r="A38" s="20">
         <v>-1.1845E-2</v>
       </c>
@@ -61253,7 +61274,7 @@
         <v>7.6360000000000004E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:37">
       <c r="A39" s="20">
         <v>-1.1485E-2</v>
       </c>
@@ -61366,7 +61387,7 @@
         <v>7.4780000000000003E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:37">
       <c r="A40" s="20">
         <v>-1.106E-2</v>
       </c>
@@ -61479,7 +61500,7 @@
         <v>7.3419999999999996E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:37">
       <c r="A41" s="20">
         <v>-1.0828000000000001E-2</v>
       </c>
@@ -61592,7 +61613,7 @@
         <v>7.221E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:37">
       <c r="A42" s="20">
         <v>-1.0421E-2</v>
       </c>
@@ -61705,7 +61726,7 @@
         <v>7.1050000000000002E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:37">
       <c r="A43" s="20">
         <v>-1.1143E-2</v>
       </c>
@@ -61818,7 +61839,7 @@
         <v>7.1409999999999998E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:37">
       <c r="A44" s="20">
         <v>-1.0886E-2</v>
       </c>
@@ -61931,7 +61952,7 @@
         <v>7.0029999999999997E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:37">
       <c r="A45" s="20">
         <v>-1.0647999999999999E-2</v>
       </c>
@@ -62044,7 +62065,7 @@
         <v>6.953E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:37">
       <c r="A46" s="20">
         <v>-1.0467000000000001E-2</v>
       </c>
@@ -62157,7 +62178,7 @@
         <v>6.8339999999999998E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:37">
       <c r="A47" s="20">
         <v>-1.013E-2</v>
       </c>
@@ -62270,7 +62291,7 @@
         <v>6.7689999999999998E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:37">
       <c r="A48" s="20">
         <v>-9.8860000000000007E-3</v>
       </c>
@@ -62383,7 +62404,7 @@
         <v>6.7010000000000004E-3</v>
       </c>
     </row>
-    <row r="49" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:37">
       <c r="A49" s="20">
         <v>-9.6659999999999992E-3</v>
       </c>
@@ -62496,7 +62517,7 @@
         <v>6.6039999999999996E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:37">
       <c r="A50" s="20">
         <v>-9.3959999999999998E-3</v>
       </c>
@@ -62609,7 +62630,7 @@
         <v>6.5519999999999997E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:37">
       <c r="A51" s="20">
         <v>-9.2219999999999993E-3</v>
       </c>
@@ -62722,7 +62743,7 @@
         <v>6.4710000000000002E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:37">
       <c r="A52" s="20">
         <v>-9.0480000000000005E-3</v>
       </c>
@@ -62835,7 +62856,7 @@
         <v>6.411E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:37">
       <c r="A53" s="20">
         <v>-8.8380000000000004E-3</v>
       </c>
@@ -62948,7 +62969,7 @@
         <v>6.3270000000000002E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:37">
       <c r="A54" s="20">
         <v>-8.5699999999999995E-3</v>
       </c>
@@ -63061,7 +63082,7 @@
         <v>6.2500000000000003E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:37">
       <c r="A55" s="20">
         <v>-8.4600000000000005E-3</v>
       </c>
@@ -63174,7 +63195,7 @@
         <v>6.1830000000000001E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:37">
       <c r="A56" s="20">
         <v>-8.3490000000000005E-3</v>
       </c>
@@ -63287,7 +63308,7 @@
         <v>6.0879999999999997E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:37">
       <c r="A57" s="20">
         <v>-8.1949999999999992E-3</v>
       </c>
@@ -63400,7 +63421,7 @@
         <v>5.9890000000000004E-3</v>
       </c>
     </row>
-    <row r="58" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:37">
       <c r="A58" s="20">
         <v>-8.0630000000000007E-3</v>
       </c>
@@ -63513,7 +63534,7 @@
         <v>5.9820000000000003E-3</v>
       </c>
     </row>
-    <row r="59" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:37">
       <c r="A59" s="20">
         <v>-7.9459999999999999E-3</v>
       </c>
@@ -63626,7 +63647,7 @@
         <v>5.888E-3</v>
       </c>
     </row>
-    <row r="60" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:37">
       <c r="A60" s="20">
         <v>-7.9430000000000004E-3</v>
       </c>
@@ -63739,7 +63760,7 @@
         <v>5.8279999999999998E-3</v>
       </c>
     </row>
-    <row r="61" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:37">
       <c r="A61" s="20">
         <v>-7.8200000000000006E-3</v>
       </c>
@@ -63852,7 +63873,7 @@
         <v>5.7800000000000004E-3</v>
       </c>
     </row>
-    <row r="62" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:37">
       <c r="A62" s="20">
         <v>-7.744E-3</v>
       </c>
@@ -63965,7 +63986,7 @@
         <v>5.7070000000000003E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:37">
       <c r="A63" s="20">
         <v>-7.8239999999999994E-3</v>
       </c>
@@ -64078,7 +64099,7 @@
         <v>5.6169999999999996E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:37">
       <c r="A64" s="20">
         <v>-7.5839999999999996E-3</v>
       </c>
@@ -64191,7 +64212,7 @@
         <v>5.5500000000000002E-3</v>
       </c>
     </row>
-    <row r="65" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:37">
       <c r="A65" s="20">
         <v>-7.4770000000000001E-3</v>
       </c>
@@ -64304,7 +64325,7 @@
         <v>5.4739999999999997E-3</v>
       </c>
     </row>
-    <row r="66" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:37">
       <c r="A66" s="20">
         <v>-7.4190000000000002E-3</v>
       </c>
@@ -64417,7 +64438,7 @@
         <v>5.3189999999999999E-3</v>
       </c>
     </row>
-    <row r="67" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:37">
       <c r="A67" s="20">
         <v>-7.2389999999999998E-3</v>
       </c>
@@ -64530,7 +64551,7 @@
         <v>5.2630000000000003E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:37">
       <c r="A68" s="20">
         <v>-7.162E-3</v>
       </c>
@@ -64643,7 +64664,7 @@
         <v>5.1669999999999997E-3</v>
       </c>
     </row>
-    <row r="69" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:37">
       <c r="A69" s="20">
         <v>-7.1510000000000002E-3</v>
       </c>
@@ -64756,7 +64777,7 @@
         <v>5.097E-3</v>
       </c>
     </row>
-    <row r="70" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:37">
       <c r="A70" s="20">
         <v>-6.9509999999999997E-3</v>
       </c>
@@ -64869,7 +64890,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="71" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:37">
       <c r="A71" s="20">
         <v>-6.6819999999999996E-3</v>
       </c>
@@ -64982,7 +65003,7 @@
         <v>4.9399999999999999E-3</v>
       </c>
     </row>
-    <row r="72" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:37">
       <c r="A72" s="20">
         <v>-6.6140000000000001E-3</v>
       </c>
@@ -65095,7 +65116,7 @@
         <v>4.9150000000000001E-3</v>
       </c>
     </row>
-    <row r="73" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:37">
       <c r="A73" s="20">
         <v>-6.6369999999999997E-3</v>
       </c>
@@ -65208,7 +65229,7 @@
         <v>4.9119999999999997E-3</v>
       </c>
     </row>
-    <row r="74" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:37">
       <c r="A74" s="20">
         <v>-6.5770000000000004E-3</v>
       </c>
@@ -65321,7 +65342,7 @@
         <v>5.0039999999999998E-3</v>
       </c>
     </row>
-    <row r="75" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:37">
       <c r="A75" s="20">
         <v>-6.7380000000000001E-3</v>
       </c>
@@ -65434,7 +65455,7 @@
         <v>4.9969999999999997E-3</v>
       </c>
     </row>
-    <row r="76" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:37">
       <c r="A76" s="20">
         <v>-6.9880000000000003E-3</v>
       </c>
@@ -65547,7 +65568,7 @@
         <v>5.1000000000000004E-3</v>
       </c>
     </row>
-    <row r="77" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:37">
       <c r="A77" s="20">
         <v>-7.3220000000000004E-3</v>
       </c>
@@ -65660,7 +65681,7 @@
         <v>5.0379999999999999E-3</v>
       </c>
     </row>
-    <row r="78" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:37">
       <c r="A78" s="20">
         <v>-7.3029999999999996E-3</v>
       </c>
@@ -65773,7 +65794,7 @@
         <v>5.0619999999999997E-3</v>
       </c>
     </row>
-    <row r="79" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:37">
       <c r="A79" s="20">
         <v>-7.3010000000000002E-3</v>
       </c>
@@ -65886,7 +65907,7 @@
         <v>5.0480000000000004E-3</v>
       </c>
     </row>
-    <row r="80" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:37">
       <c r="A80" s="20">
         <v>-6.5409999999999999E-3</v>
       </c>
@@ -66002,6 +66023,11 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -66009,16 +66035,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK80"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCellId="1" sqref="L2:M2 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1025" width="8.7109375"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37">
       <c r="A1" s="20">
         <v>-6.2105E-2</v>
       </c>
@@ -66131,7 +66154,7 @@
         <v>1.7430999999999999E-2</v>
       </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:37">
       <c r="A2" s="20">
         <v>-6.2109999999999999E-2</v>
       </c>
@@ -66244,7 +66267,7 @@
         <v>1.8002000000000001E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:37">
       <c r="A3" s="20">
         <v>-5.9396999999999998E-2</v>
       </c>
@@ -66357,7 +66380,7 @@
         <v>1.7097000000000001E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:37">
       <c r="A4" s="20">
         <v>-5.5306000000000001E-2</v>
       </c>
@@ -66470,7 +66493,7 @@
         <v>1.6445999999999999E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:37">
       <c r="A5" s="20">
         <v>-5.6001000000000002E-2</v>
       </c>
@@ -66583,7 +66606,7 @@
         <v>1.6289000000000001E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:37">
       <c r="A6" s="20">
         <v>-5.4563E-2</v>
       </c>
@@ -66696,7 +66719,7 @@
         <v>1.5913E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:37">
       <c r="A7" s="20">
         <v>-5.2789999999999997E-2</v>
       </c>
@@ -66809,7 +66832,7 @@
         <v>1.5017000000000001E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:37">
       <c r="A8" s="20">
         <v>-5.1534999999999997E-2</v>
       </c>
@@ -66922,7 +66945,7 @@
         <v>1.4651000000000001E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:37">
       <c r="A9" s="20">
         <v>-4.8661000000000003E-2</v>
       </c>
@@ -67035,7 +67058,7 @@
         <v>1.3776999999999999E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:37">
       <c r="A10" s="20">
         <v>-4.6107000000000002E-2</v>
       </c>
@@ -67148,7 +67171,7 @@
         <v>1.3070999999999999E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:37">
       <c r="A11" s="20">
         <v>-4.4930999999999999E-2</v>
       </c>
@@ -67261,7 +67284,7 @@
         <v>1.2226000000000001E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:37">
       <c r="A12" s="20">
         <v>-4.1687000000000002E-2</v>
       </c>
@@ -67374,7 +67397,7 @@
         <v>1.1269E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:37">
       <c r="A13" s="20">
         <v>-4.1057000000000003E-2</v>
       </c>
@@ -67487,7 +67510,7 @@
         <v>1.0658000000000001E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:37">
       <c r="A14" s="20">
         <v>-3.9824999999999999E-2</v>
       </c>
@@ -67600,7 +67623,7 @@
         <v>9.8219999999999991E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:37">
       <c r="A15" s="20">
         <v>-3.8571000000000001E-2</v>
       </c>
@@ -67713,7 +67736,7 @@
         <v>9.0150000000000004E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:37">
       <c r="A16" s="20">
         <v>-3.8205000000000003E-2</v>
       </c>
@@ -67826,7 +67849,7 @@
         <v>8.5030000000000001E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:37">
       <c r="A17" s="20">
         <v>-3.669E-2</v>
       </c>
@@ -67939,7 +67962,7 @@
         <v>7.7819999999999999E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:37">
       <c r="A18" s="20">
         <v>-3.6133999999999999E-2</v>
       </c>
@@ -68052,7 +68075,7 @@
         <v>7.1970000000000003E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:37">
       <c r="A19" s="20">
         <v>-3.5808E-2</v>
       </c>
@@ -68165,7 +68188,7 @@
         <v>6.8529999999999997E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:37">
       <c r="A20" s="20">
         <v>-3.4254E-2</v>
       </c>
@@ -68278,7 +68301,7 @@
         <v>6.1590000000000004E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:37">
       <c r="A21" s="20">
         <v>-3.4375000000000003E-2</v>
       </c>
@@ -68391,7 +68414,7 @@
         <v>5.8389999999999996E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:37">
       <c r="A22" s="20">
         <v>-3.2938000000000002E-2</v>
       </c>
@@ -68504,7 +68527,7 @@
         <v>5.6940000000000003E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:37">
       <c r="A23" s="20">
         <v>-3.2185999999999999E-2</v>
       </c>
@@ -68617,7 +68640,7 @@
         <v>5.0239999999999998E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:37">
       <c r="A24" s="20">
         <v>-3.1965E-2</v>
       </c>
@@ -68730,7 +68753,7 @@
         <v>4.9969999999999997E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:37">
       <c r="A25" s="20">
         <v>-3.0623000000000001E-2</v>
       </c>
@@ -68843,7 +68866,7 @@
         <v>4.6119999999999998E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:37">
       <c r="A26" s="20">
         <v>-3.0419000000000002E-2</v>
       </c>
@@ -68956,7 +68979,7 @@
         <v>4.3010000000000001E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:37">
       <c r="A27" s="20">
         <v>-3.0085000000000001E-2</v>
       </c>
@@ -69069,7 +69092,7 @@
         <v>4.091E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:37">
       <c r="A28" s="20">
         <v>-2.8989999999999998E-2</v>
       </c>
@@ -69182,7 +69205,7 @@
         <v>3.7859999999999999E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:37">
       <c r="A29" s="20">
         <v>-2.9000000000000001E-2</v>
       </c>
@@ -69295,7 +69318,7 @@
         <v>3.539E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:37">
       <c r="A30" s="20">
         <v>-2.8365000000000001E-2</v>
       </c>
@@ -69408,7 +69431,7 @@
         <v>3.4480000000000001E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:37">
       <c r="A31" s="20">
         <v>-2.7723000000000001E-2</v>
       </c>
@@ -69521,7 +69544,7 @@
         <v>3.0130000000000001E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:37">
       <c r="A32" s="20">
         <v>-2.7921999999999999E-2</v>
       </c>
@@ -69634,7 +69657,7 @@
         <v>2.8999999999999998E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:37">
       <c r="A33" s="20">
         <v>-2.6561999999999999E-2</v>
       </c>
@@ -69747,7 +69770,7 @@
         <v>2.7529999999999998E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:37">
       <c r="A34" s="20">
         <v>-2.6464999999999999E-2</v>
       </c>
@@ -69860,7 +69883,7 @@
         <v>2.317E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:37">
       <c r="A35" s="20">
         <v>-2.5968999999999999E-2</v>
       </c>
@@ -69973,7 +69996,7 @@
         <v>2.336E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:37">
       <c r="A36" s="20">
         <v>-2.5225000000000001E-2</v>
       </c>
@@ -70086,7 +70109,7 @@
         <v>2.111E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:37">
       <c r="A37" s="20">
         <v>-2.5010999999999999E-2</v>
       </c>
@@ -70199,7 +70222,7 @@
         <v>1.9840000000000001E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:37">
       <c r="A38" s="20">
         <v>-2.4392E-2</v>
       </c>
@@ -70312,7 +70335,7 @@
         <v>1.9580000000000001E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:37">
       <c r="A39" s="20">
         <v>-2.3747999999999998E-2</v>
       </c>
@@ -70425,7 +70448,7 @@
         <v>1.73E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:37">
       <c r="A40" s="20">
         <v>-2.3202E-2</v>
       </c>
@@ -70538,7 +70561,7 @@
         <v>1.622E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:37">
       <c r="A41" s="20">
         <v>-2.2259999999999999E-2</v>
       </c>
@@ -70651,7 +70674,7 @@
         <v>1.5969999999999999E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:37">
       <c r="A42" s="20">
         <v>-2.1624999999999998E-2</v>
       </c>
@@ -70764,7 +70787,7 @@
         <v>1.5479999999999999E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:37">
       <c r="A43" s="20">
         <v>-1.8606999999999999E-2</v>
       </c>
@@ -70877,7 +70900,7 @@
         <v>1.505E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:37">
       <c r="A44" s="20">
         <v>-1.8742000000000002E-2</v>
       </c>
@@ -70990,7 +71013,7 @@
         <v>1.196E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:37">
       <c r="A45" s="20">
         <v>-1.8568999999999999E-2</v>
       </c>
@@ -71103,7 +71126,7 @@
         <v>1.0839999999999999E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:37">
       <c r="A46" s="20">
         <v>-1.8393E-2</v>
       </c>
@@ -71216,7 +71239,7 @@
         <v>8.3799999999999999E-4</v>
       </c>
     </row>
-    <row r="47" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:37">
       <c r="A47" s="20">
         <v>-1.8085E-2</v>
       </c>
@@ -71329,7 +71352,7 @@
         <v>7.7399999999999995E-4</v>
       </c>
     </row>
-    <row r="48" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:37">
       <c r="A48" s="20">
         <v>-1.7812000000000001E-2</v>
       </c>
@@ -71442,7 +71465,7 @@
         <v>6.5499999999999998E-4</v>
       </c>
     </row>
-    <row r="49" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:37">
       <c r="A49" s="20">
         <v>-1.7655000000000001E-2</v>
       </c>
@@ -71555,7 +71578,7 @@
         <v>5.9900000000000003E-4</v>
       </c>
     </row>
-    <row r="50" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:37">
       <c r="A50" s="20">
         <v>-1.7250000000000001E-2</v>
       </c>
@@ -71668,7 +71691,7 @@
         <v>4.8899999999999996E-4</v>
       </c>
     </row>
-    <row r="51" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:37">
       <c r="A51" s="20">
         <v>-1.6927999999999999E-2</v>
       </c>
@@ -71781,7 +71804,7 @@
         <v>5.2400000000000005E-4</v>
       </c>
     </row>
-    <row r="52" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:37">
       <c r="A52" s="20">
         <v>-1.6673E-2</v>
       </c>
@@ -71894,7 +71917,7 @@
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="53" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:37">
       <c r="A53" s="20">
         <v>-1.6570000000000001E-2</v>
       </c>
@@ -72007,7 +72030,7 @@
         <v>3.4600000000000001E-4</v>
       </c>
     </row>
-    <row r="54" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:37">
       <c r="A54" s="20">
         <v>-1.6185000000000001E-2</v>
       </c>
@@ -72120,7 +72143,7 @@
         <v>2.5700000000000001E-4</v>
       </c>
     </row>
-    <row r="55" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:37">
       <c r="A55" s="20">
         <v>-1.6348999999999999E-2</v>
       </c>
@@ -72233,7 +72256,7 @@
         <v>2.1599999999999999E-4</v>
       </c>
     </row>
-    <row r="56" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:37">
       <c r="A56" s="20">
         <v>-1.6230999999999999E-2</v>
       </c>
@@ -72346,7 +72369,7 @@
         <v>3.0800000000000001E-4</v>
       </c>
     </row>
-    <row r="57" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:37">
       <c r="A57" s="20">
         <v>-1.6052E-2</v>
       </c>
@@ -72459,7 +72482,7 @@
         <v>2.7599999999999999E-4</v>
       </c>
     </row>
-    <row r="58" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:37">
       <c r="A58" s="20">
         <v>-1.5886000000000001E-2</v>
       </c>
@@ -72572,7 +72595,7 @@
         <v>2.6200000000000003E-4</v>
       </c>
     </row>
-    <row r="59" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:37">
       <c r="A59" s="20">
         <v>-1.5980000000000001E-2</v>
       </c>
@@ -72685,7 +72708,7 @@
         <v>1.47E-4</v>
       </c>
     </row>
-    <row r="60" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:37">
       <c r="A60" s="20">
         <v>-1.5838999999999999E-2</v>
       </c>
@@ -72798,7 +72821,7 @@
         <v>1.4300000000000001E-4</v>
       </c>
     </row>
-    <row r="61" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:37">
       <c r="A61" s="20">
         <v>-1.6036000000000002E-2</v>
       </c>
@@ -72911,7 +72934,7 @@
         <v>4.0000000000000003E-5</v>
       </c>
     </row>
-    <row r="62" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:37">
       <c r="A62" s="20">
         <v>-1.5748000000000002E-2</v>
       </c>
@@ -73024,7 +73047,7 @@
         <v>-1.03E-4</v>
       </c>
     </row>
-    <row r="63" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:37">
       <c r="A63" s="20">
         <v>-1.5389999999999999E-2</v>
       </c>
@@ -73137,7 +73160,7 @@
         <v>-6.4999999999999994E-5</v>
       </c>
     </row>
-    <row r="64" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:37">
       <c r="A64" s="20">
         <v>-1.5724999999999999E-2</v>
       </c>
@@ -73250,7 +73273,7 @@
         <v>-2.2100000000000001E-4</v>
       </c>
     </row>
-    <row r="65" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:37">
       <c r="A65" s="20">
         <v>-1.521E-2</v>
       </c>
@@ -73363,7 +73386,7 @@
         <v>-3.1399999999999999E-4</v>
       </c>
     </row>
-    <row r="66" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:37">
       <c r="A66" s="20">
         <v>-1.5178000000000001E-2</v>
       </c>
@@ -73476,7 +73499,7 @@
         <v>-3.86E-4</v>
       </c>
     </row>
-    <row r="67" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:37">
       <c r="A67" s="20">
         <v>-1.4957E-2</v>
       </c>
@@ -73589,7 +73612,7 @@
         <v>-5.1199999999999998E-4</v>
       </c>
     </row>
-    <row r="68" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:37">
       <c r="A68" s="20">
         <v>-1.4435999999999999E-2</v>
       </c>
@@ -73702,7 +73725,7 @@
         <v>-5.8100000000000003E-4</v>
       </c>
     </row>
-    <row r="69" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:37">
       <c r="A69" s="20">
         <v>-1.4089000000000001E-2</v>
       </c>
@@ -73815,7 +73838,7 @@
         <v>-6.4800000000000003E-4</v>
       </c>
     </row>
-    <row r="70" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:37">
       <c r="A70" s="20">
         <v>-1.3396E-2</v>
       </c>
@@ -73928,7 +73951,7 @@
         <v>-6.9899999999999997E-4</v>
       </c>
     </row>
-    <row r="71" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:37">
       <c r="A71" s="20">
         <v>-1.2173E-2</v>
       </c>
@@ -74041,7 +74064,7 @@
         <v>-8.7900000000000001E-4</v>
       </c>
     </row>
-    <row r="72" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:37">
       <c r="A72" s="20">
         <v>-1.1815000000000001E-2</v>
       </c>
@@ -74154,7 +74177,7 @@
         <v>-7.1500000000000003E-4</v>
       </c>
     </row>
-    <row r="73" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:37">
       <c r="A73" s="20">
         <v>-1.1017000000000001E-2</v>
       </c>
@@ -74267,7 +74290,7 @@
         <v>-7.7499999999999997E-4</v>
       </c>
     </row>
-    <row r="74" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:37">
       <c r="A74" s="20">
         <v>-1.0482999999999999E-2</v>
       </c>
@@ -74380,7 +74403,7 @@
         <v>-7.5500000000000003E-4</v>
       </c>
     </row>
-    <row r="75" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:37">
       <c r="A75" s="20">
         <v>-1.0366E-2</v>
       </c>
@@ -74493,7 +74516,7 @@
         <v>-5.7899999999999998E-4</v>
       </c>
     </row>
-    <row r="76" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:37">
       <c r="A76" s="20">
         <v>-9.8659999999999998E-3</v>
       </c>
@@ -74606,7 +74629,7 @@
         <v>-6.3100000000000005E-4</v>
       </c>
     </row>
-    <row r="77" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:37">
       <c r="A77" s="20">
         <v>-1.0338999999999999E-2</v>
       </c>
@@ -74719,7 +74742,7 @@
         <v>-5.53E-4</v>
       </c>
     </row>
-    <row r="78" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:37">
       <c r="A78" s="20">
         <v>-1.0491E-2</v>
       </c>
@@ -74832,7 +74855,7 @@
         <v>-3.6900000000000002E-4</v>
       </c>
     </row>
-    <row r="79" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:37">
       <c r="A79" s="20">
         <v>-1.0500000000000001E-2</v>
       </c>
@@ -74945,7 +74968,7 @@
         <v>-5.71E-4</v>
       </c>
     </row>
-    <row r="80" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:37">
       <c r="A80" s="20">
         <v>-1.1900000000000001E-2</v>
       </c>
@@ -75061,6 +75084,11 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -75068,17 +75096,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL77"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCellId="1" sqref="L2:M2 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" customWidth="1"/>
-    <col min="2" max="1025" width="8.7109375"/>
+    <col min="1" max="1" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:38">
       <c r="A1" s="19">
         <v>-4.8681000000000002E-2</v>
       </c>
@@ -75194,7 +75221,7 @@
         <v>1.8308000000000001E-2</v>
       </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:38">
       <c r="A2" s="19">
         <v>-4.3818000000000003E-2</v>
       </c>
@@ -75310,7 +75337,7 @@
         <v>1.4529E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:38">
       <c r="A3" s="19">
         <v>-3.4930999999999997E-2</v>
       </c>
@@ -75426,7 +75453,7 @@
         <v>1.0225E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:38">
       <c r="A4" s="19">
         <v>-2.8472999999999998E-2</v>
       </c>
@@ -75542,7 +75569,7 @@
         <v>5.3530000000000001E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:38">
       <c r="A5" s="19">
         <v>-2.3571999999999999E-2</v>
       </c>
@@ -75658,7 +75685,7 @@
         <v>2.359E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:38">
       <c r="A6" s="19">
         <v>-1.9560000000000001E-2</v>
       </c>
@@ -75774,7 +75801,7 @@
         <v>4.8299999999999998E-4</v>
       </c>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:38">
       <c r="A7" s="19">
         <v>-1.6504999999999999E-2</v>
       </c>
@@ -75890,7 +75917,7 @@
         <v>-3.1999999999999999E-5</v>
       </c>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:38">
       <c r="A8" s="19">
         <v>-1.5032999999999999E-2</v>
       </c>
@@ -76006,7 +76033,7 @@
         <v>-6.6000000000000005E-5</v>
       </c>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:38">
       <c r="A9" s="19">
         <v>-1.5565000000000001E-2</v>
       </c>
@@ -76122,7 +76149,7 @@
         <v>-1.93E-4</v>
       </c>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:38">
       <c r="A10" s="19">
         <v>-1.5072E-2</v>
       </c>
@@ -76238,7 +76265,7 @@
         <v>-3.3199999999999999E-4</v>
       </c>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:38">
       <c r="A11" s="19">
         <v>-1.3521E-2</v>
       </c>
@@ -76354,7 +76381,7 @@
         <v>4.3000000000000002E-5</v>
       </c>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:38">
       <c r="A12" s="19">
         <v>-1.2801999999999999E-2</v>
       </c>
@@ -76470,7 +76497,7 @@
         <v>1.4E-5</v>
       </c>
     </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:38">
       <c r="A13" s="19">
         <v>-1.2318000000000001E-2</v>
       </c>
@@ -76586,7 +76613,7 @@
         <v>5.9299999999999999E-4</v>
       </c>
     </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:38">
       <c r="A14" s="19">
         <v>-1.1985000000000001E-2</v>
       </c>
@@ -76702,7 +76729,7 @@
         <v>1.098E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:38">
       <c r="A15" s="19">
         <v>-1.2311000000000001E-2</v>
       </c>
@@ -76818,7 +76845,7 @@
         <v>1.3860000000000001E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:38">
       <c r="A16" s="19">
         <v>-1.2248E-2</v>
       </c>
@@ -76934,7 +76961,7 @@
         <v>1.6379999999999999E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:38">
       <c r="A17" s="19">
         <v>-1.2452E-2</v>
       </c>
@@ -77050,7 +77077,7 @@
         <v>2.5300000000000001E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:38">
       <c r="A18" s="19">
         <v>-1.2609E-2</v>
       </c>
@@ -77166,7 +77193,7 @@
         <v>2.722E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:38">
       <c r="A19" s="19">
         <v>-1.2754E-2</v>
       </c>
@@ -77282,7 +77309,7 @@
         <v>3.1779999999999998E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:38">
       <c r="A20" s="19">
         <v>-1.2996000000000001E-2</v>
       </c>
@@ -77398,7 +77425,7 @@
         <v>3.5460000000000001E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:38">
       <c r="A21" s="19">
         <v>-1.3259999999999999E-2</v>
       </c>
@@ -77514,7 +77541,7 @@
         <v>3.7520000000000001E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:38">
       <c r="A22" s="19">
         <v>-1.3252E-2</v>
       </c>
@@ -77630,7 +77657,7 @@
         <v>4.1539999999999997E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:38">
       <c r="A23" s="19">
         <v>-1.2996000000000001E-2</v>
       </c>
@@ -77746,7 +77773,7 @@
         <v>4.4120000000000001E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:38">
       <c r="A24" s="19">
         <v>-1.3065E-2</v>
       </c>
@@ -77862,7 +77889,7 @@
         <v>4.5399999999999998E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:38">
       <c r="A25" s="19">
         <v>-1.2914999999999999E-2</v>
       </c>
@@ -77978,7 +78005,7 @@
         <v>4.6839999999999998E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:38">
       <c r="A26" s="19">
         <v>-1.2756E-2</v>
       </c>
@@ -78094,7 +78121,7 @@
         <v>4.9439999999999996E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:38">
       <c r="A27" s="19">
         <v>-1.2621E-2</v>
       </c>
@@ -78210,7 +78237,7 @@
         <v>5.0939999999999996E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:38">
       <c r="A28" s="19">
         <v>-1.2571000000000001E-2</v>
       </c>
@@ -78326,7 +78353,7 @@
         <v>5.3070000000000001E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:38">
       <c r="A29" s="19">
         <v>-1.2444999999999999E-2</v>
       </c>
@@ -78442,7 +78469,7 @@
         <v>5.398E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:38">
       <c r="A30" s="19">
         <v>-1.2527E-2</v>
       </c>
@@ -78558,7 +78585,7 @@
         <v>5.4229999999999999E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:38">
       <c r="A31" s="19">
         <v>-1.2609E-2</v>
       </c>
@@ -78674,7 +78701,7 @@
         <v>5.4590000000000003E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:38">
       <c r="A32" s="19">
         <v>-1.2475999999999999E-2</v>
       </c>
@@ -78790,7 +78817,7 @@
         <v>5.509E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:38">
       <c r="A33" s="19">
         <v>-1.2545000000000001E-2</v>
       </c>
@@ -78906,7 +78933,7 @@
         <v>5.555E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:38">
       <c r="A34" s="19">
         <v>-1.2597000000000001E-2</v>
       </c>
@@ -79022,7 +79049,7 @@
         <v>5.522E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:38">
       <c r="A35" s="19">
         <v>-1.2463999999999999E-2</v>
       </c>
@@ -79138,7 +79165,7 @@
         <v>5.5180000000000003E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:38">
       <c r="A36" s="19">
         <v>-1.235E-2</v>
       </c>
@@ -79254,7 +79281,7 @@
         <v>5.4469999999999996E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:38">
       <c r="A37" s="19">
         <v>-1.2390999999999999E-2</v>
       </c>
@@ -79370,7 +79397,7 @@
         <v>5.3680000000000004E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:38">
       <c r="A38" s="19">
         <v>-1.2290000000000001E-2</v>
       </c>
@@ -79486,7 +79513,7 @@
         <v>5.2030000000000002E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:38">
       <c r="A39" s="19">
         <v>-1.2145E-2</v>
       </c>
@@ -79602,7 +79629,7 @@
         <v>5.0260000000000001E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:38">
       <c r="A40" s="19">
         <v>-1.2045999999999999E-2</v>
       </c>
@@ -79718,7 +79745,7 @@
         <v>4.7590000000000002E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:38">
       <c r="A41" s="19">
         <v>-1.2135E-2</v>
       </c>
@@ -79834,7 +79861,7 @@
         <v>4.6090000000000002E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:38">
       <c r="A42" s="19">
         <v>-9.0749999999999997E-3</v>
       </c>
@@ -79950,7 +79977,7 @@
         <v>2.7499999999999998E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:38">
       <c r="A43" s="19">
         <v>-9.2790000000000008E-3</v>
       </c>
@@ -80066,7 +80093,7 @@
         <v>2.9619999999999998E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:38">
       <c r="A44" s="19">
         <v>-9.3989999999999994E-3</v>
       </c>
@@ -80182,7 +80209,7 @@
         <v>3.1819999999999999E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:38">
       <c r="A45" s="19">
         <v>-9.6290000000000004E-3</v>
       </c>
@@ -80298,7 +80325,7 @@
         <v>3.3400000000000001E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:38">
       <c r="A46" s="19">
         <v>-9.6570000000000007E-3</v>
       </c>
@@ -80414,7 +80441,7 @@
         <v>3.4299999999999999E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:38">
       <c r="A47" s="19">
         <v>-9.8580000000000004E-3</v>
       </c>
@@ -80530,7 +80557,7 @@
         <v>3.5669999999999999E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:38">
       <c r="A48" s="19">
         <v>-9.9699999999999997E-3</v>
       </c>
@@ -80646,7 +80673,7 @@
         <v>3.6240000000000001E-3</v>
       </c>
     </row>
-    <row r="49" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:38">
       <c r="A49" s="19">
         <v>-9.9399999999999992E-3</v>
       </c>
@@ -80762,7 +80789,7 @@
         <v>3.6830000000000001E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:38">
       <c r="A50" s="19">
         <v>-9.9220000000000003E-3</v>
       </c>
@@ -80878,7 +80905,7 @@
         <v>3.7859999999999999E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:38">
       <c r="A51" s="19">
         <v>-9.9900000000000006E-3</v>
       </c>
@@ -80994,7 +81021,7 @@
         <v>3.908E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:38">
       <c r="A52" s="19">
         <v>-1.0068000000000001E-2</v>
       </c>
@@ -81110,7 +81137,7 @@
         <v>3.8809999999999999E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:38">
       <c r="A53" s="19">
         <v>-9.9939999999999994E-3</v>
       </c>
@@ -81226,7 +81253,7 @@
         <v>3.9719999999999998E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:38">
       <c r="A54" s="19">
         <v>-1.0073E-2</v>
       </c>
@@ -81342,7 +81369,7 @@
         <v>3.9940000000000002E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:38">
       <c r="A55" s="19">
         <v>-1.0144E-2</v>
       </c>
@@ -81458,7 +81485,7 @@
         <v>4.0540000000000003E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:38">
       <c r="A56" s="19">
         <v>-1.0099E-2</v>
       </c>
@@ -81574,7 +81601,7 @@
         <v>4.0540000000000003E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:38">
       <c r="A57" s="19">
         <v>-1.0014E-2</v>
       </c>
@@ -81690,7 +81717,7 @@
         <v>4.1570000000000001E-3</v>
       </c>
     </row>
-    <row r="58" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:38">
       <c r="A58" s="19">
         <v>-1.0068000000000001E-2</v>
       </c>
@@ -81806,7 +81833,7 @@
         <v>4.1219999999999998E-3</v>
       </c>
     </row>
-    <row r="59" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:38">
       <c r="A59" s="19">
         <v>-1.0227E-2</v>
       </c>
@@ -81922,7 +81949,7 @@
         <v>4.1660000000000004E-3</v>
       </c>
     </row>
-    <row r="60" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:38">
       <c r="A60" s="19">
         <v>-1.0083E-2</v>
       </c>
@@ -82038,7 +82065,7 @@
         <v>4.1790000000000004E-3</v>
       </c>
     </row>
-    <row r="61" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:38">
       <c r="A61" s="19">
         <v>-1.0024999999999999E-2</v>
       </c>
@@ -82154,7 +82181,7 @@
         <v>4.1180000000000001E-3</v>
       </c>
     </row>
-    <row r="62" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:38">
       <c r="A62" s="19">
         <v>-9.9950000000000004E-3</v>
       </c>
@@ -82270,7 +82297,7 @@
         <v>4.1729999999999996E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:38">
       <c r="A63" s="19">
         <v>-1.0057999999999999E-2</v>
       </c>
@@ -82386,7 +82413,7 @@
         <v>4.0540000000000003E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:38">
       <c r="A64" s="19">
         <v>-9.8700000000000003E-3</v>
       </c>
@@ -82502,7 +82529,7 @@
         <v>3.908E-3</v>
       </c>
     </row>
-    <row r="65" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:38">
       <c r="A65" s="19">
         <v>-9.6310000000000007E-3</v>
       </c>
@@ -82618,7 +82645,7 @@
         <v>3.7919999999999998E-3</v>
       </c>
     </row>
-    <row r="66" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:38">
       <c r="A66" s="19">
         <v>-9.4680000000000007E-3</v>
       </c>
@@ -82734,7 +82761,7 @@
         <v>3.5609999999999999E-3</v>
       </c>
     </row>
-    <row r="67" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:38">
       <c r="A67" s="19">
         <v>-9.2530000000000008E-3</v>
       </c>
@@ -82850,7 +82877,7 @@
         <v>3.3319999999999999E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:38">
       <c r="A68" s="19">
         <v>-9.1929999999999998E-3</v>
       </c>
@@ -82966,7 +82993,7 @@
         <v>3.1480000000000002E-3</v>
       </c>
     </row>
-    <row r="69" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:38">
       <c r="A69" s="19">
         <v>-9.1769999999999994E-3</v>
       </c>
@@ -83082,7 +83109,7 @@
         <v>2.9090000000000001E-3</v>
       </c>
     </row>
-    <row r="70" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:38">
       <c r="A70" s="19">
         <v>-8.9149999999999993E-3</v>
       </c>
@@ -83198,7 +83225,7 @@
         <v>2.7049999999999999E-3</v>
       </c>
     </row>
-    <row r="71" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:38">
       <c r="A71" s="19">
         <v>-8.5920000000000007E-3</v>
       </c>
@@ -83314,7 +83341,7 @@
         <v>2.5920000000000001E-3</v>
       </c>
     </row>
-    <row r="72" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:38">
       <c r="A72" s="19">
         <v>-8.5489999999999993E-3</v>
       </c>
@@ -83430,7 +83457,7 @@
         <v>2.2780000000000001E-3</v>
       </c>
     </row>
-    <row r="73" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:38">
       <c r="A73" s="19">
         <v>-8.1949999999999992E-3</v>
       </c>
@@ -83546,7 +83573,7 @@
         <v>2.3089999999999999E-3</v>
       </c>
     </row>
-    <row r="74" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:38">
       <c r="A74" s="19">
         <v>-8.0520000000000001E-3</v>
       </c>
@@ -83662,7 +83689,7 @@
         <v>2.3050000000000002E-3</v>
       </c>
     </row>
-    <row r="75" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:38">
       <c r="A75" s="19">
         <v>-8.2279999999999992E-3</v>
       </c>
@@ -83778,7 +83805,7 @@
         <v>1.9840000000000001E-3</v>
       </c>
     </row>
-    <row r="76" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:38">
       <c r="A76" s="19">
         <v>-8.0999999999999996E-3</v>
       </c>
@@ -83894,7 +83921,7 @@
         <v>1.941E-3</v>
       </c>
     </row>
-    <row r="77" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:38">
       <c r="A77" s="19">
         <v>-7.8379999999999995E-3</v>
       </c>
@@ -84013,5 +84040,10 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>